--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -1562,9 +1562,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1630,13 +1630,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1644,7 +1637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,46 +1651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,6 +1674,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1734,8 +1741,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,27 +1757,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1811,13 +1811,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,55 +1877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,85 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,6 +1914,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,17 +2075,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2099,11 +2108,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2127,46 +2157,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2175,37 +2175,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2214,94 +2208,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2722,7 +2722,7 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="424">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -1562,10 +1562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1630,13 +1630,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1645,15 +1638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,21 +1660,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1711,7 +1689,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1741,17 +1727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1768,6 +1745,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,7 +1811,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,49 +1961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,109 +1985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,6 +2061,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2071,6 +2119,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,63 +2149,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2163,10 +2163,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2175,133 +2175,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2721,7 +2721,7 @@
   <sheetPr/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
@@ -6070,8 +6070,8 @@
   <sheetPr/>
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -7108,7 +7108,9 @@
       <c r="A52" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="C52" s="11" t="s">
         <v>189</v>
       </c>
@@ -7126,7 +7128,9 @@
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="C53" s="11" t="s">
         <v>192</v>
       </c>
@@ -7144,7 +7148,9 @@
       <c r="A54" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="C54" s="11" t="s">
         <v>195</v>
       </c>
@@ -7162,7 +7168,9 @@
       <c r="A55" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="C55" s="11" t="s">
         <v>198</v>
       </c>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Agree\四川农信\doc\SVN\04设计与实现\交易数据统计\交易规则统计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B54B0D-9E5D-47CC-8A95-6A9066295F9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="5" r:id="rId1"/>
     <sheet name="双屏确认字段信息" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="456">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -1556,18 +1569,200 @@
   <si>
     <t>cstNm</t>
   </si>
+  <si>
+    <r>
+      <t>DS000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3005</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金存款</t>
+  </si>
+  <si>
+    <t>现金存款</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSH_TSF_FLAG</t>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00061</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账存款</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>00302022</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>农信银存款</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额、</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款行行号（行号+行名）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>户名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_ACCT_NO</t>
+  </si>
+  <si>
+    <t>tran_amt</t>
+  </si>
+  <si>
+    <t>sendBankno_nm</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人户名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人账号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人户名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人账号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,13 +1800,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1629,25 +1824,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1655,130 +1847,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1799,198 +1888,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2059,253 +1968,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2365,7 +2032,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2383,62 +2049,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2453,9 +2081,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2469,7 +2168,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2713,29 +2412,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5833333333333" customWidth="1"/>
-    <col min="8" max="8" width="17.0833333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="23.21875" customWidth="1"/>
     <col min="18" max="18" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:18">
+    <row r="1" spans="1:18" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
@@ -2823,7 +2522,7 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
-      <c r="N2" s="36"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30" t="s">
@@ -2833,7 +2532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2554,7 @@
       <c r="G3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -2865,7 +2564,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30" t="s">
@@ -2875,7 +2574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
@@ -2897,7 +2596,7 @@
       <c r="G4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -2907,7 +2606,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
-      <c r="N4" s="36"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30" t="s">
@@ -2917,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -2939,7 +2638,7 @@
       <c r="G5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -2949,7 +2648,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
-      <c r="N5" s="36"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30" t="s">
@@ -2959,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
@@ -2981,7 +2680,7 @@
       <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="44" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -2991,7 +2690,7 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="36"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30" t="s">
@@ -3001,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -3030,10 +2729,10 @@
         <v>24</v>
       </c>
       <c r="J7" s="30"/>
-      <c r="K7" s="37"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30" t="s">
@@ -3043,7 +2742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
@@ -3072,10 +2771,10 @@
         <v>24</v>
       </c>
       <c r="J8" s="30"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="36"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30" t="s">
@@ -3085,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>18</v>
       </c>
@@ -3114,10 +2813,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="30"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30" t="s">
@@ -3127,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
@@ -3156,10 +2855,10 @@
         <v>24</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30" t="s">
@@ -3169,7 +2868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -3198,10 +2897,10 @@
         <v>24</v>
       </c>
       <c r="J11" s="30"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30" t="s">
@@ -3211,7 +2910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
@@ -3240,10 +2939,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="30"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30" t="s">
@@ -3253,7 +2952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +2994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
@@ -3337,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
@@ -3366,10 +3065,10 @@
         <v>24</v>
       </c>
       <c r="J15" s="30"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="36"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30" t="s">
@@ -3379,7 +3078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>18</v>
       </c>
@@ -3408,10 +3107,10 @@
         <v>24</v>
       </c>
       <c r="J16" s="30"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="36"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30" t="s">
@@ -3421,7 +3120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
@@ -3450,10 +3149,10 @@
         <v>24</v>
       </c>
       <c r="J17" s="30"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="36"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30" t="s">
@@ -3463,7 +3162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
@@ -3492,10 +3191,10 @@
         <v>24</v>
       </c>
       <c r="J18" s="30"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="36"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30" t="s">
@@ -3505,7 +3204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>18</v>
       </c>
@@ -3534,10 +3233,10 @@
         <v>24</v>
       </c>
       <c r="J19" s="30"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="36"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30" t="s">
@@ -3547,7 +3246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
@@ -3576,10 +3275,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="30"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="36"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30" t="s">
@@ -3589,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -3618,10 +3317,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="30"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="36"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30" t="s">
@@ -3631,7 +3330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>18</v>
       </c>
@@ -3660,10 +3359,10 @@
         <v>24</v>
       </c>
       <c r="J22" s="30"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="36"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30" t="s">
@@ -3673,7 +3372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>18</v>
       </c>
@@ -3715,7 +3414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>18</v>
       </c>
@@ -3757,7 +3456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
@@ -3786,10 +3485,10 @@
         <v>24</v>
       </c>
       <c r="J25" s="30"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
-      <c r="N25" s="36"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30" t="s">
@@ -3799,7 +3498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>18</v>
       </c>
@@ -3828,10 +3527,10 @@
         <v>24</v>
       </c>
       <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
-      <c r="N26" s="36"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30" t="s">
@@ -3841,7 +3540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>18</v>
       </c>
@@ -3870,10 +3569,10 @@
         <v>24</v>
       </c>
       <c r="J27" s="30"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
-      <c r="N27" s="36"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30" t="s">
@@ -3883,7 +3582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>18</v>
       </c>
@@ -3912,10 +3611,10 @@
         <v>24</v>
       </c>
       <c r="J28" s="30"/>
-      <c r="K28" s="37"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
-      <c r="N28" s="36"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30" t="s">
@@ -3925,7 +3624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>18</v>
       </c>
@@ -3954,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="30"/>
-      <c r="K29" s="37"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="36"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30" t="s">
@@ -3967,7 +3666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>18</v>
       </c>
@@ -3998,7 +3697,7 @@
       <c r="J30" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="36" t="s">
         <v>84</v>
       </c>
       <c r="L30" s="30" t="s">
@@ -4007,7 +3706,7 @@
       <c r="M30" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <v>0</v>
       </c>
       <c r="O30" s="30"/>
@@ -4019,7 +3718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
@@ -4050,7 +3749,7 @@
       <c r="J31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="36" t="s">
         <v>84</v>
       </c>
       <c r="L31" s="30" t="s">
@@ -4059,7 +3758,7 @@
       <c r="M31" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <v>1</v>
       </c>
       <c r="O31" s="30"/>
@@ -4071,7 +3770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>18</v>
       </c>
@@ -4102,14 +3801,14 @@
       <c r="J32" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="36" t="s">
         <v>94</v>
       </c>
       <c r="L32" s="30"/>
       <c r="M32" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="35">
         <v>0</v>
       </c>
       <c r="O32" s="30"/>
@@ -4121,7 +3820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>18</v>
       </c>
@@ -4152,7 +3851,7 @@
       <c r="J33" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="36" t="s">
         <v>97</v>
       </c>
       <c r="L33" s="30" t="s">
@@ -4161,7 +3860,7 @@
       <c r="M33" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>1</v>
       </c>
       <c r="O33" s="30"/>
@@ -4173,7 +3872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>18</v>
       </c>
@@ -4202,10 +3901,10 @@
         <v>24</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
-      <c r="N34" s="36"/>
+      <c r="N34" s="35"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30" t="s">
@@ -4215,7 +3914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>18</v>
       </c>
@@ -4237,7 +3936,7 @@
       <c r="G35" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="45" t="s">
         <v>101</v>
       </c>
       <c r="I35" s="30" t="s">
@@ -4257,7 +3956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>18</v>
       </c>
@@ -4279,7 +3978,7 @@
       <c r="G36" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="45" t="s">
         <v>103</v>
       </c>
       <c r="I36" s="30" t="s">
@@ -4299,7 +3998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4020,7 @@
       <c r="G37" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="45" t="s">
         <v>105</v>
       </c>
       <c r="I37" s="30" t="s">
@@ -4341,7 +4040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>18</v>
       </c>
@@ -4363,7 +4062,7 @@
       <c r="G38" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="45" t="s">
         <v>107</v>
       </c>
       <c r="I38" s="30" t="s">
@@ -4383,7 +4082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>18</v>
       </c>
@@ -4405,7 +4104,7 @@
       <c r="G39" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="45" t="s">
         <v>109</v>
       </c>
       <c r="I39" s="30" t="s">
@@ -4425,7 +4124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>18</v>
       </c>
@@ -4456,8 +4155,8 @@
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="36"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="30" t="s">
@@ -4467,7 +4166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>18</v>
       </c>
@@ -4504,10 +4203,10 @@
       <c r="L41" s="30">
         <v>1</v>
       </c>
-      <c r="M41" s="38" t="s">
+      <c r="M41" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="35">
         <v>156</v>
       </c>
       <c r="O41" s="30"/>
@@ -4519,7 +4218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>18</v>
       </c>
@@ -4556,10 +4255,10 @@
       <c r="L42" s="30">
         <v>1</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M42" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="35">
         <v>156</v>
       </c>
       <c r="O42" s="30"/>
@@ -4571,7 +4270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>18</v>
       </c>
@@ -4602,8 +4301,8 @@
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="36"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="35"/>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="30" t="s">
@@ -4613,7 +4312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>18</v>
       </c>
@@ -4644,8 +4343,8 @@
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="36"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="35"/>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="30" t="s">
@@ -4655,7 +4354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>18</v>
       </c>
@@ -4684,10 +4383,10 @@
         <v>24</v>
       </c>
       <c r="J45" s="30"/>
-      <c r="K45" s="37"/>
+      <c r="K45" s="36"/>
       <c r="L45" s="30"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="36"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="35"/>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="30" t="s">
@@ -4697,7 +4396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>18</v>
       </c>
@@ -4726,10 +4425,10 @@
         <v>24</v>
       </c>
       <c r="J46" s="30"/>
-      <c r="K46" s="37"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="30"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="36"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="30" t="s">
@@ -4739,7 +4438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>18</v>
       </c>
@@ -4768,10 +4467,10 @@
         <v>24</v>
       </c>
       <c r="J47" s="30"/>
-      <c r="K47" s="37"/>
+      <c r="K47" s="36"/>
       <c r="L47" s="30"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="36"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="30" t="s">
@@ -4781,7 +4480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>18</v>
       </c>
@@ -4803,17 +4502,17 @@
       <c r="G48" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="45" t="s">
         <v>130</v>
       </c>
       <c r="I48" s="30" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="30"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="30"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="36"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="30" t="s">
@@ -4823,7 +4522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>18</v>
       </c>
@@ -4845,17 +4544,17 @@
       <c r="G49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="46" t="s">
+      <c r="H49" s="45" t="s">
         <v>131</v>
       </c>
       <c r="I49" s="30" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="30"/>
-      <c r="K49" s="37"/>
+      <c r="K49" s="36"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="36"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="30" t="s">
@@ -4865,7 +4564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>18</v>
       </c>
@@ -4887,32 +4586,32 @@
       <c r="G50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="39" t="s">
         <v>86</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="Q50" s="39" t="s">
+      <c r="Q50" s="38" t="s">
         <v>134</v>
       </c>
       <c r="R50" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>18</v>
       </c>
@@ -4934,35 +4633,35 @@
       <c r="G51" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="38" t="s">
         <v>86</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="Q51" s="39" t="s">
+      <c r="Q51" s="38" t="s">
         <v>135</v>
       </c>
       <c r="R51" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>18</v>
       </c>
@@ -4984,7 +4683,7 @@
       <c r="G52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I52" s="30" t="s">
@@ -5015,7 +4714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>18</v>
       </c>
@@ -5037,7 +4736,7 @@
       <c r="G53" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I53" s="30" t="s">
@@ -5067,7 +4766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>18</v>
       </c>
@@ -5089,13 +4788,13 @@
       <c r="G54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I54" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="40" t="s">
         <v>144</v>
       </c>
       <c r="K54" s="12" t="s">
@@ -5119,7 +4818,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>18</v>
       </c>
@@ -5141,13 +4840,13 @@
       <c r="G55" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I55" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="J55" s="41" t="s">
+      <c r="J55" s="40" t="s">
         <v>146</v>
       </c>
       <c r="K55" s="12" t="s">
@@ -5172,7 +4871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
         <v>18</v>
       </c>
@@ -5194,13 +4893,13 @@
       <c r="G56" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="46" t="s">
+      <c r="H56" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I56" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="41" t="s">
+      <c r="J56" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K56" s="12" t="s">
@@ -5224,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>18</v>
       </c>
@@ -5246,13 +4945,13 @@
       <c r="G57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I57" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="40" t="s">
         <v>151</v>
       </c>
       <c r="K57" s="12" t="s">
@@ -5276,7 +4975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>18</v>
       </c>
@@ -5298,13 +4997,13 @@
       <c r="G58" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I58" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="J58" s="41" t="s">
+      <c r="J58" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K58" s="12" t="s">
@@ -5328,7 +5027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>18</v>
       </c>
@@ -5350,13 +5049,13 @@
       <c r="G59" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I59" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="J59" s="41" t="s">
+      <c r="J59" s="40" t="s">
         <v>151</v>
       </c>
       <c r="K59" s="12" t="s">
@@ -5380,7 +5079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
         <v>18</v>
       </c>
@@ -5402,13 +5101,13 @@
       <c r="G60" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I60" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="J60" s="41" t="s">
+      <c r="J60" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K60" s="12" t="s">
@@ -5432,7 +5131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>18</v>
       </c>
@@ -5454,13 +5153,13 @@
       <c r="G61" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I61" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="J61" s="41" t="s">
+      <c r="J61" s="40" t="s">
         <v>151</v>
       </c>
       <c r="K61" s="12" t="s">
@@ -5484,7 +5183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
         <v>18</v>
       </c>
@@ -5506,13 +5205,13 @@
       <c r="G62" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I62" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J62" s="41" t="s">
+      <c r="J62" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K62" s="12" t="s">
@@ -5536,7 +5235,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>18</v>
       </c>
@@ -5558,13 +5257,13 @@
       <c r="G63" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="46" t="s">
         <v>148</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J63" s="41" t="s">
+      <c r="J63" s="40" t="s">
         <v>151</v>
       </c>
       <c r="K63" s="12" t="s">
@@ -5588,7 +5287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>18</v>
       </c>
@@ -5630,7 +5329,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>18</v>
       </c>
@@ -5672,7 +5371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>18</v>
       </c>
@@ -5714,7 +5413,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>18</v>
       </c>
@@ -5756,7 +5455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>18</v>
       </c>
@@ -5798,49 +5497,49 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:18">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="41">
         <v>65</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69" s="41">
         <v>1</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="42" t="s">
+      <c r="I69" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="42" t="s">
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="41" t="s">
         <v>24</v>
       </c>
       <c r="R69" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
@@ -5856,7 +5555,7 @@
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="41">
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -5875,7 +5574,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>18</v>
       </c>
@@ -5891,7 +5590,7 @@
       <c r="E71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="41">
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -5910,7 +5609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -5926,7 +5625,7 @@
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="41">
         <v>1</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -5945,7 +5644,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>18</v>
       </c>
@@ -5961,7 +5660,7 @@
       <c r="E73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="41">
         <v>1</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -5980,7 +5679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
@@ -5996,7 +5695,7 @@
       <c r="E74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="41">
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -6015,14 +5714,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:18">
+    <row r="75" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>71</v>
       </c>
       <c r="D75" s="26" t="s">
@@ -6050,41 +5749,140 @@
         <v>161</v>
       </c>
     </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C76" s="41">
+        <v>72</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="41">
+        <v>1</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="I76" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J76" t="s">
+        <v>428</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L76" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M76" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="N76" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>426</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C77" s="41">
+        <v>73</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="41">
+        <v>1</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="I77" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="J77" t="s">
+        <v>428</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M77" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="N77" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="R77" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A69 A70 A71 A72 A1:A68 A73:A74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A74" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F377"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266:XFD273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.0833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6104,7 +5902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -6124,7 +5922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -6144,7 +5942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -6164,7 +5962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -6184,7 +5982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -6204,7 +6002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -6224,7 +6022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -6244,7 +6042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -6264,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -6284,7 +6082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -6304,7 +6102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -6324,7 +6122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -6344,7 +6142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -6364,7 +6162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -6384,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>160</v>
       </c>
@@ -6404,8 +6202,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>160</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6424,8 +6222,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>160</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6444,8 +6242,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>160</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6464,7 +6262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -6484,7 +6282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -6504,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -6524,7 +6322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -6544,7 +6342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -6564,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -6584,7 +6382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6604,7 +6402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
@@ -6624,7 +6422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -6664,7 +6462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -6684,7 +6482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -6704,7 +6502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -6724,7 +6522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -6744,7 +6542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -6764,7 +6562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -6784,7 +6582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>27</v>
       </c>
@@ -6804,7 +6602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -6824,7 +6622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>23</v>
       </c>
@@ -6844,7 +6642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>23</v>
       </c>
@@ -6864,7 +6662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
@@ -6884,7 +6682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
@@ -6904,7 +6702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>23</v>
       </c>
@@ -6924,7 +6722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>230</v>
       </c>
@@ -6944,7 +6742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>39</v>
       </c>
@@ -6964,7 +6762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>39</v>
       </c>
@@ -6984,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -7004,7 +6802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -7024,7 +6822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>41</v>
       </c>
@@ -7044,7 +6842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>41</v>
       </c>
@@ -7064,7 +6862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -7084,7 +6882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -7104,13 +6902,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>238</v>
-      </c>
+      <c r="B52" s="12"/>
       <c r="C52" s="11" t="s">
         <v>189</v>
       </c>
@@ -7124,13 +6920,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>238</v>
-      </c>
+      <c r="B53" s="12"/>
       <c r="C53" s="11" t="s">
         <v>192</v>
       </c>
@@ -7144,13 +6938,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>238</v>
-      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="11" t="s">
         <v>195</v>
       </c>
@@ -7164,13 +6956,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>238</v>
-      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="11" t="s">
         <v>198</v>
       </c>
@@ -7184,7 +6974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>45</v>
       </c>
@@ -7204,7 +6994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>45</v>
       </c>
@@ -7224,7 +7014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>47</v>
       </c>
@@ -7264,7 +7054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>47</v>
       </c>
@@ -7284,7 +7074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>254</v>
       </c>
@@ -7302,7 +7092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>47</v>
       </c>
@@ -7322,7 +7112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>47</v>
       </c>
@@ -7342,7 +7132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>47</v>
       </c>
@@ -7362,7 +7152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>49</v>
       </c>
@@ -7382,7 +7172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -7402,7 +7192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>49</v>
       </c>
@@ -7422,7 +7212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>49</v>
       </c>
@@ -7442,7 +7232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>49</v>
       </c>
@@ -7462,7 +7252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>49</v>
       </c>
@@ -7482,7 +7272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
@@ -7502,7 +7292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>51</v>
       </c>
@@ -7522,7 +7312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>51</v>
       </c>
@@ -7542,7 +7332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>51</v>
       </c>
@@ -7562,7 +7352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>53</v>
       </c>
@@ -7582,7 +7372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>53</v>
       </c>
@@ -7600,7 +7390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>53</v>
       </c>
@@ -7620,7 +7410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>53</v>
       </c>
@@ -7640,7 +7430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>55</v>
       </c>
@@ -7660,7 +7450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>55</v>
       </c>
@@ -7678,7 +7468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>55</v>
       </c>
@@ -7698,7 +7488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>55</v>
       </c>
@@ -7718,7 +7508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>272</v>
       </c>
@@ -7738,7 +7528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>272</v>
       </c>
@@ -7758,7 +7548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>276</v>
       </c>
@@ -7778,7 +7568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>276</v>
       </c>
@@ -7798,7 +7588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>278</v>
       </c>
@@ -7818,7 +7608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>278</v>
       </c>
@@ -7838,7 +7628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>282</v>
       </c>
@@ -7858,7 +7648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>282</v>
       </c>
@@ -7878,7 +7668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>284</v>
       </c>
@@ -7898,7 +7688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>284</v>
       </c>
@@ -7918,7 +7708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>287</v>
       </c>
@@ -7938,7 +7728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>287</v>
       </c>
@@ -7958,7 +7748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>289</v>
       </c>
@@ -7978,7 +7768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>289</v>
       </c>
@@ -7998,7 +7788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>290</v>
       </c>
@@ -8018,7 +7808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>290</v>
       </c>
@@ -8038,7 +7828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>291</v>
       </c>
@@ -8058,7 +7848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -8078,7 +7868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>291</v>
       </c>
@@ -8098,7 +7888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>65</v>
       </c>
@@ -8118,7 +7908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>67</v>
       </c>
@@ -8138,7 +7928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>67</v>
       </c>
@@ -8158,7 +7948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>67</v>
       </c>
@@ -8178,7 +7968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>67</v>
       </c>
@@ -8198,7 +7988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>67</v>
       </c>
@@ -8218,7 +8008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>69</v>
       </c>
@@ -8238,7 +8028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>69</v>
       </c>
@@ -8258,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>69</v>
       </c>
@@ -8278,7 +8068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>69</v>
       </c>
@@ -8298,7 +8088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>69</v>
       </c>
@@ -8318,7 +8108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>71</v>
       </c>
@@ -8336,7 +8126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>71</v>
       </c>
@@ -8354,7 +8144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>71</v>
       </c>
@@ -8372,7 +8162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>71</v>
       </c>
@@ -8390,7 +8180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>73</v>
       </c>
@@ -8408,7 +8198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>73</v>
       </c>
@@ -8426,7 +8216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>73</v>
       </c>
@@ -8444,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>73</v>
       </c>
@@ -8462,7 +8252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>75</v>
       </c>
@@ -8480,7 +8270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>75</v>
       </c>
@@ -8498,7 +8288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>75</v>
       </c>
@@ -8516,7 +8306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>75</v>
       </c>
@@ -8534,7 +8324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>75</v>
       </c>
@@ -8552,7 +8342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>75</v>
       </c>
@@ -8570,7 +8360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>75</v>
       </c>
@@ -8588,7 +8378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>75</v>
       </c>
@@ -8606,7 +8396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>77</v>
       </c>
@@ -8624,7 +8414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>77</v>
       </c>
@@ -8642,7 +8432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>77</v>
       </c>
@@ -8660,7 +8450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>77</v>
       </c>
@@ -8678,7 +8468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>77</v>
       </c>
@@ -8696,7 +8486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>79</v>
       </c>
@@ -8714,7 +8504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>79</v>
       </c>
@@ -8732,7 +8522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>79</v>
       </c>
@@ -8750,7 +8540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>79</v>
       </c>
@@ -8768,7 +8558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>79</v>
       </c>
@@ -8786,7 +8576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>81</v>
       </c>
@@ -8804,7 +8594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>81</v>
       </c>
@@ -8822,7 +8612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>81</v>
       </c>
@@ -8840,7 +8630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>81</v>
       </c>
@@ -8858,7 +8648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>81</v>
       </c>
@@ -8876,7 +8666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>81</v>
       </c>
@@ -8894,7 +8684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>81</v>
       </c>
@@ -8912,7 +8702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>81</v>
       </c>
@@ -8930,7 +8720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>81</v>
       </c>
@@ -8948,7 +8738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>81</v>
       </c>
@@ -8966,7 +8756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>81</v>
       </c>
@@ -8984,7 +8774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>81</v>
       </c>
@@ -9002,7 +8792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>91</v>
       </c>
@@ -9020,7 +8810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
@@ -9038,7 +8828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>91</v>
       </c>
@@ -9056,7 +8846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>91</v>
       </c>
@@ -9074,7 +8864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>91</v>
       </c>
@@ -9092,7 +8882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>91</v>
       </c>
@@ -9110,7 +8900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>99</v>
       </c>
@@ -9128,7 +8918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>99</v>
       </c>
@@ -9146,7 +8936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>99</v>
       </c>
@@ -9164,7 +8954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>99</v>
       </c>
@@ -9182,7 +8972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>101</v>
       </c>
@@ -9202,7 +8992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>101</v>
       </c>
@@ -9222,7 +9012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>101</v>
       </c>
@@ -9242,7 +9032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>101</v>
       </c>
@@ -9262,7 +9052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>103</v>
       </c>
@@ -9282,7 +9072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>103</v>
       </c>
@@ -9302,7 +9092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>103</v>
       </c>
@@ -9322,7 +9112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>103</v>
       </c>
@@ -9342,7 +9132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>103</v>
       </c>
@@ -9362,7 +9152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>103</v>
       </c>
@@ -9382,7 +9172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>103</v>
       </c>
@@ -9402,7 +9192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>103</v>
       </c>
@@ -9422,7 +9212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>105</v>
       </c>
@@ -9442,7 +9232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>105</v>
       </c>
@@ -9462,7 +9252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>105</v>
       </c>
@@ -9482,7 +9272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>105</v>
       </c>
@@ -9502,7 +9292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>105</v>
       </c>
@@ -9522,7 +9312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>107</v>
       </c>
@@ -9542,7 +9332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>107</v>
       </c>
@@ -9562,7 +9352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>107</v>
       </c>
@@ -9582,7 +9372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>107</v>
       </c>
@@ -9602,7 +9392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>107</v>
       </c>
@@ -9622,7 +9412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>107</v>
       </c>
@@ -9642,7 +9432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>109</v>
       </c>
@@ -9662,7 +9452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>109</v>
       </c>
@@ -9682,7 +9472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>109</v>
       </c>
@@ -9702,7 +9492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>109</v>
       </c>
@@ -9722,7 +9512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>109</v>
       </c>
@@ -9742,7 +9532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>109</v>
       </c>
@@ -9762,7 +9552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>113</v>
       </c>
@@ -9782,7 +9572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>113</v>
       </c>
@@ -9802,7 +9592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>113</v>
       </c>
@@ -9822,7 +9612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>113</v>
       </c>
@@ -9842,7 +9632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>113</v>
       </c>
@@ -9862,7 +9652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>113</v>
       </c>
@@ -9882,7 +9672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>113</v>
       </c>
@@ -9902,7 +9692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>113</v>
       </c>
@@ -9922,7 +9712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>113</v>
       </c>
@@ -9942,7 +9732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>113</v>
       </c>
@@ -9962,7 +9752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>113</v>
       </c>
@@ -9982,8 +9772,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="49" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -10002,8 +9792,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="49" t="s">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -10022,8 +9812,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="49" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -10042,7 +9832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>121</v>
       </c>
@@ -10062,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>123</v>
       </c>
@@ -10082,7 +9872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>123</v>
       </c>
@@ -10102,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>123</v>
       </c>
@@ -10122,7 +9912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>123</v>
       </c>
@@ -10142,7 +9932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>123</v>
       </c>
@@ -10162,7 +9952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>123</v>
       </c>
@@ -10182,7 +9972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>123</v>
       </c>
@@ -10202,7 +9992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>123</v>
       </c>
@@ -10222,7 +10012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>125</v>
       </c>
@@ -10242,7 +10032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>125</v>
       </c>
@@ -10262,7 +10052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>125</v>
       </c>
@@ -10282,7 +10072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>125</v>
       </c>
@@ -10302,7 +10092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>125</v>
       </c>
@@ -10322,7 +10112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>127</v>
       </c>
@@ -10342,7 +10132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>127</v>
       </c>
@@ -10362,7 +10152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>127</v>
       </c>
@@ -10382,7 +10172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>127</v>
       </c>
@@ -10402,7 +10192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>127</v>
       </c>
@@ -10422,7 +10212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>127</v>
       </c>
@@ -10442,7 +10232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>129</v>
       </c>
@@ -10462,7 +10252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>129</v>
       </c>
@@ -10482,7 +10272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>129</v>
       </c>
@@ -10502,7 +10292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>129</v>
       </c>
@@ -10522,7 +10312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>111</v>
       </c>
@@ -10542,7 +10332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>111</v>
       </c>
@@ -10562,7 +10352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>111</v>
       </c>
@@ -10582,7 +10372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>111</v>
       </c>
@@ -10602,7 +10392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>111</v>
       </c>
@@ -10622,7 +10412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>130</v>
       </c>
@@ -10642,7 +10432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>130</v>
       </c>
@@ -10662,7 +10452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>130</v>
       </c>
@@ -10682,7 +10472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>130</v>
       </c>
@@ -10702,7 +10492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>130</v>
       </c>
@@ -10722,7 +10512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>130</v>
       </c>
@@ -10742,7 +10532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>130</v>
       </c>
@@ -10762,7 +10552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>130</v>
       </c>
@@ -10782,7 +10572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>130</v>
       </c>
@@ -10802,7 +10592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>130</v>
       </c>
@@ -10822,7 +10612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>130</v>
       </c>
@@ -10842,7 +10632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>130</v>
       </c>
@@ -10862,7 +10652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>130</v>
       </c>
@@ -10882,7 +10672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>131</v>
       </c>
@@ -10902,9 +10692,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="3" t="s">
-        <v>131</v>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="54" t="s">
+        <v>433</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>362</v>
@@ -10922,7 +10712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>131</v>
       </c>
@@ -10942,7 +10732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>131</v>
       </c>
@@ -10962,7 +10752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>131</v>
       </c>
@@ -10982,7 +10772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>131</v>
       </c>
@@ -11002,7 +10792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>131</v>
       </c>
@@ -11022,9 +10812,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="3" t="s">
-        <v>131</v>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="54" t="s">
+        <v>433</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>362</v>
@@ -11042,15 +10832,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C254" s="21" t="s">
-        <v>189</v>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B254" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C254" s="54" t="s">
+        <v>435</v>
       </c>
       <c r="D254" t="s">
         <v>199</v>
@@ -11058,231 +10848,231 @@
       <c r="E254" t="s">
         <v>200</v>
       </c>
-      <c r="F254" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B255" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C255" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D255" s="20" t="s">
-        <v>306</v>
+      <c r="F254" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B255" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C255" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="D255" t="s">
+        <v>190</v>
       </c>
       <c r="E255" t="s">
-        <v>364</v>
-      </c>
-      <c r="F255" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B256" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C256" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D256" t="s">
-        <v>307</v>
-      </c>
-      <c r="E256" t="s">
-        <v>365</v>
-      </c>
-      <c r="F256" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B257" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C257" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D257" t="s">
-        <v>324</v>
+        <v>446</v>
+      </c>
+      <c r="F255" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B256" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C256" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D256" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B257" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C257" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D257" s="56" t="s">
+        <v>443</v>
       </c>
       <c r="E257" t="s">
-        <v>366</v>
-      </c>
-      <c r="F257" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C258" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D258" s="20" t="s">
-        <v>220</v>
+        <v>447</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B258" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C258" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D258" s="56" t="s">
+        <v>444</v>
       </c>
       <c r="E258" t="s">
-        <v>367</v>
-      </c>
-      <c r="F258" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C259" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D259" s="20" t="s">
-        <v>222</v>
+        <v>448</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C259" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="D259" s="58" t="s">
+        <v>450</v>
       </c>
       <c r="E259" t="s">
-        <v>368</v>
-      </c>
-      <c r="F259" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C260" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D260" s="20" t="s">
-        <v>321</v>
+        <v>200</v>
+      </c>
+      <c r="F259" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B260" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C260" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="D260" s="56" t="s">
+        <v>452</v>
       </c>
       <c r="E260" t="s">
-        <v>369</v>
-      </c>
-      <c r="F260" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C261" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D261" t="s">
-        <v>199</v>
-      </c>
-      <c r="E261" t="s">
-        <v>200</v>
-      </c>
-      <c r="F261" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C262" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>306</v>
+        <v>322</v>
+      </c>
+      <c r="F260" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B261" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C261" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D261" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="E261" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="F261" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B262" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C262" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D262" s="56" t="s">
+        <v>454</v>
       </c>
       <c r="E262" t="s">
-        <v>364</v>
-      </c>
-      <c r="F262" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C263" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D263" t="s">
-        <v>307</v>
+        <v>447</v>
+      </c>
+      <c r="F262" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B263" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C263" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D263" s="56" t="s">
+        <v>455</v>
       </c>
       <c r="E263" t="s">
-        <v>365</v>
-      </c>
-      <c r="F263" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C264" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D264" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="F263" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B264" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C264" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D264" s="56" t="s">
+        <v>451</v>
       </c>
       <c r="E264" t="s">
-        <v>366</v>
-      </c>
-      <c r="F264" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C265" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D265" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E265" t="s">
-        <v>367</v>
-      </c>
-      <c r="F265" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>326</v>
+      </c>
+      <c r="F264" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B265" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C265" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="D265" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="E265" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="F265" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
         <v>133</v>
       </c>
@@ -11290,504 +11080,504 @@
         <v>363</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D266" s="20" t="s">
-        <v>222</v>
+        <v>189</v>
+      </c>
+      <c r="D266" t="s">
+        <v>199</v>
       </c>
       <c r="E266" t="s">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C267" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E267" t="s">
+        <v>364</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C268" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D268" t="s">
+        <v>307</v>
+      </c>
+      <c r="E268" t="s">
+        <v>365</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D269" t="s">
+        <v>324</v>
+      </c>
+      <c r="E269" t="s">
+        <v>366</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E270" t="s">
+        <v>367</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E271" t="s">
+        <v>368</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C272" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D267" s="20" t="s">
+      <c r="D272" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E272" t="s">
         <v>369</v>
       </c>
-      <c r="F267" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B268" t="s">
-        <v>371</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D268" t="s">
-        <v>199</v>
-      </c>
-      <c r="E268" t="s">
-        <v>372</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B269" t="s">
-        <v>371</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D269" t="s">
-        <v>190</v>
-      </c>
-      <c r="E269" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B270" t="s">
-        <v>371</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D270" t="s">
-        <v>214</v>
-      </c>
-      <c r="E270" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B271" t="s">
-        <v>371</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" t="s">
-        <v>196</v>
-      </c>
-      <c r="E271" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B272" t="s">
-        <v>371</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D272" t="s">
-        <v>374</v>
-      </c>
-      <c r="E272" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B273" t="s">
-        <v>376</v>
-      </c>
-      <c r="C273" s="3" t="s">
+      <c r="F272" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C273" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D273" t="s">
         <v>199</v>
       </c>
       <c r="E273" t="s">
-        <v>372</v>
-      </c>
-      <c r="F273" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F273" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B274" t="s">
-        <v>376</v>
-      </c>
-      <c r="C274" s="3" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C274" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D274" t="s">
-        <v>190</v>
-      </c>
-      <c r="E274" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F274" s="3" t="s">
+      <c r="D274" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E274" t="s">
+        <v>364</v>
+      </c>
+      <c r="F274" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B275" t="s">
-        <v>376</v>
-      </c>
-      <c r="C275" s="3" t="s">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C275" s="21" t="s">
         <v>195</v>
       </c>
       <c r="D275" t="s">
-        <v>214</v>
-      </c>
-      <c r="E275" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F275" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E275" t="s">
+        <v>365</v>
+      </c>
+      <c r="F275" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B276" t="s">
-        <v>376</v>
-      </c>
-      <c r="C276" s="3" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C276" s="21" t="s">
         <v>198</v>
       </c>
       <c r="D276" t="s">
-        <v>196</v>
-      </c>
-      <c r="E276" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="F276" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E276" t="s">
+        <v>366</v>
+      </c>
+      <c r="F276" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B277" t="s">
-        <v>376</v>
-      </c>
-      <c r="C277" s="3" t="s">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C277" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D277" t="s">
-        <v>377</v>
-      </c>
-      <c r="E277" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F277" s="3" t="s">
+      <c r="D277" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E277" t="s">
+        <v>367</v>
+      </c>
+      <c r="F277" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B278" t="s">
-        <v>376</v>
-      </c>
-      <c r="C278" s="3" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C278" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D278" t="s">
-        <v>379</v>
-      </c>
-      <c r="E278" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="F278" s="3" t="s">
+      <c r="D278" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E278" t="s">
+        <v>368</v>
+      </c>
+      <c r="F278" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B279" t="s">
-        <v>143</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D279" t="s">
-        <v>199</v>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C279" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D279" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="E279" t="s">
-        <v>372</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>369</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B280" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D280" t="s">
-        <v>190</v>
-      </c>
-      <c r="E280" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="E280" t="s">
+        <v>372</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B281" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D281" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B282" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D282" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B283" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D283" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B284" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D284" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B285" t="s">
+        <v>376</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D285" t="s">
+        <v>199</v>
+      </c>
+      <c r="E285" t="s">
+        <v>372</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B286" t="s">
+        <v>376</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D286" t="s">
+        <v>190</v>
+      </c>
+      <c r="E286" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B287" t="s">
+        <v>376</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D287" t="s">
+        <v>214</v>
+      </c>
+      <c r="E287" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B288" t="s">
+        <v>376</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D288" t="s">
+        <v>196</v>
+      </c>
+      <c r="E288" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B289" t="s">
+        <v>376</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D289" t="s">
+        <v>377</v>
+      </c>
+      <c r="E289" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B290" t="s">
+        <v>376</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D290" t="s">
+        <v>379</v>
+      </c>
+      <c r="E290" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B291" t="s">
         <v>143</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D285" t="s">
-        <v>341</v>
-      </c>
-      <c r="E285" t="s">
-        <v>342</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B286" t="s">
-        <v>149</v>
-      </c>
-      <c r="C286" s="3">
-        <v>1</v>
-      </c>
-      <c r="D286" t="s">
-        <v>199</v>
-      </c>
-      <c r="E286" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B287" t="s">
-        <v>149</v>
-      </c>
-      <c r="C287" s="3">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s">
-        <v>190</v>
-      </c>
-      <c r="E287" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B288" t="s">
-        <v>149</v>
-      </c>
-      <c r="C288" s="3">
-        <v>3</v>
-      </c>
-      <c r="D288" t="s">
-        <v>214</v>
-      </c>
-      <c r="E288" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B289" t="s">
-        <v>149</v>
-      </c>
-      <c r="C289" s="3">
-        <v>4</v>
-      </c>
-      <c r="D289" t="s">
-        <v>196</v>
-      </c>
-      <c r="E289" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B290" t="s">
-        <v>149</v>
-      </c>
-      <c r="C290" s="3">
-        <v>5</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E290" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B291" t="s">
-        <v>154</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>189</v>
@@ -11795,19 +11585,19 @@
       <c r="D291" t="s">
         <v>199</v>
       </c>
-      <c r="E291" s="22" t="s">
-        <v>381</v>
+      <c r="E291" t="s">
+        <v>372</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B292" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>192</v>
@@ -11819,15 +11609,15 @@
         <v>202</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B293" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>195</v>
@@ -11839,15 +11629,15 @@
         <v>194</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B294" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>198</v>
@@ -11856,81 +11646,81 @@
         <v>196</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B295" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D295" s="3" t="s">
-        <v>310</v>
+      <c r="D295" t="s">
+        <v>377</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B296" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D296" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B297" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D297" t="s">
-        <v>379</v>
-      </c>
-      <c r="E297" s="22" t="s">
-        <v>380</v>
+        <v>341</v>
+      </c>
+      <c r="E297" t="s">
+        <v>342</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B298" t="s">
-        <v>155</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
+      </c>
+      <c r="C298" s="3">
+        <v>1</v>
       </c>
       <c r="D298" t="s">
         <v>199</v>
@@ -11939,18 +11729,18 @@
         <v>381</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B299" t="s">
-        <v>155</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="C299" s="3">
+        <v>2</v>
       </c>
       <c r="D299" t="s">
         <v>190</v>
@@ -11959,18 +11749,18 @@
         <v>202</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B300" t="s">
-        <v>155</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>195</v>
+        <v>149</v>
+      </c>
+      <c r="C300" s="3">
+        <v>3</v>
       </c>
       <c r="D300" t="s">
         <v>214</v>
@@ -11979,481 +11769,481 @@
         <v>194</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B301" t="s">
-        <v>155</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
+      </c>
+      <c r="C301" s="3">
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>384</v>
-      </c>
-      <c r="E301" t="s">
-        <v>385</v>
+        <v>196</v>
+      </c>
+      <c r="E301" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B302" t="s">
-        <v>157</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D302" t="s">
-        <v>199</v>
+        <v>149</v>
+      </c>
+      <c r="C302" s="3">
+        <v>5</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B303" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D303" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D304" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B305" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D305" t="s">
-        <v>384</v>
-      </c>
-      <c r="E305" t="s">
-        <v>385</v>
+        <v>214</v>
+      </c>
+      <c r="E305" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B306" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D306" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B307" t="s">
+        <v>154</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E307" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B308" t="s">
+        <v>154</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D308" t="s">
+        <v>377</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B309" t="s">
+        <v>154</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D309" t="s">
+        <v>379</v>
+      </c>
+      <c r="E309" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B310" t="s">
+        <v>155</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D310" t="s">
+        <v>199</v>
+      </c>
+      <c r="E310" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B311" t="s">
+        <v>155</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D311" t="s">
+        <v>190</v>
+      </c>
+      <c r="E311" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B312" t="s">
+        <v>155</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D312" t="s">
+        <v>214</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B313" t="s">
+        <v>155</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D313" t="s">
+        <v>384</v>
+      </c>
+      <c r="E313" t="s">
+        <v>385</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B314" t="s">
         <v>157</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C314" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D314" t="s">
+        <v>199</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B315" t="s">
+        <v>157</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D315" t="s">
+        <v>190</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B316" t="s">
+        <v>157</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D316" t="s">
+        <v>214</v>
+      </c>
+      <c r="E316" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B317" t="s">
+        <v>157</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D317" t="s">
+        <v>384</v>
+      </c>
+      <c r="E317" t="s">
+        <v>385</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B318" t="s">
+        <v>157</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D318" t="s">
+        <v>377</v>
+      </c>
+      <c r="E318" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B319" t="s">
+        <v>157</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D319" t="s">
         <v>379</v>
       </c>
-      <c r="E307" s="22" t="s">
+      <c r="E319" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F307" s="3" t="s">
+      <c r="F319" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="1" spans="1:6">
-      <c r="A308" s="23" t="s">
+    <row r="320" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A320" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B308" s="24" t="s">
+      <c r="B320" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C308" s="23" t="s">
+      <c r="C320" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D308" s="24" t="s">
+      <c r="D320" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E308" s="25" t="s">
+      <c r="E320" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F308" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="309" s="2" customFormat="1" spans="1:6">
-      <c r="A309" s="23" t="s">
+      <c r="F320" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A321" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B309" s="24" t="s">
+      <c r="B321" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C309" s="23" t="s">
+      <c r="C321" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D309" s="24" t="s">
+      <c r="D321" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E309" s="25" t="s">
+      <c r="E321" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="F309" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="310" s="2" customFormat="1" spans="1:6">
-      <c r="A310" s="23" t="s">
+      <c r="F321" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A322" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B310" s="24" t="s">
+      <c r="B322" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C310" s="23" t="s">
+      <c r="C322" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D310" s="24" t="s">
+      <c r="D322" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="E310" s="25" t="s">
+      <c r="E322" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F310" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="311" s="2" customFormat="1" spans="1:6">
-      <c r="A311" s="23" t="s">
+      <c r="F322" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A323" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B323" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C311" s="23" t="s">
+      <c r="C323" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D311" s="24" t="s">
+      <c r="D323" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="E311" s="25" t="s">
+      <c r="E323" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="F311" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="312" s="2" customFormat="1" spans="1:6">
-      <c r="A312" s="23" t="s">
+      <c r="F323" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A324" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C312" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D312" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E312" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="F312" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="313" s="2" customFormat="1" spans="1:6">
-      <c r="A313" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C313" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D313" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E313" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F313" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="314" s="2" customFormat="1" spans="1:6">
-      <c r="A314" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C314" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D314" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="E314" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F314" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="315" s="2" customFormat="1" spans="1:6">
-      <c r="A315" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C315" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D315" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E315" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F315" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="316" s="2" customFormat="1" spans="1:6">
-      <c r="A316" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C316" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D316" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E316" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F316" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="317" s="2" customFormat="1" spans="1:6">
-      <c r="A317" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C317" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D317" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E317" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F317" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="318" s="2" customFormat="1" spans="1:6">
-      <c r="A318" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B318" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C318" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D318" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E318" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="F318" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="319" s="2" customFormat="1" spans="1:6">
-      <c r="A319" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B319" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C319" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D319" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E319" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F319" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="320" s="2" customFormat="1" spans="1:6">
-      <c r="A320" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B320" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C320" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D320" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="E320" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F320" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="321" s="2" customFormat="1" spans="1:6">
-      <c r="A321" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B321" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C321" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D321" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E321" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F321" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="322" s="2" customFormat="1" spans="1:6">
-      <c r="A322" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B322" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C322" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D322" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E322" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F322" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="323" s="2" customFormat="1" spans="1:6">
-      <c r="A323" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B323" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C323" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D323" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E323" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F323" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="324" s="2" customFormat="1" spans="1:6">
-      <c r="A324" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B324" s="24" t="s">
-        <v>393</v>
       </c>
       <c r="C324" s="23" t="s">
         <v>189</v>
       </c>
       <c r="D324" s="24" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="E324" s="25" t="s">
         <v>225</v>
@@ -12462,18 +12252,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="1" spans="1:6">
+    <row r="325" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B325" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C325" s="23" t="s">
         <v>192</v>
       </c>
       <c r="D325" s="24" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="E325" s="25" t="s">
         <v>194</v>
@@ -12482,12 +12272,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" s="2" customFormat="1" spans="1:6">
+    <row r="326" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B326" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C326" s="23" t="s">
         <v>195</v>
@@ -12502,12 +12292,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="1" spans="1:6">
+    <row r="327" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B327" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C327" s="23" t="s">
         <v>198</v>
@@ -12522,1014 +12312,1254 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="6" t="s">
+    <row r="328" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A328" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C328" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D328" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E328" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F328" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A329" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C329" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D329" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E329" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F329" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A330" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B330" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C330" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D330" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E330" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F330" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A331" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B331" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C331" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D331" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E331" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F331" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A332" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B332" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C332" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D332" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E332" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F332" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A333" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B333" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C333" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D333" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E333" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F333" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A334" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B334" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C334" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D334" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E334" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F334" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A335" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B335" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C335" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D335" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E335" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F335" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A336" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B336" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C336" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D336" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E336" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F336" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A337" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B337" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C337" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D337" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E337" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F337" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A338" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B338" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D338" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E338" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F338" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A339" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B339" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C339" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D339" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E339" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F339" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B340" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C340" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D328" s="8" t="s">
+      <c r="D340" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E328" s="8" t="s">
+      <c r="E340" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F328" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="6" t="s">
+      <c r="F340" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B341" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C341" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D341" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E329" s="8" t="s">
+      <c r="E341" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F329" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="6" t="s">
+      <c r="F341" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B342" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C342" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D330" s="8" t="s">
+      <c r="D342" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E330" s="8" t="s">
+      <c r="E342" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F330" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="6" t="s">
+      <c r="F342" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B343" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C343" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D331" s="8" t="s">
+      <c r="D343" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E331" s="8" t="s">
+      <c r="E343" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F331" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332" s="3" t="s">
+      <c r="F343" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B344" t="s">
         <v>395</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D344" t="s">
         <v>199</v>
       </c>
-      <c r="E332" s="22" t="s">
+      <c r="E344" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F332" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="3" t="s">
+      <c r="F344" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B345" t="s">
         <v>395</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D345" t="s">
         <v>396</v>
       </c>
-      <c r="E333" s="22" t="s">
+      <c r="E345" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="F333" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="3" t="s">
+      <c r="F345" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B346" t="s">
         <v>395</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C346" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D346" t="s">
         <v>398</v>
       </c>
-      <c r="E334" s="22" t="s">
+      <c r="E346" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="F334" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="A335" s="3" t="s">
+      <c r="F346" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B347" t="s">
         <v>395</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C347" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D347" t="s">
         <v>400</v>
       </c>
-      <c r="E335" s="22" t="s">
+      <c r="E347" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F335" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="A336" s="3" t="s">
+      <c r="F347" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B348" t="s">
         <v>395</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D336" s="20" t="s">
+      <c r="D348" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E336" s="22" t="s">
+      <c r="E348" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F336" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="3" t="s">
+      <c r="F348" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B349" t="s">
         <v>395</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C349" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D349" t="s">
         <v>404</v>
       </c>
-      <c r="E337" s="22" t="s">
+      <c r="E349" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="F337" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="3" t="s">
+      <c r="F349" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B350" t="s">
         <v>395</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C350" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D338" s="20" t="s">
+      <c r="D350" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E338" s="22" t="s">
+      <c r="E350" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F338" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="3" t="s">
+      <c r="F350" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B351" t="s">
         <v>395</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C351" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D339" s="20" t="s">
+      <c r="D351" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E339" s="22" t="s">
+      <c r="E351" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F339" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="3" t="s">
+      <c r="F351" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B352" t="s">
         <v>406</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C352" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D352" t="s">
         <v>199</v>
       </c>
-      <c r="E340" s="22" t="s">
+      <c r="E352" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F340" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="3" t="s">
+      <c r="F352" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B353" t="s">
         <v>406</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C353" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D353" t="s">
         <v>396</v>
       </c>
-      <c r="E341" s="22" t="s">
+      <c r="E353" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="F341" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="3" t="s">
+      <c r="F353" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B354" t="s">
         <v>406</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C354" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D354" t="s">
         <v>398</v>
       </c>
-      <c r="E342" s="22" t="s">
+      <c r="E354" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="F342" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="3" t="s">
+      <c r="F354" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B355" t="s">
         <v>406</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C355" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D355" t="s">
         <v>400</v>
       </c>
-      <c r="E343" s="22" t="s">
+      <c r="E355" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F343" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="3" t="s">
+      <c r="F355" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B356" t="s">
         <v>406</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C356" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D344" s="20" t="s">
+      <c r="D356" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E344" s="22" t="s">
+      <c r="E356" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F344" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="3" t="s">
+      <c r="F356" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B357" t="s">
         <v>406</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C357" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D357" t="s">
         <v>404</v>
       </c>
-      <c r="E345" s="22" t="s">
+      <c r="E357" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="F345" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="3" t="s">
+      <c r="F357" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B358" t="s">
         <v>406</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C358" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D346" s="20" t="s">
+      <c r="D358" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E346" s="22" t="s">
+      <c r="E358" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F346" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="3" t="s">
+      <c r="F358" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B359" t="s">
         <v>406</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C359" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D347" s="20" t="s">
+      <c r="D359" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E347" s="22" t="s">
+      <c r="E359" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F347" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="3" t="s">
+      <c r="F359" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B360" t="s">
         <v>407</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C360" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D360" t="s">
         <v>199</v>
       </c>
-      <c r="E348" s="22" t="s">
+      <c r="E360" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F348" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="3" t="s">
+      <c r="F360" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B361" t="s">
         <v>407</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C361" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D361" t="s">
         <v>396</v>
       </c>
-      <c r="E349" s="22" t="s">
+      <c r="E361" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="F349" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="3" t="s">
+      <c r="F361" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B362" t="s">
         <v>407</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C362" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D362" t="s">
         <v>398</v>
       </c>
-      <c r="E350" s="22" t="s">
+      <c r="E362" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="F350" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="3" t="s">
+      <c r="F362" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B363" t="s">
         <v>407</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C363" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D363" t="s">
         <v>400</v>
       </c>
-      <c r="E351" s="22" t="s">
+      <c r="E363" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F351" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="3" t="s">
+      <c r="F363" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B364" t="s">
         <v>407</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D352" s="20" t="s">
+      <c r="D364" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E352" s="22" t="s">
+      <c r="E364" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F352" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="3" t="s">
+      <c r="F364" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B365" t="s">
         <v>407</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C365" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D365" t="s">
         <v>404</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="E365" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="F353" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="3" t="s">
+      <c r="F365" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B366" t="s">
         <v>407</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C366" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D354" s="20" t="s">
+      <c r="D366" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E354" s="22" t="s">
+      <c r="E366" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F354" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="3" t="s">
+      <c r="F366" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B367" t="s">
         <v>407</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C367" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D355" s="20" t="s">
+      <c r="D367" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E355" s="22" t="s">
+      <c r="E367" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F355" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="3" t="s">
+      <c r="F367" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B368" t="s">
         <v>407</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D368" t="s">
         <v>408</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E368" t="s">
         <v>409</v>
       </c>
-      <c r="F356" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="3" t="s">
+      <c r="F368" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B369" t="s">
         <v>410</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C369" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D369" t="s">
         <v>199</v>
       </c>
-      <c r="E357" s="22" t="s">
+      <c r="E369" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F357" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="3" t="s">
+      <c r="F369" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B370" t="s">
         <v>410</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C370" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D370" t="s">
         <v>396</v>
       </c>
-      <c r="E358" s="22" t="s">
+      <c r="E370" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="F358" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="3" t="s">
+      <c r="F370" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B371" t="s">
         <v>410</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C371" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D371" t="s">
         <v>398</v>
       </c>
-      <c r="E359" s="22" t="s">
+      <c r="E371" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="F359" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="3" t="s">
+      <c r="F371" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B372" t="s">
         <v>410</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C372" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D372" t="s">
         <v>400</v>
       </c>
-      <c r="E360" s="22" t="s">
+      <c r="E372" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="F360" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="3" t="s">
+      <c r="F372" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B373" t="s">
         <v>410</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C373" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D361" s="20" t="s">
+      <c r="D373" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E361" s="22" t="s">
+      <c r="E373" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F361" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="3" t="s">
+      <c r="F373" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B374" t="s">
         <v>410</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C374" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D374" t="s">
         <v>404</v>
       </c>
-      <c r="E362" s="22" t="s">
+      <c r="E374" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="F362" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="3" t="s">
+      <c r="F374" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B375" t="s">
         <v>410</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C375" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D363" s="20" t="s">
+      <c r="D375" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E363" s="22" t="s">
+      <c r="E375" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="F363" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="3" t="s">
+      <c r="F375" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B376" t="s">
         <v>410</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C376" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D364" s="20" t="s">
+      <c r="D376" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E364" s="22" t="s">
+      <c r="E376" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="F364" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="3" t="s">
+      <c r="F376" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B377" t="s">
         <v>417</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C377" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D377" t="s">
         <v>199</v>
       </c>
-      <c r="E365" s="22" t="s">
+      <c r="E377" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F365" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="3" t="s">
+      <c r="F377" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B378" t="s">
         <v>417</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C378" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D378" t="s">
         <v>396</v>
       </c>
-      <c r="E366" s="22" t="s">
+      <c r="E378" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="F366" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="3" t="s">
+      <c r="F378" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B379" t="s">
         <v>417</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C379" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D379" t="s">
         <v>398</v>
       </c>
-      <c r="E367" s="22" t="s">
+      <c r="E379" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="F367" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="3" t="s">
+      <c r="F379" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B380" t="s">
         <v>417</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C380" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D380" t="s">
         <v>400</v>
       </c>
-      <c r="E368" s="22" t="s">
+      <c r="E380" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="F368" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="3" t="s">
+      <c r="F380" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B381" t="s">
         <v>417</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D369" s="20" t="s">
+      <c r="D381" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E369" s="22" t="s">
+      <c r="E381" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F369" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="3" t="s">
+      <c r="F381" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B382" t="s">
         <v>417</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C382" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D382" t="s">
         <v>404</v>
       </c>
-      <c r="E370" s="22" t="s">
+      <c r="E382" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="F370" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="3" t="s">
+      <c r="F382" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B383" t="s">
         <v>417</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C383" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D371" s="20" t="s">
+      <c r="D383" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E371" s="22" t="s">
+      <c r="E383" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="F371" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="3" t="s">
+      <c r="F383" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B384" t="s">
         <v>417</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D372" s="20" t="s">
+      <c r="D384" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E372" s="22" t="s">
+      <c r="E384" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="F372" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="373" s="2" customFormat="1" spans="1:6">
-      <c r="A373" s="26" t="s">
+      <c r="F384" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A385" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B385" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C373" s="26" t="s">
+      <c r="C385" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D385" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E373" s="25" t="s">
+      <c r="E385" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F373" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="374" s="2" customFormat="1" spans="1:6">
-      <c r="A374" s="26" t="s">
+      <c r="F385" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A386" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B386" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C374" s="26" t="s">
+      <c r="C386" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D386" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E374" s="25" t="s">
+      <c r="E386" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="F374" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="375" s="2" customFormat="1" spans="1:6">
-      <c r="A375" s="26" t="s">
+      <c r="F386" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A387" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B387" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C375" s="26" t="s">
+      <c r="C387" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E375" s="25" t="s">
+      <c r="E387" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="F375" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="376" s="2" customFormat="1" spans="1:6">
-      <c r="A376" s="26" t="s">
+      <c r="F387" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B388" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C376" s="26" t="s">
+      <c r="C388" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E376" s="2" t="s">
+      <c r="E388" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F376" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="377" s="2" customFormat="1" spans="1:6">
-      <c r="A377" s="26" t="s">
+      <c r="F388" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B389" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C377" s="26" t="s">
+      <c r="C389" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E377" s="2" t="s">
+      <c r="E389" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F377" s="26" t="s">
+      <c r="F389" s="26" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B71:B74">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B71))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="24240" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="497">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -760,6 +760,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0030201</t>
@@ -769,6 +770,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -849,6 +851,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -858,6 +861,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0502002</t>
@@ -917,6 +921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -926,6 +931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0502010</t>
@@ -946,6 +952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00502010</t>
@@ -960,6 +967,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -969,6 +977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0502204</t>
@@ -989,6 +998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00502204</t>
@@ -1003,6 +1013,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1012,6 +1023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0502205</t>
@@ -1029,6 +1041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00502205</t>
@@ -1043,6 +1056,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1052,6 +1066,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0502202</t>
@@ -1063,6 +1078,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00502202</t>
@@ -1074,6 +1090,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00502203</t>
@@ -1277,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1286,6 +1304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1297,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1306,6 +1326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1317,6 +1338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1326,6 +1348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1591,86 +1614,216 @@
     <t>ctfNum</t>
   </si>
   <si>
+    <t>cstNm</t>
+  </si>
+  <si>
+    <t>活期一本通单币种销户</t>
+  </si>
+  <si>
+    <t>一本通账号</t>
+  </si>
+  <si>
+    <t>outAcctNum</t>
+  </si>
+  <si>
+    <t>curTp</t>
+  </si>
+  <si>
+    <t>cashrmtFlgCd</t>
+  </si>
+  <si>
+    <t>子账户余额</t>
+  </si>
+  <si>
+    <t>subAcctBal</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>pyblInt</t>
+  </si>
+  <si>
+    <t>利息税</t>
+  </si>
+  <si>
+    <t>intTax</t>
+  </si>
+  <si>
+    <t>应付本息合计</t>
+  </si>
+  <si>
+    <t>pyblPrncpintTotAmt</t>
+  </si>
+  <si>
+    <t>cashTranFlgCd</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>inAcctNum</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>cntptyAcctNm</t>
+  </si>
+  <si>
+    <t>支票活期现金存款</t>
+  </si>
+  <si>
+    <t>totalTxAmt1</t>
+  </si>
+  <si>
+    <t>电子银行签约管理</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>DS00065</t>
+  </si>
+  <si>
+    <t>00101003_1</t>
+  </si>
+  <si>
+    <t>00101003_1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101003_1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公综合开户</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易名称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tranName</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>ACCT_NO</t>
-  </si>
-  <si>
-    <t>cstNm</t>
-  </si>
-  <si>
-    <t>活期一本通单币种销户</t>
-  </si>
-  <si>
-    <t>一本通账号</t>
-  </si>
-  <si>
-    <t>outAcctNum</t>
-  </si>
-  <si>
-    <t>curTp</t>
-  </si>
-  <si>
-    <t>cashrmtFlgCd</t>
-  </si>
-  <si>
-    <t>子账户余额</t>
-  </si>
-  <si>
-    <t>subAcctBal</t>
-  </si>
-  <si>
-    <t>应付利息</t>
-  </si>
-  <si>
-    <t>pyblInt</t>
-  </si>
-  <si>
-    <t>利息税</t>
-  </si>
-  <si>
-    <t>intTax</t>
-  </si>
-  <si>
-    <t>应付本息合计</t>
-  </si>
-  <si>
-    <t>pyblPrncpintTotAmt</t>
-  </si>
-  <si>
-    <t>cashTranFlgCd</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>inAcctNum</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>cntptyAcctNm</t>
-  </si>
-  <si>
-    <t>支票活期现金存款</t>
-  </si>
-  <si>
-    <t>totalTxAmt1</t>
-  </si>
-  <si>
-    <t>电子银行签约管理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCT_NM</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRTF_TYP</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRTF_NO</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00066</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101004</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公综合销户</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公综合销户</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCT_NM</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_TX_AMTL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,23 +1864,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1739,156 +1894,13 @@
     <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1901,8 +1913,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1923,7 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79985961485641"/>
+        <fgColor theme="3" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,188 +1951,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2148,253 +1986,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2474,59 +2070,11 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2801,32 +2349,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.4416666666667" style="34" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="34" customWidth="1"/>
     <col min="2" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="17.1083333333333" style="35" customWidth="1"/>
-    <col min="9" max="9" width="23.4416666666667" style="34" customWidth="1"/>
-    <col min="10" max="10" width="17.4416666666667" style="34" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="34" customWidth="1"/>
     <col min="11" max="16" width="9" style="34"/>
-    <col min="17" max="17" width="23.2166666666667" style="34" customWidth="1"/>
+    <col min="17" max="17" width="23.25" style="34" customWidth="1"/>
     <col min="18" max="18" width="9" style="35"/>
     <col min="19" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:18">
+    <row r="1" spans="1:18" ht="60.75">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4913,7 +4462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="15">
       <c r="A54" s="34" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="15">
       <c r="A55" s="34" t="s">
         <v>18</v>
       </c>
@@ -5014,7 +4563,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="15">
       <c r="A56" s="34" t="s">
         <v>18</v>
       </c>
@@ -5064,7 +4613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="15">
       <c r="A57" s="34" t="s">
         <v>18</v>
       </c>
@@ -5114,7 +4663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="15">
       <c r="A58" s="34" t="s">
         <v>18</v>
       </c>
@@ -5164,7 +4713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="15">
       <c r="A59" s="34" t="s">
         <v>18</v>
       </c>
@@ -5214,7 +4763,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="15">
       <c r="A60" s="34" t="s">
         <v>18</v>
       </c>
@@ -5264,7 +4813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="15">
       <c r="A61" s="34" t="s">
         <v>18</v>
       </c>
@@ -5314,7 +4863,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="15">
       <c r="A62" s="34" t="s">
         <v>18</v>
       </c>
@@ -5364,7 +4913,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="15">
       <c r="A63" s="34" t="s">
         <v>18</v>
       </c>
@@ -5969,7 +5518,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="1:18">
+      <c r="A79" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="B79" s="34" t="s">
         <v>192</v>
       </c>
@@ -6001,12 +5553,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" s="34" customFormat="1" spans="2:18">
+    <row r="80" spans="1:18">
+      <c r="A80" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="B80" s="34" t="s">
         <v>194</v>
       </c>
       <c r="C80" s="34">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="35" t="s">
         <v>20</v>
@@ -6026,13 +5581,6 @@
       <c r="I80" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
       <c r="Q80" s="34" t="s">
         <v>24</v>
       </c>
@@ -6040,41 +5588,111 @@
         <v>25</v>
       </c>
     </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="C81" s="34">
+        <v>76</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="34">
+        <v>1</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C82" s="34">
+        <v>77</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="34">
+        <v>1</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="I82" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="35" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A74">
+      <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A74">
-      <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F407"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="F413" sqref="F413"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413:E416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.775" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.4416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.4416666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -10644,7 +10262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" ht="14.25">
       <c r="A235" s="4" t="s">
         <v>130</v>
       </c>
@@ -10664,7 +10282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" ht="14.25">
       <c r="A236" s="4" t="s">
         <v>130</v>
       </c>
@@ -10684,7 +10302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" ht="14.25">
       <c r="A237" s="4" t="s">
         <v>130</v>
       </c>
@@ -10704,7 +10322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" ht="14.25">
       <c r="A238" s="4" t="s">
         <v>130</v>
       </c>
@@ -10724,7 +10342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" ht="14.25">
       <c r="A239" s="4" t="s">
         <v>130</v>
       </c>
@@ -10744,7 +10362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" ht="14.25">
       <c r="A240" s="4" t="s">
         <v>130</v>
       </c>
@@ -10764,7 +10382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" ht="14.25">
       <c r="A241" s="4" t="s">
         <v>130</v>
       </c>
@@ -10784,7 +10402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" ht="14.25">
       <c r="A242" s="4" t="s">
         <v>130</v>
       </c>
@@ -10804,7 +10422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" ht="14.25">
       <c r="A243" s="4" t="s">
         <v>130</v>
       </c>
@@ -10824,7 +10442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="14.25">
       <c r="A244" s="4" t="s">
         <v>130</v>
       </c>
@@ -10844,7 +10462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" ht="14.25">
       <c r="A245" s="4" t="s">
         <v>130</v>
       </c>
@@ -10864,7 +10482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" ht="14.25">
       <c r="A246" s="4" t="s">
         <v>130</v>
       </c>
@@ -10884,7 +10502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" ht="14.25">
       <c r="A247" s="4" t="s">
         <v>130</v>
       </c>
@@ -10904,7 +10522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" ht="14.25">
       <c r="A248" s="4" t="s">
         <v>131</v>
       </c>
@@ -10924,7 +10542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" ht="14.25">
       <c r="A249" s="26" t="s">
         <v>131</v>
       </c>
@@ -10944,7 +10562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" ht="14.25">
       <c r="A250" s="4" t="s">
         <v>131</v>
       </c>
@@ -10964,7 +10582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" ht="14.25">
       <c r="A251" s="4" t="s">
         <v>131</v>
       </c>
@@ -10984,7 +10602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" ht="14.25">
       <c r="A252" s="4" t="s">
         <v>131</v>
       </c>
@@ -11004,7 +10622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" ht="14.25">
       <c r="A253" s="4" t="s">
         <v>131</v>
       </c>
@@ -11024,7 +10642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" ht="14.25">
       <c r="A254" s="4" t="s">
         <v>131</v>
       </c>
@@ -11044,7 +10662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" ht="14.25">
       <c r="A255" s="26" t="s">
         <v>131</v>
       </c>
@@ -11224,7 +10842,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:6">
+    <row r="264" spans="1:6" s="2" customFormat="1">
       <c r="A264" s="26" t="s">
         <v>377</v>
       </c>
@@ -11304,7 +10922,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" ht="14.25">
       <c r="A268" s="26" t="s">
         <v>133</v>
       </c>
@@ -11324,7 +10942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" ht="14.25">
       <c r="A269" s="26" t="s">
         <v>133</v>
       </c>
@@ -11344,7 +10962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" ht="14.25">
       <c r="A270" s="26" t="s">
         <v>133</v>
       </c>
@@ -11364,7 +10982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" ht="14.25">
       <c r="A271" s="26" t="s">
         <v>133</v>
       </c>
@@ -11384,7 +11002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" ht="14.25">
       <c r="A272" s="26" t="s">
         <v>133</v>
       </c>
@@ -11404,7 +11022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" ht="14.25">
       <c r="A273" s="26" t="s">
         <v>133</v>
       </c>
@@ -11424,7 +11042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" ht="14.25">
       <c r="A274" s="26" t="s">
         <v>133</v>
       </c>
@@ -11444,7 +11062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" ht="14.25">
       <c r="A275" s="26" t="s">
         <v>133</v>
       </c>
@@ -11464,7 +11082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" ht="14.25">
       <c r="A276" s="26" t="s">
         <v>133</v>
       </c>
@@ -11484,7 +11102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" ht="14.25">
       <c r="A277" s="26" t="s">
         <v>133</v>
       </c>
@@ -11504,7 +11122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" ht="14.25">
       <c r="A278" s="26" t="s">
         <v>133</v>
       </c>
@@ -11524,7 +11142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" ht="14.25">
       <c r="A279" s="26" t="s">
         <v>133</v>
       </c>
@@ -11544,7 +11162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" ht="14.25">
       <c r="A280" s="26" t="s">
         <v>133</v>
       </c>
@@ -11564,7 +11182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" ht="14.25">
       <c r="A281" s="26" t="s">
         <v>133</v>
       </c>
@@ -11604,7 +11222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" ht="15">
       <c r="A283" s="4" t="s">
         <v>138</v>
       </c>
@@ -11624,7 +11242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" ht="15">
       <c r="A284" s="4" t="s">
         <v>138</v>
       </c>
@@ -11644,7 +11262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" ht="15">
       <c r="A285" s="4" t="s">
         <v>138</v>
       </c>
@@ -11664,7 +11282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" ht="15">
       <c r="A286" s="4" t="s">
         <v>138</v>
       </c>
@@ -11704,7 +11322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" ht="15">
       <c r="A288" s="4" t="s">
         <v>138</v>
       </c>
@@ -11724,7 +11342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" ht="15">
       <c r="A289" s="4" t="s">
         <v>138</v>
       </c>
@@ -11744,7 +11362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" ht="15">
       <c r="A290" s="4" t="s">
         <v>138</v>
       </c>
@@ -11764,7 +11382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" ht="15">
       <c r="A291" s="4" t="s">
         <v>138</v>
       </c>
@@ -11784,7 +11402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" ht="15">
       <c r="A292" s="4" t="s">
         <v>138</v>
       </c>
@@ -11824,7 +11442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" ht="15">
       <c r="A294" s="4" t="s">
         <v>138</v>
       </c>
@@ -11844,7 +11462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" ht="15">
       <c r="A295" s="4" t="s">
         <v>138</v>
       </c>
@@ -11864,7 +11482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" ht="15">
       <c r="A296" s="4" t="s">
         <v>138</v>
       </c>
@@ -11884,7 +11502,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" ht="15">
       <c r="A297" s="4" t="s">
         <v>138</v>
       </c>
@@ -11904,7 +11522,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" ht="15">
       <c r="A298" s="4" t="s">
         <v>138</v>
       </c>
@@ -11944,7 +11562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" ht="15">
       <c r="A300" s="4" t="s">
         <v>148</v>
       </c>
@@ -11964,7 +11582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" ht="15">
       <c r="A301" s="4" t="s">
         <v>148</v>
       </c>
@@ -11984,7 +11602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" ht="15">
       <c r="A302" s="4" t="s">
         <v>148</v>
       </c>
@@ -12004,7 +11622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" ht="15">
       <c r="A303" s="4" t="s">
         <v>148</v>
       </c>
@@ -12024,7 +11642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" ht="15">
       <c r="A304" s="4" t="s">
         <v>148</v>
       </c>
@@ -12044,7 +11662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" ht="15">
       <c r="A305" s="4" t="s">
         <v>148</v>
       </c>
@@ -12064,7 +11682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" ht="15">
       <c r="A306" s="4" t="s">
         <v>148</v>
       </c>
@@ -12084,7 +11702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" ht="15">
       <c r="A307" s="4" t="s">
         <v>148</v>
       </c>
@@ -12104,7 +11722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" ht="15">
       <c r="A308" s="4" t="s">
         <v>148</v>
       </c>
@@ -12124,7 +11742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" ht="15">
       <c r="A309" s="4" t="s">
         <v>148</v>
       </c>
@@ -12144,7 +11762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" ht="15">
       <c r="A310" s="4" t="s">
         <v>148</v>
       </c>
@@ -12164,7 +11782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" ht="15">
       <c r="A311" s="4" t="s">
         <v>148</v>
       </c>
@@ -12184,7 +11802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" ht="15">
       <c r="A312" s="4" t="s">
         <v>148</v>
       </c>
@@ -12204,7 +11822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="15">
       <c r="A313" s="4" t="s">
         <v>148</v>
       </c>
@@ -12224,7 +11842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" ht="15">
       <c r="A314" s="4" t="s">
         <v>148</v>
       </c>
@@ -12264,7 +11882,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" ht="15">
       <c r="A316" s="4" t="s">
         <v>148</v>
       </c>
@@ -12284,7 +11902,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" ht="15">
       <c r="A317" s="4" t="s">
         <v>148</v>
       </c>
@@ -12304,7 +11922,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" ht="15">
       <c r="A318" s="4" t="s">
         <v>148</v>
       </c>
@@ -12324,7 +11942,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="319" s="3" customFormat="1" spans="1:6">
+    <row r="319" spans="1:6" s="3" customFormat="1">
       <c r="A319" s="4" t="s">
         <v>148</v>
       </c>
@@ -12344,7 +11962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="320" s="3" customFormat="1" spans="1:6">
+    <row r="320" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A320" s="4" t="s">
         <v>148</v>
       </c>
@@ -12364,7 +11982,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="321" s="3" customFormat="1" spans="1:6">
+    <row r="321" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A321" s="4" t="s">
         <v>148</v>
       </c>
@@ -12384,7 +12002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="322" s="3" customFormat="1" spans="1:6">
+    <row r="322" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A322" s="30" t="s">
         <v>162</v>
       </c>
@@ -12404,7 +12022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" s="3" customFormat="1" spans="1:6">
+    <row r="323" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A323" s="30" t="s">
         <v>162</v>
       </c>
@@ -12424,7 +12042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" s="3" customFormat="1" spans="1:6">
+    <row r="324" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A324" s="30" t="s">
         <v>162</v>
       </c>
@@ -12444,7 +12062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" s="3" customFormat="1" spans="1:6">
+    <row r="325" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A325" s="30" t="s">
         <v>162</v>
       </c>
@@ -12464,7 +12082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" s="3" customFormat="1" spans="1:6">
+    <row r="326" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A326" s="30" t="s">
         <v>164</v>
       </c>
@@ -12484,7 +12102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" s="3" customFormat="1" spans="1:6">
+    <row r="327" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A327" s="30" t="s">
         <v>164</v>
       </c>
@@ -12504,7 +12122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" s="3" customFormat="1" spans="1:6">
+    <row r="328" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A328" s="30" t="s">
         <v>164</v>
       </c>
@@ -12524,7 +12142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" s="3" customFormat="1" spans="1:6">
+    <row r="329" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A329" s="30" t="s">
         <v>164</v>
       </c>
@@ -12544,7 +12162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" s="3" customFormat="1" spans="1:6">
+    <row r="330" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A330" s="30" t="s">
         <v>164</v>
       </c>
@@ -12564,7 +12182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" s="3" customFormat="1" spans="1:6">
+    <row r="331" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A331" s="30" t="s">
         <v>164</v>
       </c>
@@ -12584,7 +12202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" s="3" customFormat="1" spans="1:6">
+    <row r="332" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A332" s="30" t="s">
         <v>166</v>
       </c>
@@ -12604,7 +12222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" s="3" customFormat="1" spans="1:6">
+    <row r="333" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A333" s="30" t="s">
         <v>166</v>
       </c>
@@ -12624,7 +12242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" s="3" customFormat="1" spans="1:6">
+    <row r="334" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A334" s="30" t="s">
         <v>166</v>
       </c>
@@ -12644,7 +12262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" s="3" customFormat="1" spans="1:6">
+    <row r="335" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A335" s="30" t="s">
         <v>166</v>
       </c>
@@ -12664,7 +12282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" s="3" customFormat="1" spans="1:6">
+    <row r="336" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A336" s="30" t="s">
         <v>166</v>
       </c>
@@ -12684,7 +12302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" s="3" customFormat="1" spans="1:6">
+    <row r="337" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A337" s="30" t="s">
         <v>166</v>
       </c>
@@ -12704,7 +12322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" s="3" customFormat="1" spans="1:6">
+    <row r="338" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A338" s="30" t="s">
         <v>168</v>
       </c>
@@ -12724,7 +12342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" ht="15">
       <c r="A339" s="30" t="s">
         <v>168</v>
       </c>
@@ -12744,7 +12362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" ht="15">
       <c r="A340" s="30" t="s">
         <v>168</v>
       </c>
@@ -12764,7 +12382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" ht="15">
       <c r="A341" s="30" t="s">
         <v>168</v>
       </c>
@@ -12864,7 +12482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" ht="15">
       <c r="A346" s="4" t="s">
         <v>172</v>
       </c>
@@ -12884,7 +12502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" ht="15">
       <c r="A347" s="4" t="s">
         <v>172</v>
       </c>
@@ -12904,7 +12522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" ht="15">
       <c r="A348" s="4" t="s">
         <v>172</v>
       </c>
@@ -12924,7 +12542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" ht="15">
       <c r="A349" s="4" t="s">
         <v>172</v>
       </c>
@@ -12944,7 +12562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" ht="15">
       <c r="A350" s="4" t="s">
         <v>172</v>
       </c>
@@ -12964,7 +12582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" ht="15">
       <c r="A351" s="4" t="s">
         <v>172</v>
       </c>
@@ -12984,7 +12602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" ht="15">
       <c r="A352" s="4" t="s">
         <v>172</v>
       </c>
@@ -13004,7 +12622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" ht="15">
       <c r="A353" s="4" t="s">
         <v>172</v>
       </c>
@@ -13024,7 +12642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" ht="15">
       <c r="A354" s="4" t="s">
         <v>174</v>
       </c>
@@ -13044,7 +12662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" ht="15">
       <c r="A355" s="4" t="s">
         <v>174</v>
       </c>
@@ -13064,7 +12682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" ht="15">
       <c r="A356" s="4" t="s">
         <v>174</v>
       </c>
@@ -13084,7 +12702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" ht="15">
       <c r="A357" s="4" t="s">
         <v>174</v>
       </c>
@@ -13104,7 +12722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" ht="15">
       <c r="A358" s="4" t="s">
         <v>174</v>
       </c>
@@ -13124,7 +12742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" ht="15">
       <c r="A359" s="4" t="s">
         <v>174</v>
       </c>
@@ -13144,7 +12762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="15">
       <c r="A360" s="4" t="s">
         <v>174</v>
       </c>
@@ -13164,7 +12782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" ht="15">
       <c r="A361" s="4" t="s">
         <v>174</v>
       </c>
@@ -13184,7 +12802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" ht="15">
       <c r="A362" s="4" t="s">
         <v>176</v>
       </c>
@@ -13204,7 +12822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" ht="15">
       <c r="A363" s="4" t="s">
         <v>176</v>
       </c>
@@ -13224,7 +12842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" ht="15">
       <c r="A364" s="4" t="s">
         <v>176</v>
       </c>
@@ -13244,7 +12862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" ht="15">
       <c r="A365" s="4" t="s">
         <v>176</v>
       </c>
@@ -13264,7 +12882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" ht="15">
       <c r="A366" s="4" t="s">
         <v>176</v>
       </c>
@@ -13284,7 +12902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" ht="15">
       <c r="A367" s="4" t="s">
         <v>176</v>
       </c>
@@ -13304,7 +12922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" ht="15">
       <c r="A368" s="4" t="s">
         <v>176</v>
       </c>
@@ -13324,7 +12942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" ht="15">
       <c r="A369" s="4" t="s">
         <v>176</v>
       </c>
@@ -13364,7 +12982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="15">
       <c r="A371" s="4" t="s">
         <v>178</v>
       </c>
@@ -13384,7 +13002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="15">
       <c r="A372" s="4" t="s">
         <v>178</v>
       </c>
@@ -13404,7 +13022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" ht="15">
       <c r="A373" s="4" t="s">
         <v>178</v>
       </c>
@@ -13424,7 +13042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="15">
       <c r="A374" s="4" t="s">
         <v>178</v>
       </c>
@@ -13444,7 +13062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" ht="15">
       <c r="A375" s="4" t="s">
         <v>178</v>
       </c>
@@ -13464,7 +13082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" ht="15">
       <c r="A376" s="4" t="s">
         <v>178</v>
       </c>
@@ -13484,7 +13102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" ht="15">
       <c r="A377" s="4" t="s">
         <v>178</v>
       </c>
@@ -13504,7 +13122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" ht="15">
       <c r="A378" s="4" t="s">
         <v>178</v>
       </c>
@@ -13524,7 +13142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" ht="15">
       <c r="A379" s="4" t="s">
         <v>180</v>
       </c>
@@ -13544,7 +13162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" ht="15">
       <c r="A380" s="4" t="s">
         <v>180</v>
       </c>
@@ -13564,7 +13182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="15">
       <c r="A381" s="4" t="s">
         <v>180</v>
       </c>
@@ -13584,7 +13202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="15">
       <c r="A382" s="4" t="s">
         <v>180</v>
       </c>
@@ -13604,7 +13222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" ht="15">
       <c r="A383" s="4" t="s">
         <v>180</v>
       </c>
@@ -13624,7 +13242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" s="3" customFormat="1" spans="1:6">
+    <row r="384" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A384" s="4" t="s">
         <v>180</v>
       </c>
@@ -13644,7 +13262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" s="3" customFormat="1" spans="1:6">
+    <row r="385" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A385" s="4" t="s">
         <v>180</v>
       </c>
@@ -13664,7 +13282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" s="3" customFormat="1" spans="1:6">
+    <row r="386" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A386" s="4" t="s">
         <v>180</v>
       </c>
@@ -13684,7 +13302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" s="3" customFormat="1" spans="1:6">
+    <row r="387" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A387" s="33" t="s">
         <v>182</v>
       </c>
@@ -13704,7 +13322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" s="3" customFormat="1" spans="1:6">
+    <row r="388" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A388" s="33" t="s">
         <v>182</v>
       </c>
@@ -13724,7 +13342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="15">
       <c r="A389" s="33" t="s">
         <v>182</v>
       </c>
@@ -13758,7 +13376,7 @@
         <v>202</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="F390" s="33" t="s">
         <v>25</v>
@@ -13778,7 +13396,7 @@
         <v>205</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F391" s="33" t="s">
         <v>25</v>
@@ -13789,16 +13407,16 @@
         <v>191</v>
       </c>
       <c r="B392" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D392" t="s">
+        <v>443</v>
+      </c>
+      <c r="E392" t="s">
         <v>444</v>
-      </c>
-      <c r="E392" t="s">
-        <v>445</v>
       </c>
       <c r="F392" s="33" t="s">
         <v>25</v>
@@ -13809,7 +13427,7 @@
         <v>191</v>
       </c>
       <c r="B393" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>204</v>
@@ -13829,7 +13447,7 @@
         <v>191</v>
       </c>
       <c r="B394" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>207</v>
@@ -13838,7 +13456,7 @@
         <v>116</v>
       </c>
       <c r="E394" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F394" s="33" t="s">
         <v>25</v>
@@ -13849,7 +13467,7 @@
         <v>191</v>
       </c>
       <c r="B395" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>210</v>
@@ -13858,7 +13476,7 @@
         <v>147</v>
       </c>
       <c r="E395" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F395" s="33" t="s">
         <v>25</v>
@@ -13869,16 +13487,16 @@
         <v>191</v>
       </c>
       <c r="B396" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D396" t="s">
+        <v>447</v>
+      </c>
+      <c r="E396" t="s">
         <v>448</v>
-      </c>
-      <c r="E396" t="s">
-        <v>449</v>
       </c>
       <c r="F396" s="33" t="s">
         <v>25</v>
@@ -13889,16 +13507,16 @@
         <v>191</v>
       </c>
       <c r="B397" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D397" t="s">
+        <v>449</v>
+      </c>
+      <c r="E397" t="s">
         <v>450</v>
-      </c>
-      <c r="E397" t="s">
-        <v>451</v>
       </c>
       <c r="F397" s="33" t="s">
         <v>25</v>
@@ -13909,16 +13527,16 @@
         <v>191</v>
       </c>
       <c r="B398" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D398" t="s">
+        <v>451</v>
+      </c>
+      <c r="E398" t="s">
         <v>452</v>
-      </c>
-      <c r="E398" t="s">
-        <v>453</v>
       </c>
       <c r="F398" s="33" t="s">
         <v>25</v>
@@ -13929,16 +13547,16 @@
         <v>191</v>
       </c>
       <c r="B399" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D399" t="s">
+        <v>453</v>
+      </c>
+      <c r="E399" t="s">
         <v>454</v>
-      </c>
-      <c r="E399" t="s">
-        <v>455</v>
       </c>
       <c r="F399" s="33" t="s">
         <v>25</v>
@@ -13949,7 +13567,7 @@
         <v>191</v>
       </c>
       <c r="B400" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>275</v>
@@ -13958,7 +13576,7 @@
         <v>84</v>
       </c>
       <c r="E400" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F400" s="33" t="s">
         <v>25</v>
@@ -13969,16 +13587,16 @@
         <v>191</v>
       </c>
       <c r="B401" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D401" t="s">
         <v>399</v>
       </c>
       <c r="E401" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F401" s="33" t="s">
         <v>25</v>
@@ -13989,16 +13607,16 @@
         <v>191</v>
       </c>
       <c r="B402" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D402" t="s">
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F402" s="33" t="s">
         <v>25</v>
@@ -14009,7 +13627,7 @@
         <v>193</v>
       </c>
       <c r="B403" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>201</v>
@@ -14029,7 +13647,7 @@
         <v>193</v>
       </c>
       <c r="B404" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>204</v>
@@ -14049,7 +13667,7 @@
         <v>193</v>
       </c>
       <c r="B405" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>207</v>
@@ -14058,7 +13676,7 @@
         <v>208</v>
       </c>
       <c r="E405" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F405" s="26" t="s">
         <v>379</v>
@@ -14069,7 +13687,7 @@
         <v>193</v>
       </c>
       <c r="B406" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>210</v>
@@ -14078,7 +13696,7 @@
         <v>211</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>212</v>
+        <v>481</v>
       </c>
       <c r="F406" s="26" t="s">
         <v>379</v>
@@ -14089,29 +13707,212 @@
         <v>195</v>
       </c>
       <c r="B407" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D407" t="s">
-        <v>202</v>
+      <c r="D407" s="25" t="s">
+        <v>463</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>214</v>
+        <v>441</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B408" t="s">
+        <v>469</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D408" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E408" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F408" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B409" t="s">
+        <v>469</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D409" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E409" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F409" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B410" t="s">
+        <v>469</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D410" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E410" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="F410" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B411" t="s">
+        <v>469</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D411" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E411" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F411" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B412" t="s">
+        <v>469</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D412" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E412" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="F412" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B413" t="s">
+        <v>489</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D413" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E413" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F413" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B414" t="s">
+        <v>490</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D414" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E414" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F414" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B415" t="s">
+        <v>489</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D415" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E415" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="F415" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B416" t="s">
+        <v>489</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D416" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E416" t="s">
+        <v>496</v>
+      </c>
+      <c r="F416" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="35"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B72:B75">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="494">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -636,12 +636,6 @@
   </si>
   <si>
     <t>00101002</t>
-  </si>
-  <si>
-    <t>DS00070</t>
-  </si>
-  <si>
-    <t>00103002</t>
   </si>
   <si>
     <t>交易名称</t>
@@ -1769,10 +1763,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1866,7 +1860,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,37 +1944,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1934,62 +1983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,7 +2039,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,13 +2159,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,25 +2201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,121 +2213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2259,6 +2253,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2270,30 +2288,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2312,6 +2306,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2341,31 +2350,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2374,133 +2368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2925,12 +2919,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="$A87:$XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6378,41 +6372,6 @@
         <v>24</v>
       </c>
       <c r="R86" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" s="37">
-        <v>79</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="37">
-        <v>1</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I87" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q87" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="R87" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6436,7 +6395,7 @@
   <sheetPr/>
   <dimension ref="A1:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B421" sqref="B421"/>
@@ -6457,16 +6416,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>17</v>
@@ -6477,16 +6436,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>25</v>
@@ -6497,16 +6456,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
@@ -6517,16 +6476,16 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
@@ -6537,16 +6496,16 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
@@ -6557,16 +6516,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
@@ -6577,16 +6536,16 @@
         <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -6597,16 +6556,16 @@
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -6617,16 +6576,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -6637,16 +6596,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -6657,16 +6616,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -6677,16 +6636,16 @@
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -6697,16 +6656,16 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -6717,16 +6676,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -6737,16 +6696,16 @@
         <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -6757,16 +6716,16 @@
         <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -6777,16 +6736,16 @@
         <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -6797,16 +6756,16 @@
         <v>162</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -6817,16 +6776,16 @@
         <v>162</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
@@ -6837,16 +6796,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -6857,16 +6816,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -6877,16 +6836,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
@@ -6897,16 +6856,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>25</v>
@@ -6917,16 +6876,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>25</v>
@@ -6937,16 +6896,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>25</v>
@@ -6957,16 +6916,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
@@ -6977,16 +6936,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>25</v>
@@ -6997,16 +6956,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
@@ -7017,16 +6976,16 @@
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>25</v>
@@ -7037,16 +6996,16 @@
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
@@ -7057,16 +7016,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>25</v>
@@ -7077,16 +7036,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>25</v>
@@ -7097,16 +7056,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -7117,16 +7076,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>25</v>
@@ -7137,16 +7096,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>116</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>25</v>
@@ -7157,16 +7116,16 @@
         <v>27</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>25</v>
@@ -7177,16 +7136,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>25</v>
@@ -7197,16 +7156,16 @@
         <v>27</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>256</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
@@ -7217,16 +7176,16 @@
         <v>23</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>25</v>
@@ -7237,16 +7196,16 @@
         <v>23</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
@@ -7257,16 +7216,16 @@
         <v>23</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
@@ -7277,16 +7236,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>25</v>
@@ -7297,16 +7256,16 @@
         <v>23</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>25</v>
@@ -7314,19 +7273,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>25</v>
@@ -7337,16 +7296,16 @@
         <v>39</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>25</v>
@@ -7357,16 +7316,16 @@
         <v>39</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>25</v>
@@ -7377,16 +7336,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
@@ -7397,16 +7356,16 @@
         <v>39</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>25</v>
@@ -7417,16 +7376,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>25</v>
@@ -7437,16 +7396,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>25</v>
@@ -7457,16 +7416,16 @@
         <v>41</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>25</v>
@@ -7477,16 +7436,16 @@
         <v>41</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>25</v>
@@ -7501,10 +7460,10 @@
         <v>158</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>25</v>
@@ -7516,13 +7475,13 @@
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>25</v>
@@ -7534,13 +7493,13 @@
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>25</v>
@@ -7552,13 +7511,13 @@
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>25</v>
@@ -7569,16 +7528,16 @@
         <v>45</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>25</v>
@@ -7589,16 +7548,16 @@
         <v>45</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>25</v>
@@ -7609,16 +7568,16 @@
         <v>45</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>25</v>
@@ -7629,16 +7588,16 @@
         <v>47</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>25</v>
@@ -7649,16 +7608,16 @@
         <v>47</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>25</v>
@@ -7666,16 +7625,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="4" t="s">
@@ -7687,16 +7646,16 @@
         <v>47</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>25</v>
@@ -7707,16 +7666,16 @@
         <v>47</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>25</v>
@@ -7727,16 +7686,16 @@
         <v>47</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>25</v>
@@ -7747,16 +7706,16 @@
         <v>49</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>25</v>
@@ -7767,16 +7726,16 @@
         <v>49</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>25</v>
@@ -7787,16 +7746,16 @@
         <v>49</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>25</v>
@@ -7807,16 +7766,16 @@
         <v>49</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="E69" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>25</v>
@@ -7827,16 +7786,16 @@
         <v>49</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>25</v>
@@ -7847,16 +7806,16 @@
         <v>49</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>25</v>
@@ -7867,16 +7826,16 @@
         <v>51</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>25</v>
@@ -7887,16 +7846,16 @@
         <v>51</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>25</v>
@@ -7907,16 +7866,16 @@
         <v>51</v>
       </c>
       <c r="B74" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>25</v>
@@ -7927,16 +7886,16 @@
         <v>51</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>25</v>
@@ -7947,16 +7906,16 @@
         <v>53</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>25</v>
@@ -7967,13 +7926,13 @@
         <v>53</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="4" t="s">
@@ -7985,16 +7944,16 @@
         <v>53</v>
       </c>
       <c r="B78" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>296</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>25</v>
@@ -8005,16 +7964,16 @@
         <v>53</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>25</v>
@@ -8025,16 +7984,16 @@
         <v>55</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>25</v>
@@ -8045,13 +8004,13 @@
         <v>55</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="4" t="s">
@@ -8063,16 +8022,16 @@
         <v>55</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>25</v>
@@ -8083,16 +8042,16 @@
         <v>55</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>25</v>
@@ -8100,19 +8059,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>25</v>
@@ -8120,19 +8079,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>25</v>
@@ -8140,19 +8099,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>25</v>
@@ -8160,19 +8119,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>25</v>
@@ -8180,19 +8139,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>25</v>
@@ -8200,19 +8159,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>25</v>
@@ -8220,19 +8179,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>25</v>
@@ -8240,19 +8199,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C91" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>25</v>
@@ -8260,19 +8219,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>25</v>
@@ -8280,19 +8239,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>25</v>
@@ -8300,19 +8259,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>25</v>
@@ -8320,19 +8279,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>25</v>
@@ -8340,19 +8299,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>25</v>
@@ -8360,19 +8319,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>25</v>
@@ -8380,19 +8339,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B98" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>25</v>
@@ -8400,19 +8359,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>25</v>
@@ -8420,19 +8379,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>25</v>
@@ -8443,16 +8402,16 @@
         <v>65</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>25</v>
@@ -8460,19 +8419,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>25</v>
@@ -8483,16 +8442,16 @@
         <v>65</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>25</v>
@@ -8503,16 +8462,16 @@
         <v>67</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>25</v>
@@ -8523,16 +8482,16 @@
         <v>67</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>25</v>
@@ -8543,16 +8502,16 @@
         <v>67</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>25</v>
@@ -8563,16 +8522,16 @@
         <v>67</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>25</v>
@@ -8583,16 +8542,16 @@
         <v>67</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>25</v>
@@ -8603,16 +8562,16 @@
         <v>69</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>25</v>
@@ -8623,16 +8582,16 @@
         <v>69</v>
       </c>
       <c r="B110" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>25</v>
@@ -8643,16 +8602,16 @@
         <v>69</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>25</v>
@@ -8663,16 +8622,16 @@
         <v>69</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>25</v>
@@ -8683,16 +8642,16 @@
         <v>69</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>25</v>
@@ -8703,16 +8662,16 @@
         <v>71</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>25</v>
@@ -8723,16 +8682,16 @@
         <v>71</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>25</v>
@@ -8743,16 +8702,16 @@
         <v>71</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>25</v>
@@ -8763,16 +8722,16 @@
         <v>71</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>25</v>
@@ -8783,16 +8742,16 @@
         <v>73</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>25</v>
@@ -8803,16 +8762,16 @@
         <v>73</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>25</v>
@@ -8823,16 +8782,16 @@
         <v>73</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>25</v>
@@ -8843,16 +8802,16 @@
         <v>73</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>25</v>
@@ -8863,16 +8822,16 @@
         <v>75</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>25</v>
@@ -8883,16 +8842,16 @@
         <v>75</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>25</v>
@@ -8903,16 +8862,16 @@
         <v>75</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>25</v>
@@ -8923,16 +8882,16 @@
         <v>75</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>25</v>
@@ -8943,16 +8902,16 @@
         <v>75</v>
       </c>
       <c r="B126" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>337</v>
-      </c>
       <c r="E126" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>25</v>
@@ -8963,16 +8922,16 @@
         <v>75</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>25</v>
@@ -8983,16 +8942,16 @@
         <v>75</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>25</v>
@@ -9003,16 +8962,16 @@
         <v>75</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>25</v>
@@ -9023,16 +8982,16 @@
         <v>77</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>25</v>
@@ -9043,16 +9002,16 @@
         <v>77</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E131" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>25</v>
@@ -9063,16 +9022,16 @@
         <v>77</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>25</v>
@@ -9083,16 +9042,16 @@
         <v>77</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>25</v>
@@ -9103,16 +9062,16 @@
         <v>77</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>25</v>
@@ -9123,16 +9082,16 @@
         <v>79</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>25</v>
@@ -9143,16 +9102,16 @@
         <v>79</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>25</v>
@@ -9163,16 +9122,16 @@
         <v>79</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>25</v>
@@ -9183,16 +9142,16 @@
         <v>79</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>25</v>
@@ -9203,16 +9162,16 @@
         <v>79</v>
       </c>
       <c r="B139" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E139" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>343</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>25</v>
@@ -9223,16 +9182,16 @@
         <v>81</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F140" s="22" t="s">
         <v>25</v>
@@ -9243,16 +9202,16 @@
         <v>81</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F141" s="22" t="s">
         <v>25</v>
@@ -9263,16 +9222,16 @@
         <v>81</v>
       </c>
       <c r="B142" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E142" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>346</v>
       </c>
       <c r="F142" s="22" t="s">
         <v>25</v>
@@ -9283,16 +9242,16 @@
         <v>81</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>25</v>
@@ -9303,16 +9262,16 @@
         <v>81</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F144" s="22" t="s">
         <v>25</v>
@@ -9323,16 +9282,16 @@
         <v>81</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>89</v>
@@ -9343,16 +9302,16 @@
         <v>81</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>89</v>
@@ -9363,16 +9322,16 @@
         <v>81</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E147" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>346</v>
       </c>
       <c r="F147" s="22" t="s">
         <v>89</v>
@@ -9383,16 +9342,16 @@
         <v>81</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F148" s="22" t="s">
         <v>89</v>
@@ -9403,16 +9362,16 @@
         <v>81</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F149" s="22" t="s">
         <v>89</v>
@@ -9423,16 +9382,16 @@
         <v>81</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F150" s="22" t="s">
         <v>89</v>
@@ -9443,16 +9402,16 @@
         <v>81</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F151" s="22" t="s">
         <v>89</v>
@@ -9463,16 +9422,16 @@
         <v>91</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>25</v>
@@ -9483,16 +9442,16 @@
         <v>91</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>25</v>
@@ -9503,16 +9462,16 @@
         <v>91</v>
       </c>
       <c r="B154" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E154" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>25</v>
@@ -9523,16 +9482,16 @@
         <v>91</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>25</v>
@@ -9543,16 +9502,16 @@
         <v>91</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>25</v>
@@ -9563,16 +9522,16 @@
         <v>91</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>25</v>
@@ -9583,16 +9542,16 @@
         <v>99</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>25</v>
@@ -9603,16 +9562,16 @@
         <v>99</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>25</v>
@@ -9623,16 +9582,16 @@
         <v>99</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>25</v>
@@ -9643,16 +9602,16 @@
         <v>99</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>25</v>
@@ -9663,16 +9622,16 @@
         <v>101</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>25</v>
@@ -9683,16 +9642,16 @@
         <v>101</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>25</v>
@@ -9703,16 +9662,16 @@
         <v>101</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>25</v>
@@ -9723,16 +9682,16 @@
         <v>101</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>25</v>
@@ -9743,16 +9702,16 @@
         <v>101</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>25</v>
@@ -9763,16 +9722,16 @@
         <v>103</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>25</v>
@@ -9783,16 +9742,16 @@
         <v>103</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>25</v>
@@ -9803,16 +9762,16 @@
         <v>103</v>
       </c>
       <c r="B169" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C169" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>365</v>
-      </c>
       <c r="E169" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>25</v>
@@ -9823,16 +9782,16 @@
         <v>103</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>25</v>
@@ -9843,16 +9802,16 @@
         <v>103</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>25</v>
@@ -9863,16 +9822,16 @@
         <v>103</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>25</v>
@@ -9883,16 +9842,16 @@
         <v>103</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>25</v>
@@ -9903,16 +9862,16 @@
         <v>103</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>25</v>
@@ -9923,16 +9882,16 @@
         <v>105</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>25</v>
@@ -9943,16 +9902,16 @@
         <v>105</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>25</v>
@@ -9963,16 +9922,16 @@
         <v>105</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>25</v>
@@ -9983,16 +9942,16 @@
         <v>105</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>25</v>
@@ -10003,16 +9962,16 @@
         <v>105</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>25</v>
@@ -10023,16 +9982,16 @@
         <v>107</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>25</v>
@@ -10043,16 +10002,16 @@
         <v>107</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>25</v>
@@ -10063,16 +10022,16 @@
         <v>107</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>25</v>
@@ -10083,16 +10042,16 @@
         <v>107</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>25</v>
@@ -10103,16 +10062,16 @@
         <v>107</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>25</v>
@@ -10123,16 +10082,16 @@
         <v>107</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>25</v>
@@ -10143,16 +10102,16 @@
         <v>109</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>25</v>
@@ -10163,16 +10122,16 @@
         <v>109</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>25</v>
@@ -10183,16 +10142,16 @@
         <v>109</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>25</v>
@@ -10203,16 +10162,16 @@
         <v>109</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>25</v>
@@ -10223,16 +10182,16 @@
         <v>109</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>25</v>
@@ -10243,16 +10202,16 @@
         <v>109</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>25</v>
@@ -10263,16 +10222,16 @@
         <v>113</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>25</v>
@@ -10283,16 +10242,16 @@
         <v>113</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>25</v>
@@ -10303,16 +10262,16 @@
         <v>113</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>25</v>
@@ -10323,16 +10282,16 @@
         <v>113</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>25</v>
@@ -10343,16 +10302,16 @@
         <v>113</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>25</v>
@@ -10363,16 +10322,16 @@
         <v>113</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>25</v>
@@ -10383,16 +10342,16 @@
         <v>113</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>25</v>
@@ -10403,16 +10362,16 @@
         <v>113</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>25</v>
@@ -10423,16 +10382,16 @@
         <v>113</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>25</v>
@@ -10443,16 +10402,16 @@
         <v>113</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>25</v>
@@ -10463,16 +10422,16 @@
         <v>113</v>
       </c>
       <c r="B202" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E202" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>25</v>
@@ -10483,16 +10442,16 @@
         <v>121</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>25</v>
@@ -10503,16 +10462,16 @@
         <v>121</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>25</v>
@@ -10523,16 +10482,16 @@
         <v>121</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>25</v>
@@ -10543,16 +10502,16 @@
         <v>121</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>25</v>
@@ -10563,16 +10522,16 @@
         <v>123</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>25</v>
@@ -10583,16 +10542,16 @@
         <v>123</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>25</v>
@@ -10603,16 +10562,16 @@
         <v>123</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>25</v>
@@ -10623,16 +10582,16 @@
         <v>123</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>25</v>
@@ -10643,16 +10602,16 @@
         <v>123</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>25</v>
@@ -10663,16 +10622,16 @@
         <v>123</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>25</v>
@@ -10683,16 +10642,16 @@
         <v>123</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>25</v>
@@ -10703,16 +10662,16 @@
         <v>123</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>25</v>
@@ -10723,16 +10682,16 @@
         <v>125</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>25</v>
@@ -10743,16 +10702,16 @@
         <v>125</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>25</v>
@@ -10763,16 +10722,16 @@
         <v>125</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>25</v>
@@ -10783,16 +10742,16 @@
         <v>125</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>25</v>
@@ -10803,16 +10762,16 @@
         <v>125</v>
       </c>
       <c r="B219" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E219" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>25</v>
@@ -10823,16 +10782,16 @@
         <v>127</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>25</v>
@@ -10843,16 +10802,16 @@
         <v>127</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>25</v>
@@ -10863,16 +10822,16 @@
         <v>127</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>25</v>
@@ -10883,16 +10842,16 @@
         <v>127</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>25</v>
@@ -10903,16 +10862,16 @@
         <v>127</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>25</v>
@@ -10923,16 +10882,16 @@
         <v>127</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>25</v>
@@ -10943,16 +10902,16 @@
         <v>129</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>25</v>
@@ -10963,16 +10922,16 @@
         <v>129</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>25</v>
@@ -10983,16 +10942,16 @@
         <v>129</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>25</v>
@@ -11003,16 +10962,16 @@
         <v>129</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>25</v>
@@ -11023,16 +10982,16 @@
         <v>111</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C230" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>25</v>
@@ -11043,16 +11002,16 @@
         <v>111</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C231" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E231" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E231" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>25</v>
@@ -11063,16 +11022,16 @@
         <v>111</v>
       </c>
       <c r="B232" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D232" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C232" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>386</v>
-      </c>
       <c r="E232" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>25</v>
@@ -11083,16 +11042,16 @@
         <v>111</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>25</v>
@@ -11103,16 +11062,16 @@
         <v>111</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>25</v>
@@ -11123,16 +11082,16 @@
         <v>130</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D235" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E235" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>25</v>
@@ -11143,16 +11102,16 @@
         <v>130</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D236" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E236" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>25</v>
@@ -11163,16 +11122,16 @@
         <v>130</v>
       </c>
       <c r="B237" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D237" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E237" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>25</v>
@@ -11183,16 +11142,16 @@
         <v>130</v>
       </c>
       <c r="B238" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D238" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E238" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>25</v>
@@ -11203,16 +11162,16 @@
         <v>130</v>
       </c>
       <c r="B239" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D239" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>25</v>
@@ -11223,16 +11182,16 @@
         <v>130</v>
       </c>
       <c r="B240" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D240" t="s">
+        <v>387</v>
+      </c>
+      <c r="E240" t="s">
         <v>388</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D240" t="s">
-        <v>389</v>
-      </c>
-      <c r="E240" t="s">
-        <v>390</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>25</v>
@@ -11243,16 +11202,16 @@
         <v>130</v>
       </c>
       <c r="B241" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D241" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>25</v>
@@ -11263,16 +11222,16 @@
         <v>130</v>
       </c>
       <c r="B242" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D242" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E242" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>25</v>
@@ -11283,16 +11242,16 @@
         <v>130</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D243" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E243" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>25</v>
@@ -11303,16 +11262,16 @@
         <v>130</v>
       </c>
       <c r="B244" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D244" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E244" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>25</v>
@@ -11323,16 +11282,16 @@
         <v>130</v>
       </c>
       <c r="B245" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D245" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E245" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>25</v>
@@ -11343,16 +11302,16 @@
         <v>130</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>25</v>
@@ -11363,16 +11322,16 @@
         <v>130</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D247" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>25</v>
@@ -11383,16 +11342,16 @@
         <v>131</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D248" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E248" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>25</v>
@@ -11403,16 +11362,16 @@
         <v>131</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D249" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E249" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>25</v>
@@ -11423,16 +11382,16 @@
         <v>131</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D250" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E250" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>25</v>
@@ -11443,16 +11402,16 @@
         <v>131</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D251" t="s">
         <v>116</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>25</v>
@@ -11463,16 +11422,16 @@
         <v>131</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D252" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E252" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>25</v>
@@ -11483,16 +11442,16 @@
         <v>131</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D253" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E253" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>25</v>
@@ -11503,16 +11462,16 @@
         <v>131</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D254" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>25</v>
@@ -11523,16 +11482,16 @@
         <v>131</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D255" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E255" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>25</v>
@@ -11540,59 +11499,59 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D256" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E256" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D257" t="s">
+        <v>212</v>
+      </c>
+      <c r="E257" t="s">
+        <v>398</v>
+      </c>
+      <c r="F257" s="26" t="s">
         <v>397</v>
-      </c>
-      <c r="B257" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="C257" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D257" t="s">
-        <v>214</v>
-      </c>
-      <c r="E257" t="s">
-        <v>400</v>
-      </c>
-      <c r="F257" s="26" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>25</v>
@@ -11600,19 +11559,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E259" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>25</v>
@@ -11620,19 +11579,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E260" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>25</v>
@@ -11640,142 +11599,142 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E261" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F261" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B262" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E262" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F262" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:6">
       <c r="A264" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B264" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E264" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F264" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B265" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E265" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F265" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B266" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E266" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B267" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D267" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E267" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F267" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="E267" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="F267" s="26" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -11783,16 +11742,16 @@
         <v>133</v>
       </c>
       <c r="B268" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D268" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E268" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F268" s="26" t="s">
         <v>25</v>
@@ -11803,16 +11762,16 @@
         <v>133</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E269" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F269" s="26" t="s">
         <v>25</v>
@@ -11823,16 +11782,16 @@
         <v>133</v>
       </c>
       <c r="B270" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D270" t="s">
+        <v>243</v>
+      </c>
+      <c r="E270" t="s">
         <v>405</v>
-      </c>
-      <c r="C270" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D270" t="s">
-        <v>245</v>
-      </c>
-      <c r="E270" t="s">
-        <v>407</v>
       </c>
       <c r="F270" s="26" t="s">
         <v>25</v>
@@ -11843,16 +11802,16 @@
         <v>133</v>
       </c>
       <c r="B271" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D271" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E271" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F271" s="26" t="s">
         <v>25</v>
@@ -11863,16 +11822,16 @@
         <v>133</v>
       </c>
       <c r="B272" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E272" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F272" s="26" t="s">
         <v>25</v>
@@ -11883,16 +11842,16 @@
         <v>133</v>
       </c>
       <c r="B273" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C273" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E273" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F273" s="26" t="s">
         <v>25</v>
@@ -11903,16 +11862,16 @@
         <v>133</v>
       </c>
       <c r="B274" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E274" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F274" s="26" t="s">
         <v>25</v>
@@ -11923,16 +11882,16 @@
         <v>133</v>
       </c>
       <c r="B275" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D275" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E275" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F275" s="26" t="s">
         <v>89</v>
@@ -11943,16 +11902,16 @@
         <v>133</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E276" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F276" s="26" t="s">
         <v>89</v>
@@ -11963,16 +11922,16 @@
         <v>133</v>
       </c>
       <c r="B277" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D277" t="s">
+        <v>243</v>
+      </c>
+      <c r="E277" t="s">
         <v>405</v>
-      </c>
-      <c r="C277" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D277" t="s">
-        <v>245</v>
-      </c>
-      <c r="E277" t="s">
-        <v>407</v>
       </c>
       <c r="F277" s="26" t="s">
         <v>89</v>
@@ -11983,16 +11942,16 @@
         <v>133</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D278" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E278" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F278" s="26" t="s">
         <v>89</v>
@@ -12003,16 +11962,16 @@
         <v>133</v>
       </c>
       <c r="B279" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C279" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E279" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F279" s="26" t="s">
         <v>89</v>
@@ -12023,16 +11982,16 @@
         <v>133</v>
       </c>
       <c r="B280" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E280" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F280" s="26" t="s">
         <v>89</v>
@@ -12043,16 +12002,16 @@
         <v>133</v>
       </c>
       <c r="B281" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E281" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F281" s="26" t="s">
         <v>89</v>
@@ -12063,16 +12022,16 @@
         <v>140</v>
       </c>
       <c r="B282" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D282" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E282" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>25</v>
@@ -12083,16 +12042,16 @@
         <v>140</v>
       </c>
       <c r="B283" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D283" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E283" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>25</v>
@@ -12103,16 +12062,16 @@
         <v>140</v>
       </c>
       <c r="B284" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D284" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>25</v>
@@ -12123,16 +12082,16 @@
         <v>140</v>
       </c>
       <c r="B285" t="s">
+        <v>411</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D285" t="s">
+        <v>218</v>
+      </c>
+      <c r="E285" s="29" t="s">
         <v>413</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D285" t="s">
-        <v>220</v>
-      </c>
-      <c r="E285" s="29" t="s">
-        <v>415</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>25</v>
@@ -12143,16 +12102,16 @@
         <v>140</v>
       </c>
       <c r="B286" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D286" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E286" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>25</v>
@@ -12163,16 +12122,16 @@
         <v>140</v>
       </c>
       <c r="B287" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D287" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E287" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>89</v>
@@ -12183,16 +12142,16 @@
         <v>140</v>
       </c>
       <c r="B288" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D288" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E288" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>89</v>
@@ -12203,16 +12162,16 @@
         <v>140</v>
       </c>
       <c r="B289" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D289" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E289" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>89</v>
@@ -12223,16 +12182,16 @@
         <v>140</v>
       </c>
       <c r="B290" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D290" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E290" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>89</v>
@@ -12243,16 +12202,16 @@
         <v>140</v>
       </c>
       <c r="B291" t="s">
+        <v>416</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D291" t="s">
+        <v>417</v>
+      </c>
+      <c r="E291" s="29" t="s">
         <v>418</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D291" t="s">
-        <v>419</v>
-      </c>
-      <c r="E291" s="29" t="s">
-        <v>420</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>89</v>
@@ -12263,16 +12222,16 @@
         <v>140</v>
       </c>
       <c r="B292" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D292" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E292" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>89</v>
@@ -12289,10 +12248,10 @@
         <v>158</v>
       </c>
       <c r="D293" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E293" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>147</v>
@@ -12306,13 +12265,13 @@
         <v>145</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D294" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E294" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>147</v>
@@ -12326,13 +12285,13 @@
         <v>145</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D295" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E295" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>147</v>
@@ -12346,13 +12305,13 @@
         <v>145</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D296" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E296" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>147</v>
@@ -12366,13 +12325,13 @@
         <v>145</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D297" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E297" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>147</v>
@@ -12386,13 +12345,13 @@
         <v>145</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D298" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E298" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>147</v>
@@ -12406,13 +12365,13 @@
         <v>145</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D299" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E299" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>147</v>
@@ -12429,10 +12388,10 @@
         <v>1</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E300" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>25</v>
@@ -12449,10 +12408,10 @@
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E301" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>25</v>
@@ -12469,10 +12428,10 @@
         <v>3</v>
       </c>
       <c r="D302" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E302" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>25</v>
@@ -12489,10 +12448,10 @@
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E303" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>25</v>
@@ -12509,10 +12468,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E304" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>25</v>
@@ -12529,10 +12488,10 @@
         <v>158</v>
       </c>
       <c r="D305" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E305" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>89</v>
@@ -12546,13 +12505,13 @@
         <v>156</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D306" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E306" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>89</v>
@@ -12566,13 +12525,13 @@
         <v>156</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D307" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E307" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>89</v>
@@ -12586,13 +12545,13 @@
         <v>156</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D308" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E308" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>89</v>
@@ -12606,13 +12565,13 @@
         <v>156</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E309" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>89</v>
@@ -12626,13 +12585,13 @@
         <v>156</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D310" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E310" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>89</v>
@@ -12646,13 +12605,13 @@
         <v>156</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D311" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E311" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>89</v>
@@ -12669,10 +12628,10 @@
         <v>158</v>
       </c>
       <c r="D312" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E312" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>147</v>
@@ -12686,13 +12645,13 @@
         <v>157</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D313" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E313" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>147</v>
@@ -12706,13 +12665,13 @@
         <v>157</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D314" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E314" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>147</v>
@@ -12726,13 +12685,13 @@
         <v>157</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D315" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>147</v>
@@ -12749,10 +12708,10 @@
         <v>158</v>
       </c>
       <c r="D316" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E316" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>160</v>
@@ -12766,13 +12725,13 @@
         <v>159</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D317" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E317" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>160</v>
@@ -12786,13 +12745,13 @@
         <v>159</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D318" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E318" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>160</v>
@@ -12806,13 +12765,13 @@
         <v>159</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D319" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>160</v>
@@ -12826,13 +12785,13 @@
         <v>159</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D320" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E320" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>160</v>
@@ -12846,13 +12805,13 @@
         <v>159</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D321" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E321" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>160</v>
@@ -12863,16 +12822,16 @@
         <v>164</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C322" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D322" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E322" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F322" s="30" t="s">
         <v>25</v>
@@ -12883,16 +12842,16 @@
         <v>164</v>
       </c>
       <c r="B323" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C323" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D323" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E323" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D323" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="E323" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F323" s="30" t="s">
         <v>25</v>
@@ -12903,16 +12862,16 @@
         <v>164</v>
       </c>
       <c r="B324" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C324" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E324" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="D324" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E324" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="F324" s="30" t="s">
         <v>25</v>
@@ -12923,16 +12882,16 @@
         <v>164</v>
       </c>
       <c r="B325" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D325" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E325" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F325" s="30" t="s">
         <v>25</v>
@@ -12943,16 +12902,16 @@
         <v>166</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C326" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D326" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E326" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F326" s="30" t="s">
         <v>25</v>
@@ -12963,16 +12922,16 @@
         <v>166</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C327" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D327" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E327" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D327" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="E327" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F327" s="30" t="s">
         <v>25</v>
@@ -12983,16 +12942,16 @@
         <v>166</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C328" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D328" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E328" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="D328" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E328" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="F328" s="30" t="s">
         <v>25</v>
@@ -13003,16 +12962,16 @@
         <v>166</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D329" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E329" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F329" s="30" t="s">
         <v>25</v>
@@ -13023,16 +12982,16 @@
         <v>166</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D330" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E330" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F330" s="30" t="s">
         <v>25</v>
@@ -13043,16 +13002,16 @@
         <v>166</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D331" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E331" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F331" s="30" t="s">
         <v>25</v>
@@ -13063,16 +13022,16 @@
         <v>168</v>
       </c>
       <c r="B332" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C332" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D332" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E332" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F332" s="30" t="s">
         <v>25</v>
@@ -13083,16 +13042,16 @@
         <v>168</v>
       </c>
       <c r="B333" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C333" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D333" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E333" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D333" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="E333" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F333" s="30" t="s">
         <v>25</v>
@@ -13103,16 +13062,16 @@
         <v>168</v>
       </c>
       <c r="B334" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C334" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D334" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E334" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="D334" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E334" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="F334" s="30" t="s">
         <v>25</v>
@@ -13123,16 +13082,16 @@
         <v>168</v>
       </c>
       <c r="B335" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D335" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E335" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F335" s="30" t="s">
         <v>25</v>
@@ -13143,16 +13102,16 @@
         <v>168</v>
       </c>
       <c r="B336" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D336" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E336" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F336" s="30" t="s">
         <v>25</v>
@@ -13163,16 +13122,16 @@
         <v>168</v>
       </c>
       <c r="B337" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D337" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E337" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F337" s="30" t="s">
         <v>25</v>
@@ -13183,16 +13142,16 @@
         <v>170</v>
       </c>
       <c r="B338" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C338" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D338" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E338" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F338" s="30" t="s">
         <v>25</v>
@@ -13203,16 +13162,16 @@
         <v>170</v>
       </c>
       <c r="B339" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C339" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D339" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E339" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D339" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="E339" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F339" s="30" t="s">
         <v>25</v>
@@ -13223,16 +13182,16 @@
         <v>170</v>
       </c>
       <c r="B340" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C340" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D340" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E340" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="D340" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E340" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="F340" s="30" t="s">
         <v>25</v>
@@ -13243,16 +13202,16 @@
         <v>170</v>
       </c>
       <c r="B341" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D341" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E341" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F341" s="30" t="s">
         <v>25</v>
@@ -13263,16 +13222,16 @@
         <v>172</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>25</v>
@@ -13283,16 +13242,16 @@
         <v>172</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C343" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E343" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="D343" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E343" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="F343" s="4" t="s">
         <v>25</v>
@@ -13303,16 +13262,16 @@
         <v>172</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C344" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E344" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D344" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E344" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>25</v>
@@ -13323,16 +13282,16 @@
         <v>172</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C345" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E345" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="D345" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E345" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="F345" s="4" t="s">
         <v>25</v>
@@ -13343,16 +13302,16 @@
         <v>174</v>
       </c>
       <c r="B346" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D346" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E346" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>25</v>
@@ -13363,16 +13322,16 @@
         <v>174</v>
       </c>
       <c r="B347" t="s">
+        <v>432</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D347" t="s">
+        <v>433</v>
+      </c>
+      <c r="E347" s="29" t="s">
         <v>434</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D347" t="s">
-        <v>435</v>
-      </c>
-      <c r="E347" s="29" t="s">
-        <v>436</v>
       </c>
       <c r="F347" s="4" t="s">
         <v>25</v>
@@ -13383,16 +13342,16 @@
         <v>174</v>
       </c>
       <c r="B348" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D348" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E348" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>25</v>
@@ -13403,16 +13362,16 @@
         <v>174</v>
       </c>
       <c r="B349" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D349" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E349" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>25</v>
@@ -13423,16 +13382,16 @@
         <v>174</v>
       </c>
       <c r="B350" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E350" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F350" s="4" t="s">
         <v>25</v>
@@ -13443,16 +13402,16 @@
         <v>174</v>
       </c>
       <c r="B351" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D351" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E351" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F351" s="4" t="s">
         <v>25</v>
@@ -13463,16 +13422,16 @@
         <v>174</v>
       </c>
       <c r="B352" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E352" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F352" s="4" t="s">
         <v>25</v>
@@ -13483,16 +13442,16 @@
         <v>174</v>
       </c>
       <c r="B353" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E353" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F353" s="4" t="s">
         <v>25</v>
@@ -13503,16 +13462,16 @@
         <v>176</v>
       </c>
       <c r="B354" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D354" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E354" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F354" s="4" t="s">
         <v>25</v>
@@ -13523,16 +13482,16 @@
         <v>176</v>
       </c>
       <c r="B355" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D355" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E355" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>25</v>
@@ -13543,16 +13502,16 @@
         <v>176</v>
       </c>
       <c r="B356" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D356" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E356" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F356" s="4" t="s">
         <v>25</v>
@@ -13563,16 +13522,16 @@
         <v>176</v>
       </c>
       <c r="B357" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D357" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E357" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F357" s="4" t="s">
         <v>25</v>
@@ -13583,16 +13542,16 @@
         <v>176</v>
       </c>
       <c r="B358" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D358" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E358" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F358" s="4" t="s">
         <v>25</v>
@@ -13603,16 +13562,16 @@
         <v>176</v>
       </c>
       <c r="B359" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D359" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E359" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F359" s="4" t="s">
         <v>25</v>
@@ -13623,16 +13582,16 @@
         <v>176</v>
       </c>
       <c r="B360" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E360" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F360" s="4" t="s">
         <v>25</v>
@@ -13643,16 +13602,16 @@
         <v>176</v>
       </c>
       <c r="B361" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E361" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F361" s="4" t="s">
         <v>25</v>
@@ -13663,16 +13622,16 @@
         <v>178</v>
       </c>
       <c r="B362" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D362" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E362" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F362" s="4" t="s">
         <v>25</v>
@@ -13683,16 +13642,16 @@
         <v>178</v>
       </c>
       <c r="B363" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D363" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E363" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F363" s="4" t="s">
         <v>25</v>
@@ -13703,16 +13662,16 @@
         <v>178</v>
       </c>
       <c r="B364" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D364" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E364" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F364" s="4" t="s">
         <v>25</v>
@@ -13723,16 +13682,16 @@
         <v>178</v>
       </c>
       <c r="B365" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D365" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E365" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F365" s="4" t="s">
         <v>25</v>
@@ -13743,16 +13702,16 @@
         <v>178</v>
       </c>
       <c r="B366" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E366" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F366" s="4" t="s">
         <v>25</v>
@@ -13763,16 +13722,16 @@
         <v>178</v>
       </c>
       <c r="B367" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D367" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E367" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F367" s="4" t="s">
         <v>25</v>
@@ -13783,16 +13742,16 @@
         <v>178</v>
       </c>
       <c r="B368" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E368" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F368" s="4" t="s">
         <v>25</v>
@@ -13803,16 +13762,16 @@
         <v>178</v>
       </c>
       <c r="B369" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E369" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>25</v>
@@ -13823,16 +13782,16 @@
         <v>178</v>
       </c>
       <c r="B370" t="s">
+        <v>444</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D370" t="s">
+        <v>445</v>
+      </c>
+      <c r="E370" t="s">
         <v>446</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D370" t="s">
-        <v>447</v>
-      </c>
-      <c r="E370" t="s">
-        <v>448</v>
       </c>
       <c r="F370" s="4" t="s">
         <v>25</v>
@@ -13843,16 +13802,16 @@
         <v>180</v>
       </c>
       <c r="B371" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D371" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E371" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F371" s="4" t="s">
         <v>25</v>
@@ -13863,16 +13822,16 @@
         <v>180</v>
       </c>
       <c r="B372" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D372" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E372" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F372" s="4" t="s">
         <v>25</v>
@@ -13883,16 +13842,16 @@
         <v>180</v>
       </c>
       <c r="B373" t="s">
+        <v>447</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D373" t="s">
+        <v>435</v>
+      </c>
+      <c r="E373" s="29" t="s">
         <v>449</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D373" t="s">
-        <v>437</v>
-      </c>
-      <c r="E373" s="29" t="s">
-        <v>451</v>
       </c>
       <c r="F373" s="4" t="s">
         <v>25</v>
@@ -13903,16 +13862,16 @@
         <v>180</v>
       </c>
       <c r="B374" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D374" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E374" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F374" s="4" t="s">
         <v>25</v>
@@ -13923,16 +13882,16 @@
         <v>180</v>
       </c>
       <c r="B375" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E375" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F375" s="4" t="s">
         <v>25</v>
@@ -13943,16 +13902,16 @@
         <v>180</v>
       </c>
       <c r="B376" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D376" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E376" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F376" s="4" t="s">
         <v>25</v>
@@ -13963,16 +13922,16 @@
         <v>180</v>
       </c>
       <c r="B377" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E377" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F377" s="4" t="s">
         <v>25</v>
@@ -13983,16 +13942,16 @@
         <v>180</v>
       </c>
       <c r="B378" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E378" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F378" s="4" t="s">
         <v>25</v>
@@ -14003,16 +13962,16 @@
         <v>182</v>
       </c>
       <c r="B379" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D379" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E379" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F379" s="4" t="s">
         <v>25</v>
@@ -14023,16 +13982,16 @@
         <v>182</v>
       </c>
       <c r="B380" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D380" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E380" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F380" s="4" t="s">
         <v>25</v>
@@ -14043,16 +14002,16 @@
         <v>182</v>
       </c>
       <c r="B381" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D381" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E381" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F381" s="4" t="s">
         <v>25</v>
@@ -14063,16 +14022,16 @@
         <v>182</v>
       </c>
       <c r="B382" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D382" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E382" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F382" s="4" t="s">
         <v>25</v>
@@ -14083,16 +14042,16 @@
         <v>182</v>
       </c>
       <c r="B383" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E383" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F383" s="4" t="s">
         <v>25</v>
@@ -14103,16 +14062,16 @@
         <v>182</v>
       </c>
       <c r="B384" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D384" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E384" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F384" s="4" t="s">
         <v>25</v>
@@ -14123,16 +14082,16 @@
         <v>182</v>
       </c>
       <c r="B385" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E385" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>25</v>
@@ -14143,16 +14102,16 @@
         <v>182</v>
       </c>
       <c r="B386" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E386" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F386" s="4" t="s">
         <v>25</v>
@@ -14163,16 +14122,16 @@
         <v>184</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C387" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E387" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F387" s="33" t="s">
         <v>25</v>
@@ -14183,16 +14142,16 @@
         <v>184</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C388" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E388" s="32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F388" s="33" t="s">
         <v>25</v>
@@ -14203,16 +14162,16 @@
         <v>184</v>
       </c>
       <c r="B389" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C389" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E389" s="32" t="s">
         <v>458</v>
-      </c>
-      <c r="C389" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E389" s="32" t="s">
-        <v>460</v>
       </c>
       <c r="F389" s="33" t="s">
         <v>25</v>
@@ -14223,16 +14182,16 @@
         <v>184</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F390" s="33" t="s">
         <v>25</v>
@@ -14243,16 +14202,16 @@
         <v>184</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C391" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F391" s="33" t="s">
         <v>25</v>
@@ -14263,16 +14222,16 @@
         <v>192</v>
       </c>
       <c r="B392" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D392" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E392" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F392" s="33" t="s">
         <v>25</v>
@@ -14283,16 +14242,16 @@
         <v>192</v>
       </c>
       <c r="B393" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C393" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D393" t="s">
+        <v>236</v>
+      </c>
+      <c r="E393" t="s">
         <v>216</v>
-      </c>
-      <c r="D393" t="s">
-        <v>238</v>
-      </c>
-      <c r="E393" t="s">
-        <v>218</v>
       </c>
       <c r="F393" s="33" t="s">
         <v>25</v>
@@ -14303,16 +14262,16 @@
         <v>192</v>
       </c>
       <c r="B394" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D394" t="s">
         <v>116</v>
       </c>
       <c r="E394" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F394" s="33" t="s">
         <v>25</v>
@@ -14323,16 +14282,16 @@
         <v>192</v>
       </c>
       <c r="B395" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D395" t="s">
         <v>149</v>
       </c>
       <c r="E395" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F395" s="33" t="s">
         <v>25</v>
@@ -14343,16 +14302,16 @@
         <v>192</v>
       </c>
       <c r="B396" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D396" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E396" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F396" s="33" t="s">
         <v>25</v>
@@ -14363,16 +14322,16 @@
         <v>192</v>
       </c>
       <c r="B397" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D397" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E397" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F397" s="33" t="s">
         <v>25</v>
@@ -14383,16 +14342,16 @@
         <v>192</v>
       </c>
       <c r="B398" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D398" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E398" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F398" s="33" t="s">
         <v>25</v>
@@ -14403,16 +14362,16 @@
         <v>192</v>
       </c>
       <c r="B399" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D399" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E399" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F399" s="33" t="s">
         <v>25</v>
@@ -14423,16 +14382,16 @@
         <v>192</v>
       </c>
       <c r="B400" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D400" t="s">
         <v>84</v>
       </c>
       <c r="E400" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F400" s="33" t="s">
         <v>25</v>
@@ -14443,16 +14402,16 @@
         <v>192</v>
       </c>
       <c r="B401" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D401" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E401" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F401" s="33" t="s">
         <v>25</v>
@@ -14463,16 +14422,16 @@
         <v>192</v>
       </c>
       <c r="B402" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D402" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E402" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F402" s="33" t="s">
         <v>25</v>
@@ -14483,16 +14442,16 @@
         <v>194</v>
       </c>
       <c r="B403" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D403" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E403" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F403" s="26" t="s">
         <v>25</v>
@@ -14503,19 +14462,19 @@
         <v>194</v>
       </c>
       <c r="B404" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C404" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D404" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E404" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D404" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E404" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F404" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -14523,19 +14482,19 @@
         <v>194</v>
       </c>
       <c r="B405" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E405" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -14543,19 +14502,19 @@
         <v>194</v>
       </c>
       <c r="B406" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C406" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D406" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E406" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D406" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E406" s="25" t="s">
-        <v>224</v>
-      </c>
       <c r="F406" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -14563,16 +14522,16 @@
         <v>196</v>
       </c>
       <c r="B407" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>25</v>
@@ -14583,19 +14542,19 @@
         <v>198</v>
       </c>
       <c r="B408" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D408" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F408" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -14603,19 +14562,19 @@
         <v>200</v>
       </c>
       <c r="B409" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F409" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -14623,19 +14582,19 @@
         <v>200</v>
       </c>
       <c r="B410" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D410" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F410" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -14643,19 +14602,19 @@
         <v>200</v>
       </c>
       <c r="B411" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F411" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -14663,19 +14622,19 @@
         <v>200</v>
       </c>
       <c r="B412" t="s">
+        <v>485</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D412" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E412" t="s">
         <v>487</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D412" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E412" t="s">
-        <v>489</v>
-      </c>
       <c r="F412" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -14683,16 +14642,16 @@
         <v>202</v>
       </c>
       <c r="B413" s="36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C413" s="35" t="s">
         <v>158</v>
       </c>
       <c r="D413" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E413" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F413" s="35" t="s">
         <v>25</v>
@@ -14703,16 +14662,16 @@
         <v>204</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C414" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F414" s="33" t="s">
         <v>25</v>
@@ -14723,19 +14682,19 @@
         <v>206</v>
       </c>
       <c r="B415" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E415" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F415" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -14743,19 +14702,19 @@
         <v>206</v>
       </c>
       <c r="B416" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E416" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F416" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -14763,19 +14722,19 @@
         <v>206</v>
       </c>
       <c r="B417" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E417" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F417" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -14783,27 +14742,24 @@
         <v>206</v>
       </c>
       <c r="B418" t="s">
+        <v>491</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D418" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E418" t="s">
         <v>493</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D418" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E418" t="s">
-        <v>495</v>
-      </c>
       <c r="F418" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419"/>
-      <c r="B419"/>
       <c r="C419"/>
-      <c r="D419"/>
-      <c r="E419"/>
       <c r="F419"/>
     </row>
   </sheetData>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="499">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>00101002</t>
+  </si>
+  <si>
+    <t>DS00070</t>
+  </si>
+  <si>
+    <t>00103002</t>
   </si>
   <si>
     <t>交易名称</t>
@@ -1756,6 +1762,15 @@
   </si>
   <si>
     <t>TOTAL_BAL</t>
+  </si>
+  <si>
+    <t>账户管理签约</t>
+  </si>
+  <si>
+    <t>协定账户账号</t>
+  </si>
+  <si>
+    <t>agremtAcctAcctNoQy</t>
   </si>
 </sst>
 </file>
@@ -1846,51 +1861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,17 +1875,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,18 +1911,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1958,17 +1941,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1983,7 +1958,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2039,36 +2054,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2087,7 +2072,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,67 +2162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,19 +2192,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,19 +2228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2250,54 +2265,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2342,6 +2309,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2356,10 +2371,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2368,133 +2383,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2919,12 +2934,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="$A87:$XFD87"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6372,6 +6387,41 @@
         <v>24</v>
       </c>
       <c r="R86" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="37">
+        <v>79</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="37">
+        <v>1</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q87" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R87" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6395,10 +6445,10 @@
   <sheetPr/>
   <dimension ref="A1:F419"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B421" sqref="B421"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6416,16 +6466,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>17</v>
@@ -6436,16 +6486,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>25</v>
@@ -6456,16 +6506,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
@@ -6476,16 +6526,16 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
@@ -6496,16 +6546,16 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
@@ -6516,16 +6566,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
@@ -6536,16 +6586,16 @@
         <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -6556,16 +6606,16 @@
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -6576,16 +6626,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -6596,16 +6646,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -6616,16 +6666,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -6636,16 +6686,16 @@
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -6656,16 +6706,16 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -6676,16 +6726,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -6696,16 +6746,16 @@
         <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -6716,16 +6766,16 @@
         <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -6736,16 +6786,16 @@
         <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -6756,16 +6806,16 @@
         <v>162</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -6776,16 +6826,16 @@
         <v>162</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
@@ -6796,16 +6846,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -6816,16 +6866,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -6836,16 +6886,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
@@ -6856,16 +6906,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>25</v>
@@ -6876,16 +6926,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>25</v>
@@ -6896,16 +6946,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>25</v>
@@ -6916,16 +6966,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
@@ -6936,16 +6986,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>25</v>
@@ -6956,16 +7006,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
@@ -6976,16 +7026,16 @@
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>25</v>
@@ -6996,16 +7046,16 @@
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
@@ -7016,16 +7066,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>25</v>
@@ -7036,16 +7086,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>25</v>
@@ -7056,16 +7106,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -7076,16 +7126,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>25</v>
@@ -7096,16 +7146,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>116</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>25</v>
@@ -7116,16 +7166,16 @@
         <v>27</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>25</v>
@@ -7136,16 +7186,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>25</v>
@@ -7156,16 +7206,16 @@
         <v>27</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
@@ -7176,16 +7226,16 @@
         <v>23</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>25</v>
@@ -7196,16 +7246,16 @@
         <v>23</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
@@ -7216,16 +7266,16 @@
         <v>23</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
@@ -7236,16 +7286,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>25</v>
@@ -7256,16 +7306,16 @@
         <v>23</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>25</v>
@@ -7273,19 +7323,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>25</v>
@@ -7296,16 +7346,16 @@
         <v>39</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>25</v>
@@ -7316,16 +7366,16 @@
         <v>39</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>25</v>
@@ -7336,16 +7386,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
@@ -7356,16 +7406,16 @@
         <v>39</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>25</v>
@@ -7376,16 +7426,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>25</v>
@@ -7396,16 +7446,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>25</v>
@@ -7416,16 +7466,16 @@
         <v>41</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>262</v>
-      </c>
       <c r="E51" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>25</v>
@@ -7436,16 +7486,16 @@
         <v>41</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>25</v>
@@ -7460,10 +7510,10 @@
         <v>158</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>25</v>
@@ -7475,13 +7525,13 @@
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>25</v>
@@ -7493,13 +7543,13 @@
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>25</v>
@@ -7511,13 +7561,13 @@
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>25</v>
@@ -7528,16 +7578,16 @@
         <v>45</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>25</v>
@@ -7548,16 +7598,16 @@
         <v>45</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>25</v>
@@ -7568,16 +7618,16 @@
         <v>45</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>25</v>
@@ -7588,16 +7638,16 @@
         <v>47</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>25</v>
@@ -7608,16 +7658,16 @@
         <v>47</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>25</v>
@@ -7625,16 +7675,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="4" t="s">
@@ -7646,16 +7696,16 @@
         <v>47</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>25</v>
@@ -7666,16 +7716,16 @@
         <v>47</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>25</v>
@@ -7686,16 +7736,16 @@
         <v>47</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>25</v>
@@ -7706,16 +7756,16 @@
         <v>49</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>25</v>
@@ -7726,16 +7776,16 @@
         <v>49</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>25</v>
@@ -7746,16 +7796,16 @@
         <v>49</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>25</v>
@@ -7766,16 +7816,16 @@
         <v>49</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>25</v>
@@ -7786,16 +7836,16 @@
         <v>49</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>25</v>
@@ -7806,16 +7856,16 @@
         <v>49</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>25</v>
@@ -7826,16 +7876,16 @@
         <v>51</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>25</v>
@@ -7846,16 +7896,16 @@
         <v>51</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>25</v>
@@ -7866,16 +7916,16 @@
         <v>51</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>25</v>
@@ -7886,16 +7936,16 @@
         <v>51</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>25</v>
@@ -7906,16 +7956,16 @@
         <v>53</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>25</v>
@@ -7926,13 +7976,13 @@
         <v>53</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="4" t="s">
@@ -7944,16 +7994,16 @@
         <v>53</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>25</v>
@@ -7964,16 +8014,16 @@
         <v>53</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>25</v>
@@ -7984,16 +8034,16 @@
         <v>55</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>25</v>
@@ -8004,13 +8054,13 @@
         <v>55</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="4" t="s">
@@ -8022,16 +8072,16 @@
         <v>55</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>25</v>
@@ -8042,16 +8092,16 @@
         <v>55</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>25</v>
@@ -8059,19 +8109,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>25</v>
@@ -8079,19 +8129,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>25</v>
@@ -8099,19 +8149,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>25</v>
@@ -8119,19 +8169,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>25</v>
@@ -8139,19 +8189,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>25</v>
@@ -8159,19 +8209,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>25</v>
@@ -8179,19 +8229,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>25</v>
@@ -8199,19 +8249,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>25</v>
@@ -8219,19 +8269,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>25</v>
@@ -8239,19 +8289,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>25</v>
@@ -8259,19 +8309,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="C94" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>25</v>
@@ -8279,19 +8329,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="C95" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>25</v>
@@ -8299,19 +8349,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>25</v>
@@ -8319,19 +8369,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>25</v>
@@ -8339,19 +8389,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>25</v>
@@ -8359,19 +8409,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>25</v>
@@ -8379,19 +8429,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>25</v>
@@ -8402,16 +8452,16 @@
         <v>65</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>25</v>
@@ -8419,19 +8469,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>25</v>
@@ -8442,16 +8492,16 @@
         <v>65</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>25</v>
@@ -8462,16 +8512,16 @@
         <v>67</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>25</v>
@@ -8482,16 +8532,16 @@
         <v>67</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>25</v>
@@ -8502,16 +8552,16 @@
         <v>67</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>25</v>
@@ -8522,16 +8572,16 @@
         <v>67</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>25</v>
@@ -8542,16 +8592,16 @@
         <v>67</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>25</v>
@@ -8562,16 +8612,16 @@
         <v>69</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>25</v>
@@ -8582,16 +8632,16 @@
         <v>69</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>25</v>
@@ -8602,16 +8652,16 @@
         <v>69</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>25</v>
@@ -8622,16 +8672,16 @@
         <v>69</v>
       </c>
       <c r="B112" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>324</v>
-      </c>
       <c r="E112" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>25</v>
@@ -8642,16 +8692,16 @@
         <v>69</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>25</v>
@@ -8662,16 +8712,16 @@
         <v>71</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>25</v>
@@ -8682,16 +8732,16 @@
         <v>71</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E115" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>25</v>
@@ -8702,16 +8752,16 @@
         <v>71</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>25</v>
@@ -8722,16 +8772,16 @@
         <v>71</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E117" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>25</v>
@@ -8742,16 +8792,16 @@
         <v>73</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>25</v>
@@ -8762,16 +8812,16 @@
         <v>73</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E119" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>25</v>
@@ -8782,16 +8832,16 @@
         <v>73</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>25</v>
@@ -8802,16 +8852,16 @@
         <v>73</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E121" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>25</v>
@@ -8822,16 +8872,16 @@
         <v>75</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>25</v>
@@ -8842,16 +8892,16 @@
         <v>75</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>25</v>
@@ -8862,16 +8912,16 @@
         <v>75</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>25</v>
@@ -8882,16 +8932,16 @@
         <v>75</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>25</v>
@@ -8902,16 +8952,16 @@
         <v>75</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>25</v>
@@ -8922,16 +8972,16 @@
         <v>75</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>25</v>
@@ -8942,16 +8992,16 @@
         <v>75</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>25</v>
@@ -8962,16 +9012,16 @@
         <v>75</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>25</v>
@@ -8982,16 +9032,16 @@
         <v>77</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>25</v>
@@ -9002,16 +9052,16 @@
         <v>77</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>25</v>
@@ -9022,16 +9072,16 @@
         <v>77</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>25</v>
@@ -9042,16 +9092,16 @@
         <v>77</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>25</v>
@@ -9062,16 +9112,16 @@
         <v>77</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>25</v>
@@ -9082,16 +9132,16 @@
         <v>79</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>25</v>
@@ -9102,16 +9152,16 @@
         <v>79</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C136" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D136" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E136" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>25</v>
@@ -9122,16 +9172,16 @@
         <v>79</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>25</v>
@@ -9142,16 +9192,16 @@
         <v>79</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>25</v>
@@ -9162,16 +9212,16 @@
         <v>79</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>25</v>
@@ -9182,16 +9232,16 @@
         <v>81</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F140" s="22" t="s">
         <v>25</v>
@@ -9202,16 +9252,16 @@
         <v>81</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C141" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D141" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E141" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F141" s="22" t="s">
         <v>25</v>
@@ -9222,16 +9272,16 @@
         <v>81</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F142" s="22" t="s">
         <v>25</v>
@@ -9242,16 +9292,16 @@
         <v>81</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E143" s="17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>25</v>
@@ -9262,16 +9312,16 @@
         <v>81</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F144" s="22" t="s">
         <v>25</v>
@@ -9282,16 +9332,16 @@
         <v>81</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>89</v>
@@ -9302,16 +9352,16 @@
         <v>81</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>89</v>
@@ -9322,16 +9372,16 @@
         <v>81</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F147" s="22" t="s">
         <v>89</v>
@@ -9342,16 +9392,16 @@
         <v>81</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C148" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D148" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E148" s="17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F148" s="22" t="s">
         <v>89</v>
@@ -9362,16 +9412,16 @@
         <v>81</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F149" s="22" t="s">
         <v>89</v>
@@ -9382,16 +9432,16 @@
         <v>81</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F150" s="22" t="s">
         <v>89</v>
@@ -9402,16 +9452,16 @@
         <v>81</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F151" s="22" t="s">
         <v>89</v>
@@ -9422,16 +9472,16 @@
         <v>91</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>25</v>
@@ -9442,16 +9492,16 @@
         <v>91</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>25</v>
@@ -9462,16 +9512,16 @@
         <v>91</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>25</v>
@@ -9482,16 +9532,16 @@
         <v>91</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>25</v>
@@ -9502,16 +9552,16 @@
         <v>91</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>25</v>
@@ -9522,16 +9572,16 @@
         <v>91</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>25</v>
@@ -9542,16 +9592,16 @@
         <v>99</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>25</v>
@@ -9562,16 +9612,16 @@
         <v>99</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C159" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E159" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>25</v>
@@ -9582,16 +9632,16 @@
         <v>99</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>25</v>
@@ -9602,16 +9652,16 @@
         <v>99</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C161" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E161" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>25</v>
@@ -9622,16 +9672,16 @@
         <v>101</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>25</v>
@@ -9642,16 +9692,16 @@
         <v>101</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C163" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E163" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>25</v>
@@ -9662,16 +9712,16 @@
         <v>101</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>25</v>
@@ -9682,16 +9732,16 @@
         <v>101</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>25</v>
@@ -9702,16 +9752,16 @@
         <v>101</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>25</v>
@@ -9722,16 +9772,16 @@
         <v>103</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>25</v>
@@ -9742,16 +9792,16 @@
         <v>103</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>25</v>
@@ -9762,16 +9812,16 @@
         <v>103</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>25</v>
@@ -9782,16 +9832,16 @@
         <v>103</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>25</v>
@@ -9802,16 +9852,16 @@
         <v>103</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>25</v>
@@ -9822,16 +9872,16 @@
         <v>103</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>25</v>
@@ -9842,16 +9892,16 @@
         <v>103</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>25</v>
@@ -9862,16 +9912,16 @@
         <v>103</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>25</v>
@@ -9882,16 +9932,16 @@
         <v>105</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>25</v>
@@ -9902,16 +9952,16 @@
         <v>105</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C176" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D176" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D176" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E176" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>25</v>
@@ -9922,16 +9972,16 @@
         <v>105</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>25</v>
@@ -9942,16 +9992,16 @@
         <v>105</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>25</v>
@@ -9962,16 +10012,16 @@
         <v>105</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>25</v>
@@ -9982,16 +10032,16 @@
         <v>107</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>25</v>
@@ -10002,16 +10052,16 @@
         <v>107</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>25</v>
@@ -10022,16 +10072,16 @@
         <v>107</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>25</v>
@@ -10042,16 +10092,16 @@
         <v>107</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>25</v>
@@ -10062,16 +10112,16 @@
         <v>107</v>
       </c>
       <c r="B184" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D184" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>367</v>
-      </c>
       <c r="E184" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>25</v>
@@ -10082,16 +10132,16 @@
         <v>107</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>25</v>
@@ -10102,16 +10152,16 @@
         <v>109</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>25</v>
@@ -10122,16 +10172,16 @@
         <v>109</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>25</v>
@@ -10142,16 +10192,16 @@
         <v>109</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>25</v>
@@ -10162,16 +10212,16 @@
         <v>109</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D189" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D189" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E189" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>25</v>
@@ -10182,16 +10232,16 @@
         <v>109</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>25</v>
@@ -10202,16 +10252,16 @@
         <v>109</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>25</v>
@@ -10222,16 +10272,16 @@
         <v>113</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>25</v>
@@ -10242,16 +10292,16 @@
         <v>113</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C193" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D193" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E193" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>25</v>
@@ -10262,16 +10312,16 @@
         <v>113</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>25</v>
@@ -10282,16 +10332,16 @@
         <v>113</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>25</v>
@@ -10302,16 +10352,16 @@
         <v>113</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>25</v>
@@ -10322,16 +10372,16 @@
         <v>113</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>25</v>
@@ -10342,16 +10392,16 @@
         <v>113</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C198" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E198" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>25</v>
@@ -10362,16 +10412,16 @@
         <v>113</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>25</v>
@@ -10382,16 +10432,16 @@
         <v>113</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>25</v>
@@ -10402,16 +10452,16 @@
         <v>113</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>25</v>
@@ -10422,16 +10472,16 @@
         <v>113</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>25</v>
@@ -10442,16 +10492,16 @@
         <v>121</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>25</v>
@@ -10462,16 +10512,16 @@
         <v>121</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C204" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E204" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>25</v>
@@ -10482,16 +10532,16 @@
         <v>121</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>25</v>
@@ -10502,16 +10552,16 @@
         <v>121</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C206" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="E206" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>25</v>
@@ -10522,16 +10572,16 @@
         <v>123</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>25</v>
@@ -10542,16 +10592,16 @@
         <v>123</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>25</v>
@@ -10562,16 +10612,16 @@
         <v>123</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>25</v>
@@ -10582,16 +10632,16 @@
         <v>123</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>25</v>
@@ -10602,16 +10652,16 @@
         <v>123</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>25</v>
@@ -10622,16 +10672,16 @@
         <v>123</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>25</v>
@@ -10642,16 +10692,16 @@
         <v>123</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>25</v>
@@ -10662,16 +10712,16 @@
         <v>123</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>25</v>
@@ -10682,16 +10732,16 @@
         <v>125</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>25</v>
@@ -10702,16 +10752,16 @@
         <v>125</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C216" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E216" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>25</v>
@@ -10722,16 +10772,16 @@
         <v>125</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>25</v>
@@ -10742,16 +10792,16 @@
         <v>125</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>25</v>
@@ -10762,16 +10812,16 @@
         <v>125</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>25</v>
@@ -10782,16 +10832,16 @@
         <v>127</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>25</v>
@@ -10802,16 +10852,16 @@
         <v>127</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>25</v>
@@ -10822,16 +10872,16 @@
         <v>127</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>25</v>
@@ -10842,16 +10892,16 @@
         <v>127</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C223" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D223" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D223" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="E223" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>25</v>
@@ -10862,16 +10912,16 @@
         <v>127</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>25</v>
@@ -10882,16 +10932,16 @@
         <v>127</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>25</v>
@@ -10902,16 +10952,16 @@
         <v>129</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>25</v>
@@ -10922,16 +10972,16 @@
         <v>129</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C227" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E227" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>25</v>
@@ -10942,16 +10992,16 @@
         <v>129</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>25</v>
@@ -10962,16 +11012,16 @@
         <v>129</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C229" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="E229" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>25</v>
@@ -10982,16 +11032,16 @@
         <v>111</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C230" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>25</v>
@@ -11002,16 +11052,16 @@
         <v>111</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>25</v>
@@ -11022,16 +11072,16 @@
         <v>111</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>25</v>
@@ -11042,16 +11092,16 @@
         <v>111</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>25</v>
@@ -11062,16 +11112,16 @@
         <v>111</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>25</v>
@@ -11082,16 +11132,16 @@
         <v>130</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E235" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>25</v>
@@ -11102,16 +11152,16 @@
         <v>130</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D236" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E236" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>25</v>
@@ -11122,16 +11172,16 @@
         <v>130</v>
       </c>
       <c r="B237" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D237" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E237" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>25</v>
@@ -11142,16 +11192,16 @@
         <v>130</v>
       </c>
       <c r="B238" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D238" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E238" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>25</v>
@@ -11162,16 +11212,16 @@
         <v>130</v>
       </c>
       <c r="B239" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D239" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E239" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>25</v>
@@ -11182,16 +11232,16 @@
         <v>130</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D240" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E240" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>25</v>
@@ -11202,16 +11252,16 @@
         <v>130</v>
       </c>
       <c r="B241" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D241" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>25</v>
@@ -11222,16 +11272,16 @@
         <v>130</v>
       </c>
       <c r="B242" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D242" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E242" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>25</v>
@@ -11242,16 +11292,16 @@
         <v>130</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D243" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E243" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>25</v>
@@ -11262,16 +11312,16 @@
         <v>130</v>
       </c>
       <c r="B244" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D244" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E244" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>25</v>
@@ -11282,16 +11332,16 @@
         <v>130</v>
       </c>
       <c r="B245" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D245" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E245" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>25</v>
@@ -11302,16 +11352,16 @@
         <v>130</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D246" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E246" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>25</v>
@@ -11322,16 +11372,16 @@
         <v>130</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D247" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>25</v>
@@ -11342,16 +11392,16 @@
         <v>131</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D248" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E248" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>25</v>
@@ -11362,16 +11412,16 @@
         <v>131</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D249" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E249" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>25</v>
@@ -11382,16 +11432,16 @@
         <v>131</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D250" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E250" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>25</v>
@@ -11402,16 +11452,16 @@
         <v>131</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D251" t="s">
         <v>116</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>25</v>
@@ -11422,16 +11472,16 @@
         <v>131</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D252" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E252" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>25</v>
@@ -11442,16 +11492,16 @@
         <v>131</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D253" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E253" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>25</v>
@@ -11462,16 +11512,16 @@
         <v>131</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D254" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E254" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>25</v>
@@ -11482,16 +11532,16 @@
         <v>131</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D255" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E255" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>25</v>
@@ -11499,59 +11549,59 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D256" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E256" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B257" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C257" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D257" t="s">
         <v>214</v>
       </c>
-      <c r="D257" t="s">
-        <v>212</v>
-      </c>
       <c r="E257" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F257" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>25</v>
@@ -11559,19 +11609,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C259" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D259" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D259" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="E259" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>25</v>
@@ -11579,19 +11629,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E260" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>25</v>
@@ -11599,142 +11649,142 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E261" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F261" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B262" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E262" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F262" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:6">
       <c r="A264" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B264" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C264" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D264" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D264" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="E264" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F264" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B265" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E265" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F265" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B266" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E266" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B267" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E267" s="25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F267" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -11742,16 +11792,16 @@
         <v>133</v>
       </c>
       <c r="B268" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D268" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E268" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F268" s="26" t="s">
         <v>25</v>
@@ -11762,16 +11812,16 @@
         <v>133</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E269" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F269" s="26" t="s">
         <v>25</v>
@@ -11782,16 +11832,16 @@
         <v>133</v>
       </c>
       <c r="B270" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D270" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E270" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F270" s="26" t="s">
         <v>25</v>
@@ -11802,16 +11852,16 @@
         <v>133</v>
       </c>
       <c r="B271" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D271" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E271" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F271" s="26" t="s">
         <v>25</v>
@@ -11822,16 +11872,16 @@
         <v>133</v>
       </c>
       <c r="B272" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E272" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F272" s="26" t="s">
         <v>25</v>
@@ -11842,16 +11892,16 @@
         <v>133</v>
       </c>
       <c r="B273" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C273" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E273" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F273" s="26" t="s">
         <v>25</v>
@@ -11862,16 +11912,16 @@
         <v>133</v>
       </c>
       <c r="B274" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E274" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F274" s="26" t="s">
         <v>25</v>
@@ -11882,16 +11932,16 @@
         <v>133</v>
       </c>
       <c r="B275" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D275" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E275" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F275" s="26" t="s">
         <v>89</v>
@@ -11902,16 +11952,16 @@
         <v>133</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E276" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F276" s="26" t="s">
         <v>89</v>
@@ -11922,16 +11972,16 @@
         <v>133</v>
       </c>
       <c r="B277" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D277" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E277" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F277" s="26" t="s">
         <v>89</v>
@@ -11942,16 +11992,16 @@
         <v>133</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D278" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E278" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F278" s="26" t="s">
         <v>89</v>
@@ -11962,16 +12012,16 @@
         <v>133</v>
       </c>
       <c r="B279" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C279" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E279" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F279" s="26" t="s">
         <v>89</v>
@@ -11982,16 +12032,16 @@
         <v>133</v>
       </c>
       <c r="B280" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E280" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F280" s="26" t="s">
         <v>89</v>
@@ -12002,16 +12052,16 @@
         <v>133</v>
       </c>
       <c r="B281" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E281" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F281" s="26" t="s">
         <v>89</v>
@@ -12022,16 +12072,16 @@
         <v>140</v>
       </c>
       <c r="B282" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D282" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E282" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>25</v>
@@ -12042,16 +12092,16 @@
         <v>140</v>
       </c>
       <c r="B283" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C283" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D283" t="s">
         <v>214</v>
       </c>
-      <c r="D283" t="s">
-        <v>212</v>
-      </c>
       <c r="E283" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>25</v>
@@ -12062,16 +12112,16 @@
         <v>140</v>
       </c>
       <c r="B284" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D284" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>25</v>
@@ -12082,16 +12132,16 @@
         <v>140</v>
       </c>
       <c r="B285" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C285" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D285" t="s">
         <v>220</v>
       </c>
-      <c r="D285" t="s">
-        <v>218</v>
-      </c>
       <c r="E285" s="29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>25</v>
@@ -12102,16 +12152,16 @@
         <v>140</v>
       </c>
       <c r="B286" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D286" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E286" s="29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>25</v>
@@ -12122,16 +12172,16 @@
         <v>140</v>
       </c>
       <c r="B287" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D287" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E287" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>89</v>
@@ -12142,16 +12192,16 @@
         <v>140</v>
       </c>
       <c r="B288" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C288" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D288" t="s">
         <v>214</v>
       </c>
-      <c r="D288" t="s">
-        <v>212</v>
-      </c>
       <c r="E288" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>89</v>
@@ -12162,16 +12212,16 @@
         <v>140</v>
       </c>
       <c r="B289" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D289" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E289" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>89</v>
@@ -12182,16 +12232,16 @@
         <v>140</v>
       </c>
       <c r="B290" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C290" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D290" t="s">
         <v>220</v>
       </c>
-      <c r="D290" t="s">
-        <v>218</v>
-      </c>
       <c r="E290" s="29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>89</v>
@@ -12202,16 +12252,16 @@
         <v>140</v>
       </c>
       <c r="B291" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D291" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E291" s="29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>89</v>
@@ -12222,16 +12272,16 @@
         <v>140</v>
       </c>
       <c r="B292" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D292" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E292" s="29" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>89</v>
@@ -12248,10 +12298,10 @@
         <v>158</v>
       </c>
       <c r="D293" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E293" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>147</v>
@@ -12265,13 +12315,13 @@
         <v>145</v>
       </c>
       <c r="C294" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D294" t="s">
         <v>214</v>
       </c>
-      <c r="D294" t="s">
-        <v>212</v>
-      </c>
       <c r="E294" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>147</v>
@@ -12285,13 +12335,13 @@
         <v>145</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D295" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E295" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>147</v>
@@ -12305,13 +12355,13 @@
         <v>145</v>
       </c>
       <c r="C296" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D296" t="s">
         <v>220</v>
       </c>
-      <c r="D296" t="s">
-        <v>218</v>
-      </c>
       <c r="E296" s="29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>147</v>
@@ -12325,13 +12375,13 @@
         <v>145</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D297" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E297" s="29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>147</v>
@@ -12345,13 +12395,13 @@
         <v>145</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D298" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E298" s="29" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>147</v>
@@ -12365,13 +12415,13 @@
         <v>145</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D299" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E299" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>147</v>
@@ -12388,10 +12438,10 @@
         <v>1</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E300" s="29" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>25</v>
@@ -12408,10 +12458,10 @@
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E301" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>25</v>
@@ -12428,10 +12478,10 @@
         <v>3</v>
       </c>
       <c r="D302" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E302" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>25</v>
@@ -12448,10 +12498,10 @@
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E303" s="29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>25</v>
@@ -12468,10 +12518,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E304" s="29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>25</v>
@@ -12488,10 +12538,10 @@
         <v>158</v>
       </c>
       <c r="D305" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E305" s="29" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>89</v>
@@ -12505,13 +12555,13 @@
         <v>156</v>
       </c>
       <c r="C306" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D306" t="s">
         <v>214</v>
       </c>
-      <c r="D306" t="s">
-        <v>212</v>
-      </c>
       <c r="E306" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>89</v>
@@ -12525,13 +12575,13 @@
         <v>156</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D307" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E307" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>89</v>
@@ -12545,13 +12595,13 @@
         <v>156</v>
       </c>
       <c r="C308" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D308" t="s">
         <v>220</v>
       </c>
-      <c r="D308" t="s">
-        <v>218</v>
-      </c>
       <c r="E308" s="29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>89</v>
@@ -12565,13 +12615,13 @@
         <v>156</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E309" s="29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>89</v>
@@ -12585,13 +12635,13 @@
         <v>156</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D310" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E310" s="29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>89</v>
@@ -12605,13 +12655,13 @@
         <v>156</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D311" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E311" s="29" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>89</v>
@@ -12628,10 +12678,10 @@
         <v>158</v>
       </c>
       <c r="D312" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E312" s="29" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>147</v>
@@ -12645,13 +12695,13 @@
         <v>157</v>
       </c>
       <c r="C313" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D313" t="s">
         <v>214</v>
       </c>
-      <c r="D313" t="s">
-        <v>212</v>
-      </c>
       <c r="E313" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>147</v>
@@ -12665,13 +12715,13 @@
         <v>157</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D314" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E314" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>147</v>
@@ -12685,13 +12735,13 @@
         <v>157</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D315" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>147</v>
@@ -12708,10 +12758,10 @@
         <v>158</v>
       </c>
       <c r="D316" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E316" s="29" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>160</v>
@@ -12725,13 +12775,13 @@
         <v>159</v>
       </c>
       <c r="C317" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D317" t="s">
         <v>214</v>
       </c>
-      <c r="D317" t="s">
-        <v>212</v>
-      </c>
       <c r="E317" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>160</v>
@@ -12745,13 +12795,13 @@
         <v>159</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D318" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E318" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>160</v>
@@ -12765,13 +12815,13 @@
         <v>159</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D319" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>160</v>
@@ -12785,13 +12835,13 @@
         <v>159</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D320" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E320" s="29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>160</v>
@@ -12805,13 +12855,13 @@
         <v>159</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D321" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E321" s="29" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>160</v>
@@ -12822,16 +12872,16 @@
         <v>164</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C322" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D322" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E322" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F322" s="30" t="s">
         <v>25</v>
@@ -12842,16 +12892,16 @@
         <v>164</v>
       </c>
       <c r="B323" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D323" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E323" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F323" s="30" t="s">
         <v>25</v>
@@ -12862,16 +12912,16 @@
         <v>164</v>
       </c>
       <c r="B324" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D324" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E324" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F324" s="30" t="s">
         <v>25</v>
@@ -12882,16 +12932,16 @@
         <v>164</v>
       </c>
       <c r="B325" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D325" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E325" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F325" s="30" t="s">
         <v>25</v>
@@ -12902,16 +12952,16 @@
         <v>166</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C326" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D326" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E326" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F326" s="30" t="s">
         <v>25</v>
@@ -12922,16 +12972,16 @@
         <v>166</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D327" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E327" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F327" s="30" t="s">
         <v>25</v>
@@ -12942,16 +12992,16 @@
         <v>166</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D328" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E328" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F328" s="30" t="s">
         <v>25</v>
@@ -12962,16 +13012,16 @@
         <v>166</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D329" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E329" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F329" s="30" t="s">
         <v>25</v>
@@ -12982,16 +13032,16 @@
         <v>166</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D330" s="31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E330" s="32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F330" s="30" t="s">
         <v>25</v>
@@ -13002,16 +13052,16 @@
         <v>166</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D331" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E331" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F331" s="30" t="s">
         <v>25</v>
@@ -13022,16 +13072,16 @@
         <v>168</v>
       </c>
       <c r="B332" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C332" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D332" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E332" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F332" s="30" t="s">
         <v>25</v>
@@ -13042,16 +13092,16 @@
         <v>168</v>
       </c>
       <c r="B333" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D333" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E333" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F333" s="30" t="s">
         <v>25</v>
@@ -13062,16 +13112,16 @@
         <v>168</v>
       </c>
       <c r="B334" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D334" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E334" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F334" s="30" t="s">
         <v>25</v>
@@ -13082,16 +13132,16 @@
         <v>168</v>
       </c>
       <c r="B335" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C335" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D335" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E335" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="C335" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D335" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="E335" s="32" t="s">
-        <v>427</v>
       </c>
       <c r="F335" s="30" t="s">
         <v>25</v>
@@ -13102,16 +13152,16 @@
         <v>168</v>
       </c>
       <c r="B336" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D336" s="31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E336" s="32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F336" s="30" t="s">
         <v>25</v>
@@ -13122,16 +13172,16 @@
         <v>168</v>
       </c>
       <c r="B337" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D337" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E337" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F337" s="30" t="s">
         <v>25</v>
@@ -13142,16 +13192,16 @@
         <v>170</v>
       </c>
       <c r="B338" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C338" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D338" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E338" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F338" s="30" t="s">
         <v>25</v>
@@ -13162,16 +13212,16 @@
         <v>170</v>
       </c>
       <c r="B339" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D339" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E339" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F339" s="30" t="s">
         <v>25</v>
@@ -13182,16 +13232,16 @@
         <v>170</v>
       </c>
       <c r="B340" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D340" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E340" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F340" s="30" t="s">
         <v>25</v>
@@ -13202,16 +13252,16 @@
         <v>170</v>
       </c>
       <c r="B341" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D341" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E341" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F341" s="30" t="s">
         <v>25</v>
@@ -13222,16 +13272,16 @@
         <v>172</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>25</v>
@@ -13242,16 +13292,16 @@
         <v>172</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F343" s="4" t="s">
         <v>25</v>
@@ -13262,16 +13312,16 @@
         <v>172</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>25</v>
@@ -13282,16 +13332,16 @@
         <v>172</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F345" s="4" t="s">
         <v>25</v>
@@ -13302,16 +13352,16 @@
         <v>174</v>
       </c>
       <c r="B346" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D346" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E346" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>25</v>
@@ -13322,16 +13372,16 @@
         <v>174</v>
       </c>
       <c r="B347" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D347" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E347" s="29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F347" s="4" t="s">
         <v>25</v>
@@ -13342,16 +13392,16 @@
         <v>174</v>
       </c>
       <c r="B348" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D348" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E348" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>25</v>
@@ -13362,16 +13412,16 @@
         <v>174</v>
       </c>
       <c r="B349" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D349" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E349" s="29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>25</v>
@@ -13382,16 +13432,16 @@
         <v>174</v>
       </c>
       <c r="B350" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E350" s="29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F350" s="4" t="s">
         <v>25</v>
@@ -13402,16 +13452,16 @@
         <v>174</v>
       </c>
       <c r="B351" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D351" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E351" s="29" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F351" s="4" t="s">
         <v>25</v>
@@ -13422,16 +13472,16 @@
         <v>174</v>
       </c>
       <c r="B352" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E352" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F352" s="4" t="s">
         <v>25</v>
@@ -13442,16 +13492,16 @@
         <v>174</v>
       </c>
       <c r="B353" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E353" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F353" s="4" t="s">
         <v>25</v>
@@ -13462,16 +13512,16 @@
         <v>176</v>
       </c>
       <c r="B354" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D354" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E354" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F354" s="4" t="s">
         <v>25</v>
@@ -13482,16 +13532,16 @@
         <v>176</v>
       </c>
       <c r="B355" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D355" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E355" s="29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>25</v>
@@ -13502,16 +13552,16 @@
         <v>176</v>
       </c>
       <c r="B356" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D356" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E356" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F356" s="4" t="s">
         <v>25</v>
@@ -13522,16 +13572,16 @@
         <v>176</v>
       </c>
       <c r="B357" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D357" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E357" s="29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F357" s="4" t="s">
         <v>25</v>
@@ -13542,16 +13592,16 @@
         <v>176</v>
       </c>
       <c r="B358" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D358" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E358" s="29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F358" s="4" t="s">
         <v>25</v>
@@ -13562,16 +13612,16 @@
         <v>176</v>
       </c>
       <c r="B359" t="s">
+        <v>445</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D359" t="s">
         <v>443</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D359" t="s">
-        <v>441</v>
-      </c>
       <c r="E359" s="29" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F359" s="4" t="s">
         <v>25</v>
@@ -13582,16 +13632,16 @@
         <v>176</v>
       </c>
       <c r="B360" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E360" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F360" s="4" t="s">
         <v>25</v>
@@ -13602,16 +13652,16 @@
         <v>176</v>
       </c>
       <c r="B361" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E361" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F361" s="4" t="s">
         <v>25</v>
@@ -13622,16 +13672,16 @@
         <v>178</v>
       </c>
       <c r="B362" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D362" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E362" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F362" s="4" t="s">
         <v>25</v>
@@ -13642,16 +13692,16 @@
         <v>178</v>
       </c>
       <c r="B363" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D363" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E363" s="29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F363" s="4" t="s">
         <v>25</v>
@@ -13662,16 +13712,16 @@
         <v>178</v>
       </c>
       <c r="B364" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D364" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E364" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F364" s="4" t="s">
         <v>25</v>
@@ -13682,16 +13732,16 @@
         <v>178</v>
       </c>
       <c r="B365" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D365" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E365" s="29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F365" s="4" t="s">
         <v>25</v>
@@ -13702,16 +13752,16 @@
         <v>178</v>
       </c>
       <c r="B366" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E366" s="29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F366" s="4" t="s">
         <v>25</v>
@@ -13722,16 +13772,16 @@
         <v>178</v>
       </c>
       <c r="B367" t="s">
+        <v>446</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D367" t="s">
+        <v>443</v>
+      </c>
+      <c r="E367" s="29" t="s">
         <v>444</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D367" t="s">
-        <v>441</v>
-      </c>
-      <c r="E367" s="29" t="s">
-        <v>442</v>
       </c>
       <c r="F367" s="4" t="s">
         <v>25</v>
@@ -13742,16 +13792,16 @@
         <v>178</v>
       </c>
       <c r="B368" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E368" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F368" s="4" t="s">
         <v>25</v>
@@ -13762,16 +13812,16 @@
         <v>178</v>
       </c>
       <c r="B369" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E369" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>25</v>
@@ -13782,16 +13832,16 @@
         <v>178</v>
       </c>
       <c r="B370" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D370" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E370" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F370" s="4" t="s">
         <v>25</v>
@@ -13802,16 +13852,16 @@
         <v>180</v>
       </c>
       <c r="B371" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D371" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E371" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F371" s="4" t="s">
         <v>25</v>
@@ -13822,16 +13872,16 @@
         <v>180</v>
       </c>
       <c r="B372" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D372" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E372" s="29" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F372" s="4" t="s">
         <v>25</v>
@@ -13842,16 +13892,16 @@
         <v>180</v>
       </c>
       <c r="B373" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D373" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E373" s="29" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F373" s="4" t="s">
         <v>25</v>
@@ -13862,16 +13912,16 @@
         <v>180</v>
       </c>
       <c r="B374" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D374" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E374" s="29" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F374" s="4" t="s">
         <v>25</v>
@@ -13882,16 +13932,16 @@
         <v>180</v>
       </c>
       <c r="B375" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E375" s="29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F375" s="4" t="s">
         <v>25</v>
@@ -13902,16 +13952,16 @@
         <v>180</v>
       </c>
       <c r="B376" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D376" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E376" s="29" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F376" s="4" t="s">
         <v>25</v>
@@ -13922,16 +13972,16 @@
         <v>180</v>
       </c>
       <c r="B377" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E377" s="29" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F377" s="4" t="s">
         <v>25</v>
@@ -13942,16 +13992,16 @@
         <v>180</v>
       </c>
       <c r="B378" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E378" s="29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F378" s="4" t="s">
         <v>25</v>
@@ -13962,16 +14012,16 @@
         <v>182</v>
       </c>
       <c r="B379" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D379" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E379" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F379" s="4" t="s">
         <v>25</v>
@@ -13982,16 +14032,16 @@
         <v>182</v>
       </c>
       <c r="B380" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D380" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E380" s="29" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F380" s="4" t="s">
         <v>25</v>
@@ -14002,16 +14052,16 @@
         <v>182</v>
       </c>
       <c r="B381" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D381" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E381" s="29" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F381" s="4" t="s">
         <v>25</v>
@@ -14022,16 +14072,16 @@
         <v>182</v>
       </c>
       <c r="B382" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D382" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E382" s="29" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F382" s="4" t="s">
         <v>25</v>
@@ -14042,16 +14092,16 @@
         <v>182</v>
       </c>
       <c r="B383" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E383" s="29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F383" s="4" t="s">
         <v>25</v>
@@ -14062,16 +14112,16 @@
         <v>182</v>
       </c>
       <c r="B384" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D384" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E384" s="29" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F384" s="4" t="s">
         <v>25</v>
@@ -14082,16 +14132,16 @@
         <v>182</v>
       </c>
       <c r="B385" t="s">
+        <v>457</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D385" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E385" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D385" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E385" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>25</v>
@@ -14102,16 +14152,16 @@
         <v>182</v>
       </c>
       <c r="B386" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E386" s="29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F386" s="4" t="s">
         <v>25</v>
@@ -14122,16 +14172,16 @@
         <v>184</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C387" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E387" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F387" s="33" t="s">
         <v>25</v>
@@ -14142,16 +14192,16 @@
         <v>184</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C388" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E388" s="32" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F388" s="33" t="s">
         <v>25</v>
@@ -14162,16 +14212,16 @@
         <v>184</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C389" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E389" s="32" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F389" s="33" t="s">
         <v>25</v>
@@ -14182,16 +14232,16 @@
         <v>184</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F390" s="33" t="s">
         <v>25</v>
@@ -14202,16 +14252,16 @@
         <v>184</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C391" s="33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F391" s="33" t="s">
         <v>25</v>
@@ -14222,16 +14272,16 @@
         <v>192</v>
       </c>
       <c r="B392" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D392" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E392" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F392" s="33" t="s">
         <v>25</v>
@@ -14242,16 +14292,16 @@
         <v>192</v>
       </c>
       <c r="B393" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D393" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E393" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F393" s="33" t="s">
         <v>25</v>
@@ -14262,16 +14312,16 @@
         <v>192</v>
       </c>
       <c r="B394" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D394" t="s">
         <v>116</v>
       </c>
       <c r="E394" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F394" s="33" t="s">
         <v>25</v>
@@ -14282,16 +14332,16 @@
         <v>192</v>
       </c>
       <c r="B395" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D395" t="s">
         <v>149</v>
       </c>
       <c r="E395" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F395" s="33" t="s">
         <v>25</v>
@@ -14302,16 +14352,16 @@
         <v>192</v>
       </c>
       <c r="B396" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D396" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E396" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F396" s="33" t="s">
         <v>25</v>
@@ -14322,16 +14372,16 @@
         <v>192</v>
       </c>
       <c r="B397" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D397" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E397" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F397" s="33" t="s">
         <v>25</v>
@@ -14342,16 +14392,16 @@
         <v>192</v>
       </c>
       <c r="B398" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D398" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E398" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F398" s="33" t="s">
         <v>25</v>
@@ -14362,16 +14412,16 @@
         <v>192</v>
       </c>
       <c r="B399" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D399" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E399" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F399" s="33" t="s">
         <v>25</v>
@@ -14382,16 +14432,16 @@
         <v>192</v>
       </c>
       <c r="B400" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D400" t="s">
         <v>84</v>
       </c>
       <c r="E400" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F400" s="33" t="s">
         <v>25</v>
@@ -14402,16 +14452,16 @@
         <v>192</v>
       </c>
       <c r="B401" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D401" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E401" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F401" s="33" t="s">
         <v>25</v>
@@ -14422,16 +14472,16 @@
         <v>192</v>
       </c>
       <c r="B402" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D402" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E402" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F402" s="33" t="s">
         <v>25</v>
@@ -14442,16 +14492,16 @@
         <v>194</v>
       </c>
       <c r="B403" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D403" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E403" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F403" s="26" t="s">
         <v>25</v>
@@ -14462,19 +14512,19 @@
         <v>194</v>
       </c>
       <c r="B404" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E404" s="25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F404" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -14482,19 +14532,19 @@
         <v>194</v>
       </c>
       <c r="B405" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E405" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -14502,19 +14552,19 @@
         <v>194</v>
       </c>
       <c r="B406" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F406" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -14522,16 +14572,16 @@
         <v>196</v>
       </c>
       <c r="B407" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>25</v>
@@ -14542,19 +14592,19 @@
         <v>198</v>
       </c>
       <c r="B408" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D408" s="25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F408" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -14562,19 +14612,19 @@
         <v>200</v>
       </c>
       <c r="B409" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F409" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -14582,19 +14632,19 @@
         <v>200</v>
       </c>
       <c r="B410" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C410" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D410" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D410" s="25" t="s">
-        <v>212</v>
-      </c>
       <c r="E410" s="25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F410" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -14602,19 +14652,19 @@
         <v>200</v>
       </c>
       <c r="B411" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C411" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D411" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D411" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="E411" s="25" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F411" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -14622,19 +14672,19 @@
         <v>200</v>
       </c>
       <c r="B412" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C412" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D412" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D412" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="E412" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -14642,16 +14692,16 @@
         <v>202</v>
       </c>
       <c r="B413" s="36" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C413" s="35" t="s">
         <v>158</v>
       </c>
       <c r="D413" s="36" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E413" s="36" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F413" s="35" t="s">
         <v>25</v>
@@ -14662,16 +14712,16 @@
         <v>204</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C414" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F414" s="33" t="s">
         <v>25</v>
@@ -14682,19 +14732,19 @@
         <v>206</v>
       </c>
       <c r="B415" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E415" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F415" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -14702,19 +14752,19 @@
         <v>206</v>
       </c>
       <c r="B416" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C416" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D416" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D416" s="25" t="s">
-        <v>212</v>
-      </c>
       <c r="E416" s="25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F416" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -14722,19 +14772,19 @@
         <v>206</v>
       </c>
       <c r="B417" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C417" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D417" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D417" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="E417" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F417" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -14742,25 +14792,40 @@
         <v>206</v>
       </c>
       <c r="B418" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C418" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D418" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D418" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="E418" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F418" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="419" spans="1:6">
-      <c r="A419"/>
-      <c r="C419"/>
-      <c r="F419"/>
+      <c r="A419" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B419" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="C419" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D419" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="E419" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="F419" s="35" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B72:B75">

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Agree\四川农信\doc\SVN\04设计与实现\交易数据统计\交易规则统计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66105A98-E7E7-4ED5-9208-D9DBDD0297E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8535" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="1" r:id="rId1"/>
     <sheet name="双屏确认字段信息" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="554">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -1828,18 +1841,282 @@
   <si>
     <t>售出凭证售出</t>
   </si>
+  <si>
+    <r>
+      <t>DS0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>00306006</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>refndManrCd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>退/付款方式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>票据退款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllPay</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>全额付款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>行内行外标志</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>insdbnkOutsdbnkFlgCd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>tranName</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人账号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人户名</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算金额</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>applctAcctNo</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>applctAcctNm</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>stlAmt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>结余金额</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>cshsplsAmt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>持票人账号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>持票人户名</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilhldrAcctNo</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilhldrAcctNm</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>持票人开户行行号（行号+行名）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>finlBilhldrOpenAcctRwBankName</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00074</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00075</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00077</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00078</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00079</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS00080</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1892,7 +2169,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1903,7 +2180,7 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1915,156 +2192,12 @@
     <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2077,8 +2210,37 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2099,7 +2261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799737540818506"/>
+        <fgColor theme="3" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,194 +2277,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2336,253 +2312,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2697,64 +2431,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2769,6 +2468,82 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3024,36 +2799,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.4416666666667" style="43" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="43" customWidth="1"/>
     <col min="2" max="7" width="9" style="43"/>
-    <col min="8" max="8" width="17.1083333333333" style="44" customWidth="1"/>
-    <col min="9" max="9" width="23.4416666666667" style="43" customWidth="1"/>
-    <col min="10" max="10" width="17.4416666666667" style="43" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="43" customWidth="1"/>
     <col min="11" max="12" width="9" style="43"/>
     <col min="13" max="13" width="9" style="45"/>
     <col min="14" max="16" width="9" style="43"/>
-    <col min="17" max="17" width="23.2166666666667" style="43" customWidth="1"/>
+    <col min="17" max="17" width="23.21875" style="43" customWidth="1"/>
     <col min="18" max="18" width="9" style="39"/>
     <col min="19" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:18">
+    <row r="1" spans="1:18" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
@@ -3145,7 +2919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -3181,7 +2955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -3217,7 +2991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>18</v>
       </c>
@@ -3289,7 +3063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
@@ -3326,7 +3100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>18</v>
       </c>
@@ -3400,7 +3174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
@@ -3437,7 +3211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
@@ -3474,7 +3248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
@@ -3511,7 +3285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>18</v>
       </c>
@@ -3546,7 +3320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
@@ -3581,7 +3355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>18</v>
       </c>
@@ -3618,7 +3392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>18</v>
       </c>
@@ -3655,7 +3429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>18</v>
       </c>
@@ -3692,7 +3466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>18</v>
       </c>
@@ -3729,7 +3503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>18</v>
       </c>
@@ -3766,7 +3540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>18</v>
       </c>
@@ -3803,7 +3577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>18</v>
       </c>
@@ -3840,7 +3614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +3651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>18</v>
       </c>
@@ -3912,7 +3686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>18</v>
       </c>
@@ -3947,7 +3721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +3758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +3795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>18</v>
       </c>
@@ -4058,7 +3832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>18</v>
       </c>
@@ -4095,7 +3869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>18</v>
       </c>
@@ -4132,7 +3906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>18</v>
       </c>
@@ -4182,7 +3956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
@@ -4232,7 +4006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>18</v>
       </c>
@@ -4279,7 +4053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>18</v>
       </c>
@@ -4329,7 +4103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>18</v>
       </c>
@@ -4366,7 +4140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>18</v>
       </c>
@@ -4401,7 +4175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>18</v>
       </c>
@@ -4436,7 +4210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>18</v>
       </c>
@@ -4471,7 +4245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>18</v>
       </c>
@@ -4506,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>18</v>
       </c>
@@ -4541,7 +4315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>18</v>
       </c>
@@ -4578,7 +4352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>18</v>
       </c>
@@ -4628,7 +4402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>18</v>
       </c>
@@ -4678,7 +4452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>18</v>
       </c>
@@ -4715,7 +4489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +4526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>18</v>
       </c>
@@ -4790,7 +4564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>18</v>
       </c>
@@ -4828,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>18</v>
       </c>
@@ -4866,7 +4640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>18</v>
       </c>
@@ -4904,7 +4678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>18</v>
       </c>
@@ -4942,7 +4716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>18</v>
       </c>
@@ -4989,7 +4763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>18</v>
       </c>
@@ -5036,7 +4810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>18</v>
       </c>
@@ -5086,7 +4860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>18</v>
       </c>
@@ -5137,7 +4911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +4961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>18</v>
       </c>
@@ -5237,7 +5011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>18</v>
       </c>
@@ -5288,7 +5062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>18</v>
       </c>
@@ -5338,7 +5112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>18</v>
       </c>
@@ -5388,7 +5162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>18</v>
       </c>
@@ -5438,7 +5212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>18</v>
       </c>
@@ -5488,7 +5262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>18</v>
       </c>
@@ -5538,7 +5312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>18</v>
       </c>
@@ -5588,7 +5362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>18</v>
       </c>
@@ -5638,7 +5412,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>18</v>
       </c>
@@ -5688,7 +5462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>18</v>
       </c>
@@ -5723,7 +5497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>18</v>
       </c>
@@ -5758,7 +5532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>18</v>
       </c>
@@ -5793,7 +5567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>18</v>
       </c>
@@ -5828,7 +5602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
         <v>18</v>
       </c>
@@ -5863,7 +5637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>18</v>
       </c>
@@ -5898,7 +5672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>18</v>
       </c>
@@ -5933,7 +5707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>18</v>
       </c>
@@ -5968,7 +5742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
         <v>18</v>
       </c>
@@ -6003,7 +5777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
         <v>18</v>
       </c>
@@ -6038,7 +5812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
         <v>18</v>
       </c>
@@ -6073,7 +5847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>18</v>
       </c>
@@ -6108,7 +5882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +5932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>18</v>
       </c>
@@ -6208,7 +5982,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>18</v>
       </c>
@@ -6243,7 +6017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
         <v>18</v>
       </c>
@@ -6278,7 +6052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
         <v>18</v>
       </c>
@@ -6313,7 +6087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
         <v>18</v>
       </c>
@@ -6348,7 +6122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
         <v>18</v>
       </c>
@@ -6383,7 +6157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
         <v>18</v>
       </c>
@@ -6418,7 +6192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
         <v>18</v>
       </c>
@@ -6453,7 +6227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
         <v>18</v>
       </c>
@@ -6488,7 +6262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
         <v>18</v>
       </c>
@@ -6523,7 +6297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" s="43" customFormat="1" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
         <v>18</v>
       </c>
@@ -6551,13 +6325,6 @@
       <c r="I88" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
       <c r="Q88" s="43" t="s">
         <v>24</v>
       </c>
@@ -6565,7 +6332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" s="43" customFormat="1" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
         <v>18</v>
       </c>
@@ -6593,13 +6360,6 @@
       <c r="I89" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
       <c r="Q89" s="43" t="s">
         <v>24</v>
       </c>
@@ -6607,43 +6367,435 @@
         <v>25</v>
       </c>
     </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="C90" s="43">
+        <v>82</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="43">
+        <v>1</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I90" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J90" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="K90" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L90" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N90" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="C91" s="43">
+        <v>82</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="43">
+        <v>1</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I91" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J91" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K91" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="L91" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M91" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N91" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C92" s="43">
+        <v>83</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="43">
+        <v>1</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I92" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J92" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="K92" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L92" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M92" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N92" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q92" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92" s="65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="C93" s="43">
+        <v>83</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="43">
+        <v>1</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I93" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J93" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K93" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="L93" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M93" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N93" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93" s="65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="43">
+        <v>84</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="43">
+        <v>1</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I94" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J94" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="K94" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L94" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M94" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N94" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94" s="65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="43">
+        <v>84</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="43">
+        <v>1</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I95" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J95" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K95" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="M95" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N95" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R95" s="65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="63" t="s">
+        <v>552</v>
+      </c>
+      <c r="C96" s="43">
+        <v>85</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="43">
+        <v>1</v>
+      </c>
+      <c r="G96" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J96" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="K96" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L96" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M96" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N96" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R96" s="65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="63" t="s">
+        <v>553</v>
+      </c>
+      <c r="C97" s="43">
+        <v>85</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="43">
+        <v>1</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I97" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J97" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K97" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="M97" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N97" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R97" s="65" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A75" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F428"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B435" sqref="B435"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.775" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.4416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.4416666666667" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
@@ -6683,7 +6835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -6703,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
@@ -6723,7 +6875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -6743,7 +6895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -6763,7 +6915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -6783,7 +6935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -6803,7 +6955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -6823,7 +6975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -6843,7 +6995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -6863,7 +7015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -6883,7 +7035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -6903,7 +7055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6923,7 +7075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -6943,7 +7095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>161</v>
       </c>
@@ -6963,7 +7115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>161</v>
       </c>
@@ -6983,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>161</v>
       </c>
@@ -7003,7 +7155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>161</v>
       </c>
@@ -7023,7 +7175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
@@ -7043,7 +7195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -7063,7 +7215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -7083,7 +7235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
@@ -7103,7 +7255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
@@ -7123,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>29</v>
       </c>
@@ -7143,7 +7295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>31</v>
       </c>
@@ -7163,7 +7315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
@@ -7183,7 +7335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
@@ -7203,7 +7355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
@@ -7223,7 +7375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -7243,7 +7395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
@@ -7263,7 +7415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
@@ -7283,7 +7435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
@@ -7303,7 +7455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
@@ -7323,7 +7475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
@@ -7343,7 +7495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>27</v>
       </c>
@@ -7363,7 +7515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>27</v>
       </c>
@@ -7403,7 +7555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -7423,7 +7575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>23</v>
       </c>
@@ -7443,7 +7595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>23</v>
       </c>
@@ -7463,7 +7615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>23</v>
       </c>
@@ -7483,7 +7635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>23</v>
       </c>
@@ -7503,7 +7655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>261</v>
       </c>
@@ -7523,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>39</v>
       </c>
@@ -7543,7 +7695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>39</v>
       </c>
@@ -7563,7 +7715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>39</v>
       </c>
@@ -7583,7 +7735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>39</v>
       </c>
@@ -7603,7 +7755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>41</v>
       </c>
@@ -7623,7 +7775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -7643,7 +7795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>41</v>
       </c>
@@ -7663,7 +7815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>41</v>
       </c>
@@ -7683,7 +7835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>43</v>
       </c>
@@ -7701,7 +7853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>43</v>
       </c>
@@ -7719,7 +7871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>43</v>
       </c>
@@ -7737,7 +7889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>43</v>
       </c>
@@ -7755,7 +7907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>45</v>
       </c>
@@ -7775,7 +7927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>45</v>
       </c>
@@ -7795,7 +7947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>45</v>
       </c>
@@ -7815,7 +7967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>47</v>
       </c>
@@ -7835,7 +7987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>47</v>
       </c>
@@ -7855,7 +8007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>285</v>
       </c>
@@ -7873,7 +8025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>47</v>
       </c>
@@ -7893,7 +8045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>47</v>
       </c>
@@ -7913,7 +8065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>47</v>
       </c>
@@ -7933,7 +8085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>49</v>
       </c>
@@ -7953,7 +8105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>49</v>
       </c>
@@ -7973,7 +8125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>49</v>
       </c>
@@ -7993,7 +8145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>49</v>
       </c>
@@ -8013,7 +8165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>49</v>
       </c>
@@ -8033,7 +8185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>49</v>
       </c>
@@ -8053,7 +8205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>51</v>
       </c>
@@ -8073,7 +8225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>51</v>
       </c>
@@ -8093,7 +8245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>51</v>
       </c>
@@ -8113,7 +8265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>51</v>
       </c>
@@ -8133,7 +8285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>53</v>
       </c>
@@ -8153,7 +8305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>53</v>
       </c>
@@ -8171,7 +8323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>53</v>
       </c>
@@ -8191,7 +8343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>53</v>
       </c>
@@ -8211,7 +8363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>55</v>
       </c>
@@ -8231,7 +8383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>55</v>
       </c>
@@ -8249,7 +8401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>55</v>
       </c>
@@ -8269,7 +8421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>55</v>
       </c>
@@ -8289,7 +8441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>302</v>
       </c>
@@ -8309,7 +8461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>302</v>
       </c>
@@ -8329,7 +8481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>306</v>
       </c>
@@ -8349,7 +8501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>306</v>
       </c>
@@ -8369,7 +8521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>308</v>
       </c>
@@ -8389,7 +8541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>308</v>
       </c>
@@ -8409,7 +8561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>312</v>
       </c>
@@ -8429,7 +8581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>312</v>
       </c>
@@ -8449,7 +8601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>314</v>
       </c>
@@ -8469,7 +8621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>314</v>
       </c>
@@ -8489,7 +8641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>317</v>
       </c>
@@ -8509,7 +8661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>317</v>
       </c>
@@ -8529,7 +8681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>319</v>
       </c>
@@ -8549,7 +8701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>319</v>
       </c>
@@ -8569,7 +8721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>320</v>
       </c>
@@ -8589,7 +8741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>320</v>
       </c>
@@ -8609,7 +8761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>321</v>
       </c>
@@ -8629,7 +8781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>65</v>
       </c>
@@ -8649,7 +8801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>321</v>
       </c>
@@ -8669,7 +8821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>65</v>
       </c>
@@ -8689,7 +8841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>67</v>
       </c>
@@ -8709,7 +8861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>67</v>
       </c>
@@ -8729,7 +8881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>67</v>
       </c>
@@ -8749,7 +8901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>67</v>
       </c>
@@ -8769,7 +8921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>67</v>
       </c>
@@ -8789,7 +8941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>69</v>
       </c>
@@ -8809,7 +8961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>69</v>
       </c>
@@ -8829,7 +8981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>69</v>
       </c>
@@ -8849,7 +9001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>69</v>
       </c>
@@ -8869,7 +9021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>69</v>
       </c>
@@ -8889,7 +9041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>71</v>
       </c>
@@ -8909,7 +9061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>71</v>
       </c>
@@ -8929,7 +9081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>71</v>
       </c>
@@ -8949,7 +9101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>71</v>
       </c>
@@ -8969,7 +9121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>73</v>
       </c>
@@ -8989,7 +9141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>73</v>
       </c>
@@ -9009,7 +9161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>73</v>
       </c>
@@ -9029,7 +9181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>73</v>
       </c>
@@ -9049,7 +9201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>75</v>
       </c>
@@ -9069,7 +9221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>75</v>
       </c>
@@ -9089,7 +9241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>75</v>
       </c>
@@ -9109,7 +9261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>75</v>
       </c>
@@ -9129,7 +9281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>75</v>
       </c>
@@ -9149,7 +9301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>75</v>
       </c>
@@ -9169,7 +9321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>75</v>
       </c>
@@ -9189,7 +9341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>75</v>
       </c>
@@ -9209,7 +9361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>77</v>
       </c>
@@ -9229,7 +9381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>77</v>
       </c>
@@ -9249,7 +9401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>77</v>
       </c>
@@ -9269,7 +9421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>77</v>
       </c>
@@ -9289,7 +9441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>77</v>
       </c>
@@ -9309,7 +9461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>79</v>
       </c>
@@ -9329,7 +9481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>79</v>
       </c>
@@ -9349,7 +9501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>79</v>
       </c>
@@ -9369,7 +9521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>79</v>
       </c>
@@ -9389,7 +9541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>79</v>
       </c>
@@ -9409,7 +9561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>81</v>
       </c>
@@ -9429,7 +9581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>81</v>
       </c>
@@ -9449,7 +9601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>81</v>
       </c>
@@ -9469,7 +9621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>81</v>
       </c>
@@ -9489,7 +9641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>81</v>
       </c>
@@ -9509,7 +9661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>81</v>
       </c>
@@ -9529,7 +9681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>81</v>
       </c>
@@ -9549,7 +9701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>81</v>
       </c>
@@ -9569,7 +9721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>81</v>
       </c>
@@ -9589,7 +9741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>81</v>
       </c>
@@ -9609,7 +9761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>81</v>
       </c>
@@ -9629,7 +9781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>81</v>
       </c>
@@ -9649,7 +9801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>91</v>
       </c>
@@ -9669,7 +9821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>91</v>
       </c>
@@ -9689,7 +9841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>91</v>
       </c>
@@ -9709,7 +9861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>91</v>
       </c>
@@ -9729,7 +9881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>91</v>
       </c>
@@ -9749,7 +9901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>91</v>
       </c>
@@ -9769,7 +9921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>99</v>
       </c>
@@ -9789,7 +9941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>99</v>
       </c>
@@ -9809,7 +9961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>99</v>
       </c>
@@ -9829,7 +9981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>99</v>
       </c>
@@ -9849,7 +10001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>101</v>
       </c>
@@ -9869,7 +10021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
         <v>101</v>
       </c>
@@ -9889,7 +10041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
         <v>101</v>
       </c>
@@ -9909,7 +10061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>101</v>
       </c>
@@ -9929,7 +10081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
         <v>101</v>
       </c>
@@ -9949,7 +10101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>103</v>
       </c>
@@ -9969,7 +10121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>103</v>
       </c>
@@ -9989,7 +10141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>103</v>
       </c>
@@ -10009,7 +10161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>103</v>
       </c>
@@ -10029,7 +10181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
         <v>103</v>
       </c>
@@ -10049,7 +10201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>103</v>
       </c>
@@ -10069,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>103</v>
       </c>
@@ -10089,7 +10241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
         <v>103</v>
       </c>
@@ -10109,7 +10261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>105</v>
       </c>
@@ -10129,7 +10281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>105</v>
       </c>
@@ -10149,7 +10301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>105</v>
       </c>
@@ -10169,7 +10321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>105</v>
       </c>
@@ -10189,7 +10341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>105</v>
       </c>
@@ -10209,7 +10361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>107</v>
       </c>
@@ -10229,7 +10381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>107</v>
       </c>
@@ -10249,7 +10401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>107</v>
       </c>
@@ -10269,7 +10421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>107</v>
       </c>
@@ -10289,7 +10441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>107</v>
       </c>
@@ -10309,7 +10461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>107</v>
       </c>
@@ -10329,7 +10481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>109</v>
       </c>
@@ -10349,7 +10501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>109</v>
       </c>
@@ -10369,7 +10521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>109</v>
       </c>
@@ -10389,7 +10541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>109</v>
       </c>
@@ -10409,7 +10561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>109</v>
       </c>
@@ -10429,7 +10581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>109</v>
       </c>
@@ -10449,7 +10601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>113</v>
       </c>
@@ -10469,7 +10621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>113</v>
       </c>
@@ -10489,7 +10641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>113</v>
       </c>
@@ -10509,7 +10661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>113</v>
       </c>
@@ -10529,7 +10681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>113</v>
       </c>
@@ -10549,7 +10701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>113</v>
       </c>
@@ -10569,7 +10721,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>113</v>
       </c>
@@ -10589,7 +10741,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>113</v>
       </c>
@@ -10609,7 +10761,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>113</v>
       </c>
@@ -10629,7 +10781,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>113</v>
       </c>
@@ -10649,7 +10801,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>113</v>
       </c>
@@ -10669,7 +10821,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="62" t="s">
         <v>121</v>
       </c>
@@ -10689,7 +10841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="62" t="s">
         <v>121</v>
       </c>
@@ -10709,7 +10861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="62" t="s">
         <v>121</v>
       </c>
@@ -10729,7 +10881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>121</v>
       </c>
@@ -10749,7 +10901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>123</v>
       </c>
@@ -10769,7 +10921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>123</v>
       </c>
@@ -10789,7 +10941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>123</v>
       </c>
@@ -10809,7 +10961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>123</v>
       </c>
@@ -10829,7 +10981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>123</v>
       </c>
@@ -10849,7 +11001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>123</v>
       </c>
@@ -10869,7 +11021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>123</v>
       </c>
@@ -10889,7 +11041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>123</v>
       </c>
@@ -10909,7 +11061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>125</v>
       </c>
@@ -10929,7 +11081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>125</v>
       </c>
@@ -10949,7 +11101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>125</v>
       </c>
@@ -10969,7 +11121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>125</v>
       </c>
@@ -10989,7 +11141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>125</v>
       </c>
@@ -11009,7 +11161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>127</v>
       </c>
@@ -11029,7 +11181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>127</v>
       </c>
@@ -11049,7 +11201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>127</v>
       </c>
@@ -11069,7 +11221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>127</v>
       </c>
@@ -11089,7 +11241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>127</v>
       </c>
@@ -11109,7 +11261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>127</v>
       </c>
@@ -11129,7 +11281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>129</v>
       </c>
@@ -11149,7 +11301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>129</v>
       </c>
@@ -11169,7 +11321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>129</v>
       </c>
@@ -11189,7 +11341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>129</v>
       </c>
@@ -11209,7 +11361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
         <v>111</v>
       </c>
@@ -11229,7 +11381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>111</v>
       </c>
@@ -11249,7 +11401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
         <v>111</v>
       </c>
@@ -11269,7 +11421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
         <v>111</v>
       </c>
@@ -11289,7 +11441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
         <v>111</v>
       </c>
@@ -11309,7 +11461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>130</v>
       </c>
@@ -11329,7 +11481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>130</v>
       </c>
@@ -11349,7 +11501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>130</v>
       </c>
@@ -11369,7 +11521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>130</v>
       </c>
@@ -11389,7 +11541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>130</v>
       </c>
@@ -11409,7 +11561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>130</v>
       </c>
@@ -11429,7 +11581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>130</v>
       </c>
@@ -11449,7 +11601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>130</v>
       </c>
@@ -11469,7 +11621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>130</v>
       </c>
@@ -11489,7 +11641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>130</v>
       </c>
@@ -11509,7 +11661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>130</v>
       </c>
@@ -11529,7 +11681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>130</v>
       </c>
@@ -11549,7 +11701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>130</v>
       </c>
@@ -11569,7 +11721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>131</v>
       </c>
@@ -11589,7 +11741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>131</v>
       </c>
@@ -11609,7 +11761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>131</v>
       </c>
@@ -11629,7 +11781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>131</v>
       </c>
@@ -11649,7 +11801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>131</v>
       </c>
@@ -11669,7 +11821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>131</v>
       </c>
@@ -11689,7 +11841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>131</v>
       </c>
@@ -11709,7 +11861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>131</v>
       </c>
@@ -11729,7 +11881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>401</v>
       </c>
@@ -11749,7 +11901,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>401</v>
       </c>
@@ -11769,7 +11921,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>401</v>
       </c>
@@ -11789,7 +11941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>401</v>
       </c>
@@ -11809,7 +11961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>401</v>
       </c>
@@ -11829,7 +11981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>401</v>
       </c>
@@ -11849,7 +12001,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>401</v>
       </c>
@@ -11869,7 +12021,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>401</v>
       </c>
@@ -11889,7 +12041,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:6">
+    <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>401</v>
       </c>
@@ -11909,7 +12061,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>401</v>
       </c>
@@ -11929,7 +12081,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>401</v>
       </c>
@@ -11949,7 +12101,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>401</v>
       </c>
@@ -11969,7 +12121,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>133</v>
       </c>
@@ -11989,7 +12141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>133</v>
       </c>
@@ -12009,7 +12161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>133</v>
       </c>
@@ -12029,7 +12181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>133</v>
       </c>
@@ -12049,7 +12201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>133</v>
       </c>
@@ -12069,7 +12221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>133</v>
       </c>
@@ -12089,7 +12241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>133</v>
       </c>
@@ -12109,7 +12261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>133</v>
       </c>
@@ -12129,7 +12281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>133</v>
       </c>
@@ -12149,7 +12301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>133</v>
       </c>
@@ -12169,7 +12321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>133</v>
       </c>
@@ -12189,7 +12341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>133</v>
       </c>
@@ -12209,7 +12361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>133</v>
       </c>
@@ -12229,7 +12381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>133</v>
       </c>
@@ -12249,7 +12401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>139</v>
       </c>
@@ -12269,7 +12421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>139</v>
       </c>
@@ -12289,7 +12441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>139</v>
       </c>
@@ -12309,7 +12461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>139</v>
       </c>
@@ -12329,7 +12481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>139</v>
       </c>
@@ -12349,7 +12501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>139</v>
       </c>
@@ -12369,7 +12521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>139</v>
       </c>
@@ -12389,7 +12541,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>139</v>
       </c>
@@ -12409,7 +12561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>139</v>
       </c>
@@ -12429,7 +12581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>139</v>
       </c>
@@ -12449,7 +12601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>139</v>
       </c>
@@ -12469,7 +12621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>139</v>
       </c>
@@ -12489,7 +12641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>139</v>
       </c>
@@ -12509,7 +12661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>139</v>
       </c>
@@ -12529,7 +12681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>139</v>
       </c>
@@ -12549,7 +12701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>139</v>
       </c>
@@ -12569,7 +12721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>139</v>
       </c>
@@ -12589,7 +12741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>139</v>
       </c>
@@ -12609,7 +12761,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>149</v>
       </c>
@@ -12629,7 +12781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>149</v>
       </c>
@@ -12649,7 +12801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>149</v>
       </c>
@@ -12669,7 +12821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>149</v>
       </c>
@@ -12689,7 +12841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>149</v>
       </c>
@@ -12709,7 +12861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>149</v>
       </c>
@@ -12729,7 +12881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>149</v>
       </c>
@@ -12749,7 +12901,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>149</v>
       </c>
@@ -12769,7 +12921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>149</v>
       </c>
@@ -12789,7 +12941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>149</v>
       </c>
@@ -12809,7 +12961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>149</v>
       </c>
@@ -12829,7 +12981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>149</v>
       </c>
@@ -12849,7 +13001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>149</v>
       </c>
@@ -12869,7 +13021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>149</v>
       </c>
@@ -12889,7 +13041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>149</v>
       </c>
@@ -12909,7 +13061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>149</v>
       </c>
@@ -12929,7 +13081,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>149</v>
       </c>
@@ -12949,7 +13101,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>149</v>
       </c>
@@ -12969,7 +13121,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>149</v>
       </c>
@@ -12989,7 +13141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="319" s="3" customFormat="1" spans="1:6">
+    <row r="319" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>149</v>
       </c>
@@ -13009,7 +13161,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="320" s="3" customFormat="1" spans="1:6">
+    <row r="320" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>149</v>
       </c>
@@ -13029,7 +13181,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="321" s="3" customFormat="1" spans="1:6">
+    <row r="321" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>149</v>
       </c>
@@ -13049,7 +13201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" s="3" customFormat="1" spans="1:6">
+    <row r="322" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="33" t="s">
         <v>163</v>
       </c>
@@ -13069,7 +13221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" s="3" customFormat="1" spans="1:6">
+    <row r="323" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="33" t="s">
         <v>163</v>
       </c>
@@ -13089,7 +13241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" s="3" customFormat="1" spans="1:6">
+    <row r="324" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="33" t="s">
         <v>163</v>
       </c>
@@ -13109,7 +13261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" s="3" customFormat="1" spans="1:6">
+    <row r="325" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="33" t="s">
         <v>163</v>
       </c>
@@ -13129,7 +13281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" s="3" customFormat="1" spans="1:6">
+    <row r="326" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="33" t="s">
         <v>165</v>
       </c>
@@ -13149,7 +13301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" s="3" customFormat="1" spans="1:6">
+    <row r="327" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="33" t="s">
         <v>165</v>
       </c>
@@ -13169,7 +13321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" s="3" customFormat="1" spans="1:6">
+    <row r="328" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="33" t="s">
         <v>165</v>
       </c>
@@ -13189,7 +13341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" s="3" customFormat="1" spans="1:6">
+    <row r="329" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="33" t="s">
         <v>165</v>
       </c>
@@ -13209,7 +13361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" s="3" customFormat="1" spans="1:6">
+    <row r="330" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="33" t="s">
         <v>165</v>
       </c>
@@ -13229,7 +13381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" s="3" customFormat="1" spans="1:6">
+    <row r="331" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="33" t="s">
         <v>165</v>
       </c>
@@ -13249,7 +13401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" s="3" customFormat="1" spans="1:6">
+    <row r="332" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="33" t="s">
         <v>167</v>
       </c>
@@ -13269,7 +13421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" s="3" customFormat="1" spans="1:6">
+    <row r="333" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="33" t="s">
         <v>167</v>
       </c>
@@ -13289,7 +13441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" s="3" customFormat="1" spans="1:6">
+    <row r="334" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="33" t="s">
         <v>167</v>
       </c>
@@ -13309,7 +13461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" s="3" customFormat="1" spans="1:6">
+    <row r="335" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="33" t="s">
         <v>167</v>
       </c>
@@ -13329,7 +13481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" s="3" customFormat="1" spans="1:6">
+    <row r="336" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="33" t="s">
         <v>167</v>
       </c>
@@ -13349,7 +13501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" s="3" customFormat="1" spans="1:6">
+    <row r="337" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="33" t="s">
         <v>167</v>
       </c>
@@ -13369,7 +13521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" s="3" customFormat="1" spans="1:6">
+    <row r="338" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="33" t="s">
         <v>169</v>
       </c>
@@ -13389,7 +13541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="33" t="s">
         <v>169</v>
       </c>
@@ -13409,7 +13561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="33" t="s">
         <v>169</v>
       </c>
@@ -13429,7 +13581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="33" t="s">
         <v>169</v>
       </c>
@@ -13449,7 +13601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>171</v>
       </c>
@@ -13469,7 +13621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>171</v>
       </c>
@@ -13489,7 +13641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>171</v>
       </c>
@@ -13509,7 +13661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>171</v>
       </c>
@@ -13529,7 +13681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>173</v>
       </c>
@@ -13549,7 +13701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>173</v>
       </c>
@@ -13569,7 +13721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>173</v>
       </c>
@@ -13589,7 +13741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>173</v>
       </c>
@@ -13609,7 +13761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>173</v>
       </c>
@@ -13629,7 +13781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>173</v>
       </c>
@@ -13649,7 +13801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>173</v>
       </c>
@@ -13669,7 +13821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>173</v>
       </c>
@@ -13689,7 +13841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>175</v>
       </c>
@@ -13709,7 +13861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>175</v>
       </c>
@@ -13729,7 +13881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>175</v>
       </c>
@@ -13749,7 +13901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>175</v>
       </c>
@@ -13769,7 +13921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>175</v>
       </c>
@@ -13789,7 +13941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>175</v>
       </c>
@@ -13809,7 +13961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>175</v>
       </c>
@@ -13829,7 +13981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>175</v>
       </c>
@@ -13849,7 +14001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>177</v>
       </c>
@@ -13869,7 +14021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>177</v>
       </c>
@@ -13889,7 +14041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>177</v>
       </c>
@@ -13909,7 +14061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>177</v>
       </c>
@@ -13929,7 +14081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>177</v>
       </c>
@@ -13949,7 +14101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>177</v>
       </c>
@@ -13969,7 +14121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>177</v>
       </c>
@@ -13989,7 +14141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>177</v>
       </c>
@@ -14009,7 +14161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>177</v>
       </c>
@@ -14029,7 +14181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>179</v>
       </c>
@@ -14049,7 +14201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>179</v>
       </c>
@@ -14069,7 +14221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>179</v>
       </c>
@@ -14089,7 +14241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>179</v>
       </c>
@@ -14109,7 +14261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>179</v>
       </c>
@@ -14129,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>179</v>
       </c>
@@ -14149,7 +14301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>179</v>
       </c>
@@ -14169,7 +14321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>179</v>
       </c>
@@ -14189,7 +14341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>181</v>
       </c>
@@ -14209,7 +14361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>181</v>
       </c>
@@ -14229,7 +14381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>181</v>
       </c>
@@ -14249,7 +14401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>181</v>
       </c>
@@ -14269,7 +14421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>181</v>
       </c>
@@ -14289,7 +14441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" s="3" customFormat="1" spans="1:6">
+    <row r="384" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>181</v>
       </c>
@@ -14309,7 +14461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" s="3" customFormat="1" spans="1:6">
+    <row r="385" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>181</v>
       </c>
@@ -14329,7 +14481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" s="3" customFormat="1" spans="1:6">
+    <row r="386" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>181</v>
       </c>
@@ -14349,7 +14501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" s="3" customFormat="1" spans="1:6">
+    <row r="387" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="37" t="s">
         <v>183</v>
       </c>
@@ -14369,7 +14521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" s="3" customFormat="1" spans="1:6">
+    <row r="388" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="37" t="s">
         <v>183</v>
       </c>
@@ -14389,7 +14541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="37" t="s">
         <v>183</v>
       </c>
@@ -14409,7 +14561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="37" t="s">
         <v>183</v>
       </c>
@@ -14429,7 +14581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="37" t="s">
         <v>183</v>
       </c>
@@ -14449,7 +14601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>191</v>
       </c>
@@ -14469,7 +14621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>191</v>
       </c>
@@ -14489,7 +14641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>191</v>
       </c>
@@ -14509,7 +14661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>191</v>
       </c>
@@ -14529,7 +14681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>191</v>
       </c>
@@ -14549,7 +14701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>191</v>
       </c>
@@ -14569,7 +14721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>191</v>
       </c>
@@ -14589,7 +14741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>191</v>
       </c>
@@ -14609,7 +14761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>191</v>
       </c>
@@ -14629,7 +14781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>191</v>
       </c>
@@ -14649,7 +14801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>191</v>
       </c>
@@ -14669,7 +14821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>193</v>
       </c>
@@ -14689,7 +14841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>193</v>
       </c>
@@ -14709,7 +14861,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>193</v>
       </c>
@@ -14729,7 +14881,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>193</v>
       </c>
@@ -14749,7 +14901,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>195</v>
       </c>
@@ -14769,7 +14921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>197</v>
       </c>
@@ -14789,7 +14941,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="39" t="s">
         <v>199</v>
       </c>
@@ -14809,7 +14961,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="39" t="s">
         <v>199</v>
       </c>
@@ -14829,7 +14981,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="39" t="s">
         <v>199</v>
       </c>
@@ -14849,7 +15001,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="39" t="s">
         <v>199</v>
       </c>
@@ -14869,7 +15021,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="40" t="s">
         <v>201</v>
       </c>
@@ -14889,7 +15041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="37" t="s">
         <v>203</v>
       </c>
@@ -14909,7 +15061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="39" t="s">
         <v>205</v>
       </c>
@@ -14929,7 +15081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="39" t="s">
         <v>205</v>
       </c>
@@ -14949,7 +15101,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="39" t="s">
         <v>205</v>
       </c>
@@ -14969,7 +15121,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="39" t="s">
         <v>205</v>
       </c>
@@ -14989,7 +15141,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="40" t="s">
         <v>207</v>
       </c>
@@ -15009,7 +15161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>209</v>
       </c>
@@ -15029,7 +15181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>209</v>
       </c>
@@ -15049,7 +15201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>209</v>
       </c>
@@ -15069,7 +15221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>209</v>
       </c>
@@ -15089,7 +15241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" s="3" customFormat="1" spans="1:6">
+    <row r="424" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>209</v>
       </c>
@@ -15109,7 +15261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" s="3" customFormat="1" spans="1:6">
+    <row r="425" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>209</v>
       </c>
@@ -15129,7 +15281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" s="3" customFormat="1" spans="1:6">
+    <row r="426" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>209</v>
       </c>
@@ -15149,7 +15301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>211</v>
       </c>
@@ -15169,7 +15321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>211</v>
       </c>
@@ -15189,14 +15341,454 @@
         <v>25</v>
       </c>
     </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B429" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D429" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E429" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F429" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B430" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D430" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="E430" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B431" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D431" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E431" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B432" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D432" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E432" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B433" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D433" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E433" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F433" s="68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B434" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D434" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="E434" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="F434" s="69" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B435" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D435" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E435" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F435" s="68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B436" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D436" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E436" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F436" s="69" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B437" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C437" s="66" t="s">
+        <v>532</v>
+      </c>
+      <c r="D437" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="E437" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="F437" s="68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B438" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D438" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E438" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F438" s="68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B439" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D439" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="E439" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="F439" s="69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B440" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D440" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E440" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F440" s="68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B441" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D441" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E441" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F441" s="69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B442" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C442" s="66" t="s">
+        <v>532</v>
+      </c>
+      <c r="D442" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="E442" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="F442" s="68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B443" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C443" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="D443" t="s">
+        <v>539</v>
+      </c>
+      <c r="E443" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="F443" s="69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B444" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D444" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E444" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F444" s="68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B445" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D445" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="E445" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="F445" s="69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B446" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D446" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E446" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="F446" s="68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B447" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D447" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E447" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F447" s="69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B448" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C448" s="66" t="s">
+        <v>532</v>
+      </c>
+      <c r="D448" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="E448" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="F448" s="69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B449" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C449" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="D449" t="s">
+        <v>539</v>
+      </c>
+      <c r="E449" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="F449" s="69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B450" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="C450" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="D450" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="E450" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="F450" s="69" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="B72:B75">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="双屏确认" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571">
   <si>
     <t>NI 联网核查</t>
   </si>
@@ -1778,7 +1778,28 @@
     <t>acctName</t>
   </si>
   <si>
-    <t>TOTAL_BAL</t>
+    <t>TOTAL_BAL1</t>
+  </si>
+  <si>
+    <t>receiveAcct</t>
+  </si>
+  <si>
+    <t>receiveName</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>zhye</t>
+  </si>
+  <si>
+    <t>yiflx</t>
+  </si>
+  <si>
+    <t>本息合计</t>
+  </si>
+  <si>
+    <t>AllBal</t>
   </si>
   <si>
     <t>账户管理签约</t>
@@ -2081,8 +2102,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -2168,13 +2189,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2183,19 +2197,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2208,15 +2222,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2230,21 +2273,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2265,41 +2302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,6 +2320,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,7 +2382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,7 +2394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,25 +2424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2415,13 +2448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,31 +2466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,19 +2484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2499,13 +2526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,19 +2538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,11 +2596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2588,7 +2615,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2604,45 +2631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2672,16 +2660,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2690,134 +2711,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2889,10 +2910,10 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13"/>
@@ -7423,12 +7444,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J457" sqref="J457"/>
+      <selection pane="bottomLeft" activeCell="G381" sqref="G381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -15047,165 +15068,165 @@
       <c r="E381" t="s">
         <v>494</v>
       </c>
-      <c r="F381" s="24" t="s">
-        <v>396</v>
+      <c r="F381" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="38" t="s">
+      <c r="A382" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B382" t="s">
+        <v>492</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D382" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E382" t="s">
+        <v>495</v>
+      </c>
+      <c r="F382" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B383" t="s">
+        <v>492</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D383" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E383" t="s">
+        <v>496</v>
+      </c>
+      <c r="F383" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B384" t="s">
+        <v>492</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D384" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="E384" t="s">
+        <v>498</v>
+      </c>
+      <c r="F384" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B385" t="s">
+        <v>492</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D385" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E385" t="s">
+        <v>499</v>
+      </c>
+      <c r="F385" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B386" t="s">
+        <v>492</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D386" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E386" t="s">
+        <v>501</v>
+      </c>
+      <c r="F386" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B382" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="C382" s="38" t="s">
+      <c r="B387" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C387" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D382" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="E382" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="F382" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="383" ht="14.4" spans="1:6">
-      <c r="A383" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B383" t="s">
-        <v>498</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D383" t="s">
-        <v>129</v>
-      </c>
-      <c r="E383" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="F383" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="384" ht="14.4" spans="1:6">
-      <c r="A384" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B384" t="s">
-        <v>498</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D384" t="s">
-        <v>500</v>
-      </c>
-      <c r="E384" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="F384" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="385" ht="14.4" spans="1:6">
-      <c r="A385" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B385" t="s">
-        <v>498</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D385" t="s">
-        <v>502</v>
-      </c>
-      <c r="E385" s="30" t="s">
+      <c r="D387" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="F385" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="386" ht="14.4" spans="1:6">
-      <c r="A386" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B386" t="s">
-        <v>498</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D386" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="E386" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="F386" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="387" s="3" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A387" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B387" t="s">
-        <v>498</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D387" t="s">
-        <v>283</v>
-      </c>
-      <c r="E387" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="F387" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="388" s="3" customFormat="1" ht="14.4" spans="1:6">
+      <c r="E387" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="F387" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="388" ht="14.4" spans="1:6">
       <c r="A388" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B388" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D388" s="26" t="s">
-        <v>279</v>
+        <v>144</v>
+      </c>
+      <c r="D388" t="s">
+        <v>129</v>
       </c>
       <c r="E388" s="30" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="389" s="3" customFormat="1" ht="14.4" spans="1:6">
+    <row r="389" ht="14.4" spans="1:6">
       <c r="A389" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B389" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D389" s="26" t="s">
-        <v>280</v>
+        <v>250</v>
+      </c>
+      <c r="D389" t="s">
+        <v>507</v>
       </c>
       <c r="E389" s="30" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>25</v>
@@ -15213,19 +15234,19 @@
     </row>
     <row r="390" ht="14.4" spans="1:6">
       <c r="A390" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B390" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="D390" t="s">
-        <v>251</v>
+        <v>509</v>
       </c>
       <c r="E390" s="30" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="F390" s="5" t="s">
         <v>25</v>
@@ -15233,236 +15254,221 @@
     </row>
     <row r="391" ht="14.4" spans="1:6">
       <c r="A391" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B391" t="s">
+        <v>505</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D391" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E391" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392" s="3" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A392" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B392" t="s">
+        <v>505</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D392" t="s">
+        <v>283</v>
+      </c>
+      <c r="E392" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="393" s="3" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A393" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B393" t="s">
+        <v>505</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D393" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E393" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" s="3" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A394" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B394" t="s">
+        <v>505</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D394" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E394" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" ht="14.4" spans="1:6">
+      <c r="A395" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B391" t="s">
-        <v>506</v>
-      </c>
-      <c r="C391" s="4" t="s">
+      <c r="B395" t="s">
+        <v>513</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D395" t="s">
+        <v>251</v>
+      </c>
+      <c r="E395" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" ht="14.4" spans="1:6">
+      <c r="A396" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B396" t="s">
+        <v>513</v>
+      </c>
+      <c r="C396" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D396" t="s">
         <v>273</v>
       </c>
-      <c r="E391" s="30" t="s">
+      <c r="E396" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="F391" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
-      <c r="A392" s="41" t="s">
+      <c r="F396" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B392" s="41" t="s">
+      <c r="B397" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C392" s="4" t="s">
+      <c r="C397" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D397" t="s">
         <v>243</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E397" t="s">
         <v>249</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F397" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="G392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
-      <c r="A393" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B393" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D393" t="s">
-        <v>439</v>
-      </c>
-      <c r="E393" t="s">
-        <v>440</v>
-      </c>
-      <c r="F393" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
-      <c r="A394" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B394" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D394" t="s">
-        <v>441</v>
-      </c>
-      <c r="E394" t="s">
-        <v>442</v>
-      </c>
-      <c r="F394" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
-      <c r="A395" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B395" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D395" t="s">
-        <v>507</v>
-      </c>
-      <c r="E395" t="s">
-        <v>508</v>
-      </c>
-      <c r="F395" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G395">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
-      <c r="A396" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B396" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D396" t="s">
-        <v>243</v>
-      </c>
-      <c r="E396" t="s">
-        <v>249</v>
-      </c>
-      <c r="F396" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="G396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" ht="14.4" spans="1:7">
-      <c r="A397" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B397" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D397" t="s">
-        <v>439</v>
-      </c>
-      <c r="E397" t="s">
-        <v>440</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="G397">
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7">
-      <c r="A398" s="41" t="s">
+      <c r="A398" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B398" s="41" t="s">
+      <c r="B398" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D398" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E398" t="s">
-        <v>442</v>
-      </c>
-      <c r="F398" s="42" t="s">
-        <v>369</v>
+        <v>440</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G398">
         <v>0</v>
       </c>
     </row>
-    <row r="399" ht="14.4" spans="1:7">
-      <c r="A399" s="41" t="s">
+    <row r="399" spans="1:7">
+      <c r="A399" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B399" s="41" t="s">
+      <c r="B399" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C399" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D399" t="s">
+        <v>441</v>
+      </c>
+      <c r="E399" t="s">
+        <v>442</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B400" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C400" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D399" t="s">
-        <v>507</v>
-      </c>
-      <c r="E399" t="s">
-        <v>508</v>
-      </c>
-      <c r="F399" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="G399">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
-      <c r="A400" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B400" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="D400" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E400" t="s">
-        <v>511</v>
-      </c>
-      <c r="F400" s="42" t="s">
-        <v>369</v>
+        <v>515</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G400">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:7">
-      <c r="A401" s="41" t="s">
+      <c r="A401" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B401" s="41" t="s">
+      <c r="B401" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C401" s="4" t="s">
@@ -15474,18 +15480,18 @@
       <c r="E401" t="s">
         <v>249</v>
       </c>
-      <c r="F401" s="42" t="s">
-        <v>512</v>
+      <c r="F401" s="41" t="s">
+        <v>369</v>
       </c>
       <c r="G401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
-      <c r="A402" s="41" t="s">
+    <row r="402" ht="14.4" spans="1:7">
+      <c r="A402" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B402" s="41" t="s">
+      <c r="B402" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C402" s="4" t="s">
@@ -15498,17 +15504,17 @@
         <v>440</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>133</v>
+        <v>516</v>
       </c>
       <c r="G402">
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:7">
-      <c r="A403" s="41" t="s">
+      <c r="A403" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B403" s="41" t="s">
+      <c r="B403" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C403" s="4" t="s">
@@ -15520,235 +15526,235 @@
       <c r="E403" t="s">
         <v>442</v>
       </c>
-      <c r="F403" s="42" t="s">
-        <v>512</v>
+      <c r="F403" s="41" t="s">
+        <v>369</v>
       </c>
       <c r="G403">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
-      <c r="A404" s="41" t="s">
+    <row r="404" ht="14.4" spans="1:7">
+      <c r="A404" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B404" s="41" t="s">
+      <c r="B404" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D404" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E404" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>133</v>
+        <v>516</v>
       </c>
       <c r="G404">
         <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:7">
-      <c r="A405" s="41" t="s">
+      <c r="A405" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D405" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E405" t="s">
-        <v>514</v>
-      </c>
-      <c r="F405" s="42" t="s">
-        <v>512</v>
+        <v>518</v>
+      </c>
+      <c r="F405" s="41" t="s">
+        <v>369</v>
       </c>
       <c r="G405">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:7">
-      <c r="A406" s="41" t="s">
+      <c r="A406" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B406" s="41" t="s">
+      <c r="B406" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D406" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="E406" t="s">
-        <v>516</v>
-      </c>
-      <c r="F406" s="5" t="s">
-        <v>133</v>
+        <v>249</v>
+      </c>
+      <c r="F406" s="41" t="s">
+        <v>519</v>
       </c>
       <c r="G406">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:7">
-      <c r="A407" s="41" t="s">
+      <c r="A407" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B407" s="41" t="s">
+      <c r="B407" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="D407" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="E407" t="s">
-        <v>249</v>
-      </c>
-      <c r="F407" s="42" t="s">
-        <v>517</v>
+        <v>440</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="G407">
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="41" t="s">
+      <c r="A408" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B408" s="41" t="s">
+      <c r="B408" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D408" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E408" t="s">
-        <v>440</v>
-      </c>
-      <c r="F408" s="5" t="s">
-        <v>146</v>
+        <v>442</v>
+      </c>
+      <c r="F408" s="41" t="s">
+        <v>519</v>
       </c>
       <c r="G408">
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7">
-      <c r="A409" s="41" t="s">
+      <c r="A409" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B409" s="41" t="s">
+      <c r="B409" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D409" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="E409" t="s">
-        <v>442</v>
-      </c>
-      <c r="F409" s="42" t="s">
-        <v>517</v>
+        <v>515</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="G409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B410" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D410" t="s">
+        <v>520</v>
+      </c>
+      <c r="E410" t="s">
+        <v>521</v>
+      </c>
+      <c r="F410" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G410">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
-      <c r="A410" s="41" t="s">
+    <row r="411" spans="1:7">
+      <c r="A411" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B410" s="41" t="s">
+      <c r="B411" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D410" t="s">
-        <v>507</v>
-      </c>
-      <c r="E410" t="s">
-        <v>508</v>
-      </c>
-      <c r="F410" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G410">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7">
-      <c r="A411" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B411" s="41" t="s">
-        <v>204</v>
-      </c>
       <c r="C411" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D411" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E411" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G411">
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="41" t="s">
+      <c r="A412" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B412" s="41" t="s">
+      <c r="B412" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D412" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="E412" t="s">
-        <v>516</v>
-      </c>
-      <c r="F412" s="5" t="s">
-        <v>146</v>
+        <v>249</v>
+      </c>
+      <c r="F412" s="41" t="s">
+        <v>524</v>
       </c>
       <c r="G412">
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:7">
-      <c r="A413" s="41" t="s">
+      <c r="A413" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B413" s="41" t="s">
+      <c r="B413" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D413" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="E413" t="s">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>146</v>
@@ -15758,272 +15764,287 @@
       </c>
     </row>
     <row r="414" spans="1:7">
-      <c r="A414" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B414" s="41" t="s">
-        <v>520</v>
+      <c r="A414" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B414" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="D414" t="s">
-        <v>243</v>
+        <v>441</v>
       </c>
       <c r="E414" t="s">
-        <v>249</v>
-      </c>
-      <c r="F414" s="42" t="s">
-        <v>521</v>
+        <v>442</v>
+      </c>
+      <c r="F414" s="41" t="s">
+        <v>524</v>
       </c>
       <c r="G414">
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:7">
-      <c r="A415" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B415" s="41" t="s">
+      <c r="A415" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B415" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D415" t="s">
+        <v>514</v>
+      </c>
+      <c r="E415" t="s">
+        <v>515</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B416" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D416" t="s">
         <v>520</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D415" t="s">
-        <v>439</v>
-      </c>
-      <c r="E415" t="s">
-        <v>440</v>
-      </c>
-      <c r="F415" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
-      <c r="A416" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B416" s="41" t="s">
-        <v>520</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D416" t="s">
-        <v>441</v>
-      </c>
       <c r="E416" t="s">
-        <v>442</v>
-      </c>
-      <c r="F416" s="42" t="s">
         <v>521</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="G416">
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:7">
-      <c r="A417" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B417" s="41" t="s">
-        <v>520</v>
+      <c r="A417" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B417" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D417" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="E417" t="s">
-        <v>508</v>
-      </c>
-      <c r="F417" s="42" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="G417">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:7">
-      <c r="A418" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B418" s="41" t="s">
-        <v>520</v>
+      <c r="A418" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B418" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D418" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E418" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G418">
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:7">
-      <c r="A419" s="41" t="s">
+      <c r="A419" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B419" s="41" t="s">
-        <v>520</v>
+      <c r="B419" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D419" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="E419" t="s">
-        <v>516</v>
-      </c>
-      <c r="F419" s="42" t="s">
-        <v>521</v>
+        <v>249</v>
+      </c>
+      <c r="F419" s="41" t="s">
+        <v>528</v>
       </c>
       <c r="G419">
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:7">
-      <c r="A420" s="41" t="s">
+      <c r="A420" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B420" s="41" t="s">
-        <v>520</v>
+      <c r="B420" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D420" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="E420" t="s">
-        <v>519</v>
-      </c>
-      <c r="F420" s="42" t="s">
-        <v>521</v>
+        <v>440</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G420">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="43" t="s">
+    <row r="421" spans="1:7">
+      <c r="A421" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B421" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D421" t="s">
+        <v>441</v>
+      </c>
+      <c r="E421" t="s">
+        <v>442</v>
+      </c>
+      <c r="F421" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B422" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D422" t="s">
+        <v>514</v>
+      </c>
+      <c r="E422" t="s">
+        <v>515</v>
+      </c>
+      <c r="F422" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="G422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B423" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D423" t="s">
+        <v>520</v>
+      </c>
+      <c r="E423" t="s">
+        <v>521</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B424" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D424" t="s">
+        <v>522</v>
+      </c>
+      <c r="E424" t="s">
+        <v>523</v>
+      </c>
+      <c r="F424" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B425" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D425" t="s">
+        <v>525</v>
+      </c>
+      <c r="E425" t="s">
+        <v>526</v>
+      </c>
+      <c r="F425" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B421" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D421" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E421" t="s">
-        <v>421</v>
-      </c>
-      <c r="F421" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B422" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D422" t="s">
-        <v>271</v>
-      </c>
-      <c r="E422" t="s">
-        <v>523</v>
-      </c>
-      <c r="F422" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B423" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="C423" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D423" t="s">
-        <v>269</v>
-      </c>
-      <c r="E423" t="s">
-        <v>459</v>
-      </c>
-      <c r="F423" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="A424" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B424" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="C424" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D424" t="s">
-        <v>483</v>
-      </c>
-      <c r="E424" t="s">
-        <v>461</v>
-      </c>
-      <c r="F424" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B425" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D425" t="s">
-        <v>524</v>
-      </c>
-      <c r="E425" t="s">
-        <v>525</v>
-      </c>
-      <c r="F425" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="B426" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>144</v>
@@ -16034,16 +16055,16 @@
       <c r="E426" t="s">
         <v>421</v>
       </c>
-      <c r="F426" s="42" t="s">
-        <v>521</v>
+      <c r="F426" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="427" spans="1:6">
-      <c r="A427" s="65" t="s">
-        <v>226</v>
+      <c r="A427" s="43" t="s">
+        <v>224</v>
       </c>
       <c r="B427" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>250</v>
@@ -16052,18 +16073,18 @@
         <v>271</v>
       </c>
       <c r="E427" t="s">
-        <v>523</v>
-      </c>
-      <c r="F427" s="42" t="s">
-        <v>521</v>
+        <v>530</v>
+      </c>
+      <c r="F427" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="428" spans="1:6">
-      <c r="A428" s="65" t="s">
-        <v>226</v>
+      <c r="A428" s="43" t="s">
+        <v>224</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>253</v>
@@ -16074,16 +16095,16 @@
       <c r="E428" t="s">
         <v>459</v>
       </c>
-      <c r="F428" s="42" t="s">
-        <v>521</v>
+      <c r="F428" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" s="65" t="s">
-        <v>226</v>
+      <c r="A429" s="43" t="s">
+        <v>224</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>256</v>
@@ -16094,36 +16115,36 @@
       <c r="E429" t="s">
         <v>461</v>
       </c>
-      <c r="F429" s="42" t="s">
-        <v>521</v>
+      <c r="F429" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="65" t="s">
-        <v>226</v>
+      <c r="A430" s="43" t="s">
+        <v>224</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D430" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E430" t="s">
-        <v>525</v>
-      </c>
-      <c r="F430" s="42" t="s">
-        <v>521</v>
+        <v>532</v>
+      </c>
+      <c r="F430" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="431" spans="1:6">
-      <c r="A431" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B431" t="s">
-        <v>527</v>
+      <c r="A431" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B431" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>144</v>
@@ -16134,16 +16155,16 @@
       <c r="E431" t="s">
         <v>421</v>
       </c>
-      <c r="F431" s="42" t="s">
-        <v>521</v>
+      <c r="F431" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="432" spans="1:6">
-      <c r="A432" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B432" t="s">
-        <v>527</v>
+      <c r="A432" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B432" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>250</v>
@@ -16152,18 +16173,18 @@
         <v>271</v>
       </c>
       <c r="E432" t="s">
-        <v>523</v>
-      </c>
-      <c r="F432" s="42" t="s">
-        <v>521</v>
+        <v>530</v>
+      </c>
+      <c r="F432" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="433" spans="1:6">
-      <c r="A433" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B433" t="s">
-        <v>527</v>
+      <c r="A433" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B433" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>253</v>
@@ -16174,16 +16195,16 @@
       <c r="E433" t="s">
         <v>459</v>
       </c>
-      <c r="F433" s="42" t="s">
-        <v>521</v>
+      <c r="F433" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="434" spans="1:6">
-      <c r="A434" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B434" t="s">
-        <v>527</v>
+      <c r="A434" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B434" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>256</v>
@@ -16194,28 +16215,28 @@
       <c r="E434" t="s">
         <v>461</v>
       </c>
-      <c r="F434" s="42" t="s">
-        <v>521</v>
+      <c r="F434" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="435" spans="1:6">
-      <c r="A435" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B435" t="s">
-        <v>527</v>
+      <c r="A435" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B435" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D435" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E435" t="s">
+        <v>532</v>
+      </c>
+      <c r="F435" s="41" t="s">
         <v>528</v>
-      </c>
-      <c r="F435" s="42" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -16223,119 +16244,119 @@
         <v>230</v>
       </c>
       <c r="B436" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D436" t="s">
-        <v>529</v>
+        <v>144</v>
+      </c>
+      <c r="D436" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="E436" t="s">
-        <v>530</v>
-      </c>
-      <c r="F436" s="42" t="s">
-        <v>521</v>
+        <v>421</v>
+      </c>
+      <c r="F436" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B437" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D437" s="44" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="D437" t="s">
+        <v>271</v>
       </c>
       <c r="E437" t="s">
-        <v>421</v>
-      </c>
-      <c r="F437" s="42" t="s">
-        <v>521</v>
+        <v>530</v>
+      </c>
+      <c r="F437" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B438" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D438" t="s">
-        <v>532</v>
+        <v>269</v>
       </c>
       <c r="E438" t="s">
-        <v>523</v>
-      </c>
-      <c r="F438" s="42" t="s">
-        <v>521</v>
+        <v>459</v>
+      </c>
+      <c r="F438" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B439" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D439" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="E439" t="s">
-        <v>459</v>
-      </c>
-      <c r="F439" s="42" t="s">
-        <v>521</v>
+        <v>461</v>
+      </c>
+      <c r="F439" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B440" t="s">
+        <v>534</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D440" t="s">
         <v>531</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D440" t="s">
-        <v>534</v>
-      </c>
       <c r="E440" t="s">
-        <v>461</v>
-      </c>
-      <c r="F440" s="42" t="s">
-        <v>521</v>
+        <v>535</v>
+      </c>
+      <c r="F440" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B441" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D441" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E441" t="s">
-        <v>536</v>
-      </c>
-      <c r="F441" s="42" t="s">
-        <v>521</v>
+        <v>537</v>
+      </c>
+      <c r="F441" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -16343,19 +16364,19 @@
         <v>228</v>
       </c>
       <c r="B442" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D442" t="s">
-        <v>537</v>
+        <v>144</v>
+      </c>
+      <c r="D442" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="E442" t="s">
-        <v>538</v>
-      </c>
-      <c r="F442" s="42" t="s">
-        <v>521</v>
+        <v>421</v>
+      </c>
+      <c r="F442" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -16363,132 +16384,132 @@
         <v>228</v>
       </c>
       <c r="B443" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D443" t="s">
         <v>539</v>
       </c>
       <c r="E443" t="s">
-        <v>540</v>
-      </c>
-      <c r="F443" s="42" t="s">
-        <v>521</v>
+        <v>530</v>
+      </c>
+      <c r="F443" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B444" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D444" s="44" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="D444" t="s">
+        <v>540</v>
       </c>
       <c r="E444" t="s">
-        <v>421</v>
-      </c>
-      <c r="F444" s="5" t="s">
-        <v>25</v>
+        <v>459</v>
+      </c>
+      <c r="F444" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B445" t="s">
+        <v>538</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D445" t="s">
         <v>541</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D445" t="s">
-        <v>271</v>
-      </c>
       <c r="E445" t="s">
-        <v>523</v>
-      </c>
-      <c r="F445" s="5" t="s">
-        <v>25</v>
+        <v>461</v>
+      </c>
+      <c r="F445" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B446" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D446" t="s">
-        <v>269</v>
+        <v>542</v>
       </c>
       <c r="E446" t="s">
-        <v>270</v>
-      </c>
-      <c r="F446" s="5" t="s">
-        <v>25</v>
+        <v>543</v>
+      </c>
+      <c r="F446" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B447" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D447" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="E447" t="s">
-        <v>542</v>
-      </c>
-      <c r="F447" s="5" t="s">
-        <v>25</v>
+        <v>545</v>
+      </c>
+      <c r="F447" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B448" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D448" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="E448" t="s">
-        <v>543</v>
-      </c>
-      <c r="F448" s="5" t="s">
-        <v>25</v>
+        <v>547</v>
+      </c>
+      <c r="F448" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B449" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="44" t="s">
         <v>243</v>
       </c>
       <c r="E449" t="s">
@@ -16500,10 +16521,10 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B450" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>250</v>
@@ -16512,7 +16533,7 @@
         <v>271</v>
       </c>
       <c r="E450" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F450" s="5" t="s">
         <v>25</v>
@@ -16520,10 +16541,10 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B451" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>253</v>
@@ -16540,10 +16561,10 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B452" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>256</v>
@@ -16552,7 +16573,7 @@
         <v>483</v>
       </c>
       <c r="E452" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F452" s="5" t="s">
         <v>25</v>
@@ -16560,19 +16581,19 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B453" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D453" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E453" t="s">
-        <v>309</v>
+        <v>550</v>
       </c>
       <c r="F453" s="5" t="s">
         <v>25</v>
@@ -16583,16 +16604,16 @@
         <v>240</v>
       </c>
       <c r="B454" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D454" t="s">
-        <v>547</v>
+        <v>243</v>
       </c>
       <c r="E454" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>25</v>
@@ -16600,19 +16621,19 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B455" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="D455" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E455" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="F455" s="5" t="s">
         <v>25</v>
@@ -16620,19 +16641,19 @@
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B456" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D456" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E456" t="s">
-        <v>545</v>
+        <v>270</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>25</v>
@@ -16640,19 +16661,19 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B457" t="s">
+        <v>551</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D457" t="s">
+        <v>483</v>
+      </c>
+      <c r="E457" t="s">
         <v>549</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D457" t="s">
-        <v>269</v>
-      </c>
-      <c r="E457" t="s">
-        <v>270</v>
       </c>
       <c r="F457" s="5" t="s">
         <v>25</v>
@@ -16660,19 +16681,19 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B458" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D458" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="E458" t="s">
-        <v>542</v>
+        <v>309</v>
       </c>
       <c r="F458" s="5" t="s">
         <v>25</v>
@@ -16680,19 +16701,19 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B459" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D459" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E459" t="s">
-        <v>309</v>
+        <v>555</v>
       </c>
       <c r="F459" s="5" t="s">
         <v>25</v>
@@ -16703,16 +16724,16 @@
         <v>242</v>
       </c>
       <c r="B460" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D460" t="s">
-        <v>547</v>
+        <v>243</v>
       </c>
       <c r="E460" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
       <c r="F460" s="5" t="s">
         <v>25</v>
@@ -16720,102 +16741,102 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B461" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="D461" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E461" t="s">
-        <v>249</v>
-      </c>
-      <c r="F461" s="42" t="s">
-        <v>521</v>
+        <v>552</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B462" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D462" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E462" t="s">
-        <v>551</v>
-      </c>
-      <c r="F462" s="42" t="s">
-        <v>521</v>
+        <v>270</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B463" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D463" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="E463" t="s">
-        <v>552</v>
-      </c>
-      <c r="F463" s="42" t="s">
-        <v>521</v>
+        <v>549</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B464" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D464" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="E464" t="s">
-        <v>553</v>
-      </c>
-      <c r="F464" s="42" t="s">
-        <v>521</v>
+        <v>309</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B465" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D465" t="s">
-        <v>251</v>
+        <v>554</v>
       </c>
       <c r="E465" t="s">
-        <v>460</v>
-      </c>
-      <c r="F465" s="42" t="s">
-        <v>521</v>
+        <v>555</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -16823,19 +16844,19 @@
         <v>234</v>
       </c>
       <c r="B466" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D466" t="s">
-        <v>554</v>
+        <v>243</v>
       </c>
       <c r="E466" t="s">
-        <v>555</v>
-      </c>
-      <c r="F466" s="42" t="s">
-        <v>521</v>
+        <v>249</v>
+      </c>
+      <c r="F466" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -16843,136 +16864,136 @@
         <v>234</v>
       </c>
       <c r="B467" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D467" t="s">
-        <v>556</v>
+        <v>271</v>
       </c>
       <c r="E467" t="s">
+        <v>558</v>
+      </c>
+      <c r="F467" s="41" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B468" t="s">
         <v>557</v>
       </c>
-      <c r="F467" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6">
-      <c r="A468" t="s">
-        <v>558</v>
-      </c>
-      <c r="B468" t="s">
+      <c r="C468" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D468" t="s">
+        <v>269</v>
+      </c>
+      <c r="E468" t="s">
         <v>559</v>
       </c>
-      <c r="C468" t="s">
-        <v>144</v>
-      </c>
-      <c r="D468" t="s">
-        <v>248</v>
-      </c>
-      <c r="E468" t="s">
-        <v>249</v>
-      </c>
-      <c r="F468" t="s">
-        <v>25</v>
+      <c r="F468" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="469" spans="1:6">
-      <c r="A469" t="s">
-        <v>558</v>
+      <c r="A469" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B469" t="s">
-        <v>559</v>
-      </c>
-      <c r="C469" t="s">
-        <v>250</v>
+        <v>557</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D469" t="s">
-        <v>271</v>
+        <v>483</v>
       </c>
       <c r="E469" t="s">
         <v>560</v>
       </c>
-      <c r="F469" t="s">
-        <v>25</v>
+      <c r="F469" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="470" spans="1:6">
-      <c r="A470" t="s">
-        <v>558</v>
+      <c r="A470" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B470" t="s">
-        <v>559</v>
-      </c>
-      <c r="C470" t="s">
-        <v>253</v>
+        <v>557</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D470" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="E470" t="s">
-        <v>270</v>
-      </c>
-      <c r="F470" t="s">
-        <v>25</v>
+        <v>460</v>
+      </c>
+      <c r="F470" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="471" spans="1:6">
-      <c r="A471" t="s">
-        <v>558</v>
+      <c r="A471" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B471" t="s">
-        <v>559</v>
-      </c>
-      <c r="C471" t="s">
-        <v>256</v>
+        <v>557</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="D471" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="E471" t="s">
-        <v>561</v>
-      </c>
-      <c r="F471" t="s">
-        <v>25</v>
+        <v>562</v>
+      </c>
+      <c r="F471" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="472" spans="1:6">
-      <c r="A472" t="s">
-        <v>558</v>
+      <c r="A472" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B472" t="s">
-        <v>559</v>
-      </c>
-      <c r="C472" t="s">
-        <v>266</v>
+        <v>557</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="D472" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="E472" t="s">
-        <v>548</v>
-      </c>
-      <c r="F472" t="s">
-        <v>25</v>
+        <v>564</v>
+      </c>
+      <c r="F472" s="41" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C473" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D473" t="s">
-        <v>546</v>
+        <v>248</v>
       </c>
       <c r="E473" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="F473" t="s">
         <v>25</v>
@@ -16980,19 +17001,19 @@
     </row>
     <row r="474" spans="1:6">
       <c r="A474" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C474" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="D474" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E474" t="s">
-        <v>249</v>
+        <v>567</v>
       </c>
       <c r="F474" t="s">
         <v>25</v>
@@ -17000,19 +17021,19 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C475" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D475" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E475" t="s">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="F475" t="s">
         <v>25</v>
@@ -17020,19 +17041,19 @@
     </row>
     <row r="476" spans="1:6">
       <c r="A476" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C476" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D476" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="E476" t="s">
-        <v>270</v>
+        <v>568</v>
       </c>
       <c r="F476" t="s">
         <v>25</v>
@@ -17040,19 +17061,19 @@
     </row>
     <row r="477" spans="1:6">
       <c r="A477" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C477" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D477" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="E477" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F477" t="s">
         <v>25</v>
@@ -17060,19 +17081,19 @@
     </row>
     <row r="478" spans="1:6">
       <c r="A478" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C478" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D478" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E478" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="F478" t="s">
         <v>25</v>
@@ -17083,121 +17104,221 @@
         <v>238</v>
       </c>
       <c r="B479" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C479" t="s">
+        <v>144</v>
+      </c>
+      <c r="D479" t="s">
+        <v>248</v>
+      </c>
+      <c r="E479" t="s">
+        <v>249</v>
+      </c>
+      <c r="F479" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>238</v>
+      </c>
+      <c r="B480" t="s">
+        <v>570</v>
+      </c>
+      <c r="C480" t="s">
+        <v>250</v>
+      </c>
+      <c r="D480" t="s">
+        <v>271</v>
+      </c>
+      <c r="E480" t="s">
+        <v>567</v>
+      </c>
+      <c r="F480" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="s">
+        <v>238</v>
+      </c>
+      <c r="B481" t="s">
+        <v>570</v>
+      </c>
+      <c r="C481" t="s">
+        <v>253</v>
+      </c>
+      <c r="D481" t="s">
+        <v>269</v>
+      </c>
+      <c r="E481" t="s">
+        <v>270</v>
+      </c>
+      <c r="F481" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="s">
+        <v>238</v>
+      </c>
+      <c r="B482" t="s">
+        <v>570</v>
+      </c>
+      <c r="C482" t="s">
+        <v>256</v>
+      </c>
+      <c r="D482" t="s">
+        <v>483</v>
+      </c>
+      <c r="E482" t="s">
+        <v>568</v>
+      </c>
+      <c r="F482" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="s">
+        <v>238</v>
+      </c>
+      <c r="B483" t="s">
+        <v>570</v>
+      </c>
+      <c r="C483" t="s">
+        <v>266</v>
+      </c>
+      <c r="D483" t="s">
+        <v>554</v>
+      </c>
+      <c r="E483" t="s">
+        <v>555</v>
+      </c>
+      <c r="F483" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="s">
+        <v>238</v>
+      </c>
+      <c r="B484" t="s">
+        <v>570</v>
+      </c>
+      <c r="C484" t="s">
         <v>263</v>
       </c>
-      <c r="D479" t="s">
-        <v>546</v>
-      </c>
-      <c r="E479" t="s">
-        <v>562</v>
-      </c>
-      <c r="F479" t="s">
+      <c r="D484" t="s">
+        <v>553</v>
+      </c>
+      <c r="E484" t="s">
+        <v>569</v>
+      </c>
+      <c r="F484" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B421">
+  <conditionalFormatting sqref="B426">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
     <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A422">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B422">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A423">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B423">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A424">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B424">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A425">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B425">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B426">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A427">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B427">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A428">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B428">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A429">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B429">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A430">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B430">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B431">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A432">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B432">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A433">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B433">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A434">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B434">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A435">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B435">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B55">
     <cfRule type="containsBlanks" dxfId="1" priority="115">
       <formula>LEN(TRIM(B52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A421 A426">
+  <conditionalFormatting sqref="A426 A431">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="630">
   <si>
     <t>序号</t>
   </si>
@@ -1190,7 +1190,7 @@
     <t>利息</t>
   </si>
   <si>
-    <t>intr</t>
+    <t>intrest</t>
   </si>
   <si>
     <t>8</t>
@@ -2138,8 +2138,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -2185,56 +2185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,8 +2207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2269,24 +2237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,6 +2247,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2308,7 +2268,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2324,6 +2308,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2367,7 +2367,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,43 +2499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,121 +2541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,6 +2570,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2581,6 +2601,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2609,17 +2644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2630,30 +2654,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2673,10 +2673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2685,134 +2685,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3207,10 +3207,10 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="13.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3348,32 +3348,32 @@
   <sheetPr/>
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="5" customWidth="1"/>
     <col min="3" max="4" width="9" style="5"/>
-    <col min="5" max="6" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="5" max="6" width="6.88333333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.3796296296296" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.3833333333333" style="6" customWidth="1"/>
     <col min="9" max="9" width="32.25" style="5" customWidth="1"/>
     <col min="10" max="10" width="22.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.6296296296296" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.6333333333333" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.25" style="5" customWidth="1"/>
     <col min="13" max="13" width="9" style="7"/>
     <col min="14" max="16" width="9" style="5"/>
     <col min="17" max="17" width="23.25" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.37962962962963" style="8" customWidth="1"/>
+    <col min="18" max="18" width="7.38333333333333" style="8" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="34.8" spans="1:19">
+    <row r="1" s="4" customFormat="1" ht="37.5" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -8922,24 +8922,24 @@
   <sheetPr/>
   <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E228" sqref="E228"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="$A58:$XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8833333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.8" spans="1:6">
+    <row r="1" ht="37.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="3" r:id="rId1"/>
@@ -871,7 +871,7 @@
     <t>CheckChange</t>
   </si>
   <si>
-    <t>·true</t>
+    <t>Y</t>
   </si>
   <si>
     <t>梁强</t>
@@ -2138,8 +2138,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -2185,10 +2185,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2199,9 +2208,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2217,6 +2254,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2224,7 +2277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2245,15 +2298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2268,62 +2322,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2367,6 +2367,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2379,7 +2397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,7 +2415,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,103 +2523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,37 +2535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,20 +2572,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,30 +2594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2640,6 +2605,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2667,16 +2643,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2685,134 +2685,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3207,7 +3207,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="13.8833333333333" customWidth="1"/>
@@ -3345,16 +3345,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H$1:H$1048576"/>
+      <selection pane="bottomLeft" activeCell="O121" sqref="O121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="5" customWidth="1"/>
@@ -3368,12 +3368,12 @@
     <col min="12" max="12" width="8.25" style="5" customWidth="1"/>
     <col min="13" max="13" width="9" style="7"/>
     <col min="14" max="16" width="9" style="5"/>
-    <col min="17" max="17" width="23.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="33.8833333333333" style="5" customWidth="1"/>
     <col min="18" max="18" width="7.38333333333333" style="8" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="37.5" spans="1:19">
+    <row r="1" s="4" customFormat="1" ht="36" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" hidden="1" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" hidden="1" spans="1:19">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" hidden="1" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" hidden="1" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" hidden="1" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" hidden="1" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" hidden="1" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" hidden="1" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" hidden="1" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" hidden="1" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" hidden="1" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" hidden="1" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" hidden="1" spans="1:19">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" hidden="1" spans="1:19">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" hidden="1" spans="1:19">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" hidden="1" spans="1:19">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" hidden="1" spans="1:19">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" hidden="1" spans="1:19">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" hidden="1" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" hidden="1" spans="1:19">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" hidden="1" spans="1:19">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" hidden="1" spans="1:19">
       <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" hidden="1" spans="1:19">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" hidden="1" spans="1:19">
       <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" hidden="1" spans="1:19">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" hidden="1" spans="1:19">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" hidden="1" spans="1:19">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" hidden="1" spans="1:19">
       <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" hidden="1" spans="1:19">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" hidden="1" spans="1:19">
       <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" hidden="1" spans="1:19">
       <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" hidden="1" spans="1:19">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" hidden="1" spans="1:19">
       <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" hidden="1" spans="1:19">
       <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" hidden="1" spans="1:19">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" hidden="1" spans="1:19">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" hidden="1" spans="1:19">
       <c r="A38" s="10" t="s">
         <v>25</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" hidden="1" spans="1:19">
       <c r="A39" s="10" t="s">
         <v>25</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" hidden="1" spans="1:19">
       <c r="A40" s="10" t="s">
         <v>25</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" hidden="1" spans="1:19">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" hidden="1" spans="1:19">
       <c r="A42" s="10" t="s">
         <v>25</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" hidden="1" spans="1:19">
       <c r="A43" s="10" t="s">
         <v>25</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" hidden="1" spans="1:19">
       <c r="A44" s="10" t="s">
         <v>25</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" hidden="1" spans="1:19">
       <c r="A45" s="10" t="s">
         <v>25</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" hidden="1" spans="1:19">
       <c r="A46" s="10" t="s">
         <v>25</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" hidden="1" spans="1:19">
       <c r="A47" s="10" t="s">
         <v>25</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" hidden="1" spans="1:19">
       <c r="A48" s="10" t="s">
         <v>25</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" hidden="1" spans="1:19">
       <c r="A49" s="10" t="s">
         <v>25</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" hidden="1" spans="1:19">
       <c r="A50" s="10" t="s">
         <v>25</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" hidden="1" spans="1:19">
       <c r="A51" s="10" t="s">
         <v>25</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" hidden="1" spans="1:19">
       <c r="A52" s="10" t="s">
         <v>25</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" hidden="1" spans="1:19">
       <c r="A53" s="10" t="s">
         <v>25</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" hidden="1" spans="1:19">
       <c r="A54" s="10" t="s">
         <v>25</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" hidden="1" spans="1:19">
       <c r="A55" s="10" t="s">
         <v>25</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" hidden="1" spans="1:19">
       <c r="A56" s="10" t="s">
         <v>25</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" hidden="1" spans="1:19">
       <c r="A57" s="10" t="s">
         <v>25</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" hidden="1" spans="1:19">
       <c r="A58" s="10" t="s">
         <v>25</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" hidden="1" spans="1:19">
       <c r="A59" s="10" t="s">
         <v>25</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" hidden="1" spans="1:19">
       <c r="A60" s="10" t="s">
         <v>25</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" hidden="1" spans="1:19">
       <c r="A61" s="10" t="s">
         <v>25</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" hidden="1" spans="1:19">
       <c r="A62" s="10" t="s">
         <v>25</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" hidden="1" spans="1:19">
       <c r="A63" s="10" t="s">
         <v>25</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" hidden="1" spans="1:19">
       <c r="A64" s="10" t="s">
         <v>25</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" hidden="1" spans="1:19">
       <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" hidden="1" spans="1:19">
       <c r="A66" s="10" t="s">
         <v>25</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" hidden="1" spans="1:19">
       <c r="A67" s="10" t="s">
         <v>25</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" hidden="1" spans="1:19">
       <c r="A68" s="10" t="s">
         <v>25</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" hidden="1" spans="1:19">
       <c r="A69" s="10" t="s">
         <v>25</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" hidden="1" spans="1:19">
       <c r="A70" s="10" t="s">
         <v>25</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" hidden="1" spans="1:19">
       <c r="A71" s="10" t="s">
         <v>25</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" hidden="1" spans="1:19">
       <c r="A72" s="10" t="s">
         <v>25</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" hidden="1" spans="1:19">
       <c r="A73" s="10" t="s">
         <v>25</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" hidden="1" spans="1:19">
       <c r="A74" s="10" t="s">
         <v>25</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" hidden="1" spans="1:19">
       <c r="A75" s="10" t="s">
         <v>25</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" hidden="1" spans="1:19">
       <c r="A76" s="10" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" hidden="1" spans="1:19">
       <c r="A77" s="10" t="s">
         <v>25</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" hidden="1" spans="1:19">
       <c r="A78" s="10" t="s">
         <v>25</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" hidden="1" spans="1:19">
       <c r="A79" s="10" t="s">
         <v>25</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" hidden="1" spans="1:19">
       <c r="A80" s="10" t="s">
         <v>25</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" hidden="1" spans="1:19">
       <c r="A81" s="10" t="s">
         <v>25</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" hidden="1" spans="1:19">
       <c r="A82" s="10" t="s">
         <v>25</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" hidden="1" spans="1:19">
       <c r="A83" s="10" t="s">
         <v>25</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" hidden="1" spans="1:19">
       <c r="A84" s="10" t="s">
         <v>25</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" hidden="1" spans="1:19">
       <c r="A85" s="10" t="s">
         <v>25</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" hidden="1" spans="1:19">
       <c r="A86" s="10" t="s">
         <v>25</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" hidden="1" spans="1:19">
       <c r="A87" s="10" t="s">
         <v>25</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" hidden="1" spans="1:19">
       <c r="A88" s="10" t="s">
         <v>25</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" hidden="1" spans="1:19">
       <c r="A89" s="10" t="s">
         <v>25</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" hidden="1" spans="1:19">
       <c r="A90" s="10" t="s">
         <v>25</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" hidden="1" spans="1:19">
       <c r="A91" s="10" t="s">
         <v>25</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" hidden="1" spans="1:19">
       <c r="A92" s="10" t="s">
         <v>25</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" hidden="1" spans="1:19">
       <c r="A93" s="10" t="s">
         <v>25</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" hidden="1" spans="1:19">
       <c r="A94" s="10" t="s">
         <v>25</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" hidden="1" spans="1:19">
       <c r="A95" s="10" t="s">
         <v>25</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" hidden="1" spans="1:19">
       <c r="A96" s="10" t="s">
         <v>25</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" hidden="1" spans="1:19">
       <c r="A97" s="10" t="s">
         <v>25</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" hidden="1" spans="1:19">
       <c r="A98" s="10" t="s">
         <v>25</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" hidden="1" spans="1:19">
       <c r="A99" s="10" t="s">
         <v>25</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" hidden="1" spans="1:19">
       <c r="A103" s="10" t="s">
         <v>25</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:19">
+    <row r="104" ht="18" hidden="1" customHeight="1" spans="1:19">
       <c r="A104" s="10" t="s">
         <v>25</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:19">
+    <row r="105" ht="18" hidden="1" customHeight="1" spans="1:19">
       <c r="A105" s="10" t="s">
         <v>25</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" ht="15.95" customHeight="1" spans="1:19">
+    <row r="106" ht="15.95" hidden="1" customHeight="1" spans="1:19">
       <c r="A106" s="10" t="s">
         <v>25</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" hidden="1" spans="1:19">
       <c r="A107" s="10" t="s">
         <v>25</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" hidden="1" spans="1:19">
       <c r="A108" s="10" t="s">
         <v>25</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" hidden="1" spans="1:19">
       <c r="A109" s="10" t="s">
         <v>25</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" hidden="1" spans="1:19">
       <c r="A110" s="10" t="s">
         <v>25</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" hidden="1" spans="1:19">
       <c r="A111" s="10" t="s">
         <v>25</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" hidden="1" spans="1:19">
       <c r="A112" s="10" t="s">
         <v>25</v>
       </c>
@@ -8901,14 +8901,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S112">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="equal" val="00102001_1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A67">
+      <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A67">
-      <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8922,13 +8927,13 @@
   <sheetPr/>
   <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A58" sqref="$A58:$XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.1333333333333" style="1" customWidth="1"/>
@@ -8939,7 +8944,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SCNX\bankwork\SVN\交易数据统计\交易规则统计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="3" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">双屏确认!$A$1:$S$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">双屏确认字段信息!$A$1:$F$514</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -526,9 +521,6 @@
   </si>
   <si>
     <t>00306003</t>
-  </si>
-  <si>
-    <t>00306005</t>
   </si>
   <si>
     <t>DS00058</t>
@@ -971,6 +963,9 @@
   </si>
   <si>
     <t>DS00101</t>
+  </si>
+  <si>
+    <t>00306005</t>
   </si>
   <si>
     <t>直接入账且持票为本行</t>
@@ -2137,7 +2132,7 @@
     <t>fcFeFlag</t>
   </si>
   <si>
-    <t>actSum</t>
+    <t>sum</t>
   </si>
   <si>
     <t>depositTermName</t>
@@ -2146,8 +2141,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2190,10 +2191,147 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2213,15 +2351,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2246,8 +2377,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2270,10 +2587,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2345,571 +2904,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2925,9 +2972,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3185,26 +3229,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -3232,119 +3275,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="7" customWidth="1"/>
@@ -3363,7 +3407,7 @@
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" s="5" customFormat="1" ht="36" spans="1:19">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3422,7 +3466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +3511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3557,7 +3601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -3602,7 +3646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -3657,7 +3701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -3702,7 +3746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -3747,7 +3791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
@@ -3792,7 +3836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -3837,7 +3881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
@@ -3882,7 +3926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
@@ -3927,7 +3971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -3972,7 +4016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -4027,7 +4071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -4082,7 +4126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -4135,7 +4179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -4190,7 +4234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
@@ -4235,7 +4279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
@@ -4280,7 +4324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -4325,7 +4369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
@@ -4370,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -4415,7 +4459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +4504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
@@ -4505,7 +4549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="12" t="s">
         <v>25</v>
       </c>
@@ -4560,7 +4604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -4615,7 +4659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
@@ -4660,7 +4704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
@@ -4705,7 +4749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
@@ -4750,7 +4794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -4795,7 +4839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
@@ -4840,7 +4884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
@@ -4885,7 +4929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="12" t="s">
         <v>25</v>
       </c>
@@ -4930,7 +4974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
@@ -4983,7 +5027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="12" t="s">
         <v>25</v>
       </c>
@@ -5036,7 +5080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="12" t="s">
         <v>25</v>
       </c>
@@ -5091,7 +5135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="12" t="s">
         <v>25</v>
       </c>
@@ -5147,7 +5191,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="12" t="s">
         <v>25</v>
       </c>
@@ -5202,7 +5246,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="12" t="s">
         <v>25</v>
       </c>
@@ -5257,7 +5301,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
@@ -5313,7 +5357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="12" t="s">
         <v>25</v>
       </c>
@@ -5368,7 +5412,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="12" t="s">
         <v>25</v>
       </c>
@@ -5423,7 +5467,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="12" t="s">
         <v>25</v>
       </c>
@@ -5478,7 +5522,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" s="12" t="s">
         <v>25</v>
       </c>
@@ -5533,7 +5577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" s="12" t="s">
         <v>25</v>
       </c>
@@ -5588,7 +5632,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" s="12" t="s">
         <v>25</v>
       </c>
@@ -5643,7 +5687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" s="12" t="s">
         <v>25</v>
       </c>
@@ -5698,7 +5742,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48" s="12" t="s">
         <v>25</v>
       </c>
@@ -5753,7 +5797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49" s="12" t="s">
         <v>25</v>
       </c>
@@ -5798,7 +5842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19">
       <c r="A50" s="12" t="s">
         <v>25</v>
       </c>
@@ -5843,7 +5887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51" s="12" t="s">
         <v>25</v>
       </c>
@@ -5888,7 +5932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52" s="12" t="s">
         <v>25</v>
       </c>
@@ -5933,7 +5977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19">
       <c r="A53" s="12" t="s">
         <v>25</v>
       </c>
@@ -5978,7 +6022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19">
       <c r="A54" s="12" t="s">
         <v>25</v>
       </c>
@@ -6023,7 +6067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55" s="12" t="s">
         <v>25</v>
       </c>
@@ -6068,7 +6112,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56" s="12" t="s">
         <v>25</v>
       </c>
@@ -6123,7 +6167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57" s="12" t="s">
         <v>25</v>
       </c>
@@ -6168,12 +6212,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="12">
         <v>67</v>
@@ -6191,7 +6235,7 @@
         <v>29</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>162</v>
@@ -6223,12 +6267,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="12">
         <v>68</v>
@@ -6246,7 +6290,7 @@
         <v>29</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>31</v>
@@ -6265,15 +6309,15 @@
         <v>32</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" s="12">
         <v>69</v>
@@ -6291,13 +6335,13 @@
         <v>29</v>
       </c>
       <c r="H60" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="K60" s="14" t="s">
         <v>68</v>
@@ -6314,7 +6358,7 @@
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R60" s="17" t="s">
         <v>32</v>
@@ -6323,12 +6367,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="12">
         <v>70</v>
@@ -6346,13 +6390,13 @@
         <v>29</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>68</v>
@@ -6369,7 +6413,7 @@
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R61" s="17" t="s">
         <v>71</v>
@@ -6378,12 +6422,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="12">
         <v>71</v>
@@ -6401,7 +6445,7 @@
         <v>29</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>31</v>
@@ -6423,12 +6467,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19">
       <c r="A63" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C63" s="12">
         <v>72</v>
@@ -6446,7 +6490,7 @@
         <v>29</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>31</v>
@@ -6468,12 +6512,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19">
       <c r="A64" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" s="12">
         <v>73</v>
@@ -6491,7 +6535,7 @@
         <v>29</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>31</v>
@@ -6510,15 +6554,15 @@
         <v>32</v>
       </c>
       <c r="S64" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="12">
         <v>74</v>
@@ -6536,7 +6580,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>31</v>
@@ -6555,15 +6599,15 @@
         <v>32</v>
       </c>
       <c r="S65" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="12">
         <v>75</v>
@@ -6581,7 +6625,7 @@
         <v>29</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>31</v>
@@ -6600,15 +6644,15 @@
         <v>32</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="12">
         <v>76</v>
@@ -6626,7 +6670,7 @@
         <v>29</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>31</v>
@@ -6645,15 +6689,15 @@
         <v>32</v>
       </c>
       <c r="S67" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" s="12">
         <v>77</v>
@@ -6671,7 +6715,7 @@
         <v>29</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>31</v>
@@ -6690,15 +6734,15 @@
         <v>32</v>
       </c>
       <c r="S68" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="12">
         <v>78</v>
@@ -6716,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>31</v>
@@ -6735,15 +6779,15 @@
         <v>32</v>
       </c>
       <c r="S69" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="12">
         <v>79</v>
@@ -6761,7 +6805,7 @@
         <v>29</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>31</v>
@@ -6780,15 +6824,15 @@
         <v>32</v>
       </c>
       <c r="S70" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="12">
         <v>81</v>
@@ -6806,7 +6850,7 @@
         <v>29</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>31</v>
@@ -6825,15 +6869,15 @@
         <v>32</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="12">
         <v>82</v>
@@ -6851,16 +6895,16 @@
         <v>29</v>
       </c>
       <c r="H72" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I72" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="K72" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="L72" s="12" t="s">
         <v>45</v>
@@ -6883,12 +6927,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="A73" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C73" s="12">
         <v>82</v>
@@ -6906,16 +6950,16 @@
         <v>29</v>
       </c>
       <c r="H73" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I73" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I73" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="J73" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>211</v>
       </c>
       <c r="L73" s="12" t="s">
         <v>45</v>
@@ -6938,12 +6982,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="A74" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="12">
         <v>83</v>
@@ -6961,16 +7005,16 @@
         <v>29</v>
       </c>
       <c r="H74" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="J74" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="K74" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="K74" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>45</v>
@@ -6987,18 +7031,18 @@
         <v>31</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S74" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="12">
         <v>83</v>
@@ -7016,16 +7060,16 @@
         <v>29</v>
       </c>
       <c r="H75" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I75" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I75" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="J75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K75" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>211</v>
       </c>
       <c r="L75" s="12" t="s">
         <v>45</v>
@@ -7042,18 +7086,18 @@
         <v>31</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S75" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C76" s="12">
         <v>84</v>
@@ -7071,16 +7115,16 @@
         <v>29</v>
       </c>
       <c r="H76" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I76" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="K76" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>45</v>
@@ -7097,18 +7141,18 @@
         <v>31</v>
       </c>
       <c r="R76" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S76" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" s="12">
         <v>84</v>
@@ -7126,16 +7170,16 @@
         <v>29</v>
       </c>
       <c r="H77" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I77" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="J77" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K77" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>219</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="15" t="s">
@@ -7150,18 +7194,18 @@
         <v>31</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S77" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="A78" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="12">
         <v>85</v>
@@ -7179,16 +7223,16 @@
         <v>29</v>
       </c>
       <c r="H78" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="K78" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="K78" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>45</v>
@@ -7211,12 +7255,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="A79" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C79" s="12">
         <v>85</v>
@@ -7234,16 +7278,16 @@
         <v>29</v>
       </c>
       <c r="H79" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I79" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="J79" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K79" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>219</v>
       </c>
       <c r="L79" s="12"/>
       <c r="M79" s="15" t="s">
@@ -7264,12 +7308,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="A80" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C80" s="12">
         <v>86</v>
@@ -7287,10 +7331,10 @@
         <v>29</v>
       </c>
       <c r="H80" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I80" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="J80" s="12" t="s">
         <v>163</v>
@@ -7319,12 +7363,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19">
       <c r="A81" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81" s="12">
         <v>87</v>
@@ -7342,7 +7386,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>31</v>
@@ -7361,15 +7405,15 @@
         <v>32</v>
       </c>
       <c r="S81" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="12">
         <v>88</v>
@@ -7387,7 +7431,7 @@
         <v>29</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>31</v>
@@ -7406,15 +7450,15 @@
         <v>32</v>
       </c>
       <c r="S82" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="12">
         <v>89</v>
@@ -7432,7 +7476,7 @@
         <v>29</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>31</v>
@@ -7451,15 +7495,15 @@
         <v>32</v>
       </c>
       <c r="S83" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="12">
         <v>90</v>
@@ -7477,7 +7521,7 @@
         <v>29</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>31</v>
@@ -7496,15 +7540,15 @@
         <v>32</v>
       </c>
       <c r="S84" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" s="12">
         <v>91</v>
@@ -7522,7 +7566,7 @@
         <v>29</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>31</v>
@@ -7541,15 +7585,15 @@
         <v>32</v>
       </c>
       <c r="S85" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="12">
         <v>92</v>
@@ -7567,7 +7611,7 @@
         <v>29</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>31</v>
@@ -7586,15 +7630,15 @@
         <v>32</v>
       </c>
       <c r="S86" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C87" s="12">
         <v>93</v>
@@ -7612,7 +7656,7 @@
         <v>29</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>31</v>
@@ -7631,15 +7675,15 @@
         <v>32</v>
       </c>
       <c r="S87" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" s="12">
         <v>94</v>
@@ -7657,7 +7701,7 @@
         <v>29</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>31</v>
@@ -7676,15 +7720,15 @@
         <v>32</v>
       </c>
       <c r="S88" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="12">
         <v>95</v>
@@ -7702,7 +7746,7 @@
         <v>29</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="12" t="s">
         <v>31</v>
@@ -7721,15 +7765,15 @@
         <v>32</v>
       </c>
       <c r="S89" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C90" s="12">
         <v>96</v>
@@ -7747,7 +7791,7 @@
         <v>29</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>31</v>
@@ -7766,15 +7810,15 @@
         <v>32</v>
       </c>
       <c r="S90" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:19">
       <c r="A91" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C91" s="12">
         <v>94</v>
@@ -7792,16 +7836,16 @@
         <v>29</v>
       </c>
       <c r="H91" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I91" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="J91" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="K91" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L91" s="12" t="s">
         <v>45</v>
@@ -7810,26 +7854,26 @@
         <v>46</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R91" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S91" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:19">
       <c r="A92" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" s="12">
         <v>95</v>
@@ -7847,16 +7891,16 @@
         <v>29</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I92" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J92" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="K92" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L92" s="12" t="s">
         <v>45</v>
@@ -7865,26 +7909,26 @@
         <v>46</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R92" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S92" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="12">
         <v>96</v>
@@ -7902,16 +7946,16 @@
         <v>29</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I93" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J93" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>255</v>
-      </c>
       <c r="K93" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L93" s="12" t="s">
         <v>45</v>
@@ -7925,21 +7969,21 @@
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R93" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S93" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="12">
         <v>97</v>
@@ -7957,16 +8001,16 @@
         <v>29</v>
       </c>
       <c r="H94" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I94" s="12" t="s">
+      <c r="J94" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="K94" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L94" s="12" t="s">
         <v>45</v>
@@ -7980,21 +8024,21 @@
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R94" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S94" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" ht="18" customHeight="1" spans="1:19">
       <c r="A95" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C95" s="12">
         <v>98</v>
@@ -8012,16 +8056,16 @@
         <v>29</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L95" s="12" t="s">
         <v>45</v>
@@ -8035,21 +8079,21 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R95" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S95" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" ht="18" customHeight="1" spans="1:19">
       <c r="A96" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C96" s="12">
         <v>98</v>
@@ -8067,16 +8111,16 @@
         <v>29</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I96" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="K96" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L96" s="12" t="s">
         <v>45</v>
@@ -8090,21 +8134,21 @@
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R96" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S96" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" ht="15.95" customHeight="1" spans="1:19">
       <c r="A97" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="12">
         <v>99</v>
@@ -8122,16 +8166,16 @@
         <v>29</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L97" s="12" t="s">
         <v>45</v>
@@ -8145,21 +8189,21 @@
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
       <c r="Q97" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R97" s="17" t="s">
         <v>71</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" s="12">
         <v>99</v>
@@ -8177,16 +8221,16 @@
         <v>29</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L98" s="12" t="s">
         <v>45</v>
@@ -8200,21 +8244,21 @@
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R98" s="17" t="s">
         <v>71</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" s="12">
         <v>100</v>
@@ -8232,16 +8276,16 @@
         <v>29</v>
       </c>
       <c r="H99" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="J99" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="K99" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="K99" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="L99" s="12" t="s">
         <v>45</v>
@@ -8250,7 +8294,7 @@
         <v>46</v>
       </c>
       <c r="N99" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -8264,12 +8308,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C100" s="12">
         <v>101</v>
@@ -8287,16 +8331,16 @@
         <v>29</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J100" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="K100" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="L100" s="12" t="s">
         <v>45</v>
@@ -8305,7 +8349,7 @@
         <v>46</v>
       </c>
       <c r="N100" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O100" s="12"/>
       <c r="P100" s="12"/>
@@ -8319,12 +8363,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C101" s="12">
         <v>102</v>
@@ -8342,16 +8386,16 @@
         <v>29</v>
       </c>
       <c r="H101" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I101" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="I101" s="12" t="s">
-        <v>277</v>
-      </c>
       <c r="J101" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K101" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="K101" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="L101" s="12" t="s">
         <v>45</v>
@@ -8360,7 +8404,7 @@
         <v>46</v>
       </c>
       <c r="N101" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -8374,12 +8418,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C102" s="12">
         <v>103</v>
@@ -8397,16 +8441,16 @@
         <v>29</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J102" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K102" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="L102" s="12" t="s">
         <v>45</v>
@@ -8415,7 +8459,7 @@
         <v>46</v>
       </c>
       <c r="N102" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
@@ -8429,12 +8473,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C103" s="12">
         <v>104</v>
@@ -8452,16 +8496,16 @@
         <v>29</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J103" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K103" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="K103" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="L103" s="12" t="s">
         <v>45</v>
@@ -8470,7 +8514,7 @@
         <v>46</v>
       </c>
       <c r="N103" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -8484,12 +8528,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" s="6" customFormat="1" spans="1:19">
       <c r="A104" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C104" s="19">
         <v>105</v>
@@ -8507,7 +8551,7 @@
         <v>29</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>284</v>
@@ -8539,7 +8583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" s="6" customFormat="1" spans="1:19">
       <c r="A105" s="19" t="s">
         <v>25</v>
       </c>
@@ -8562,7 +8606,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>288</v>
@@ -8594,7 +8638,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" s="6" customFormat="1" spans="1:19">
       <c r="A106" s="19" t="s">
         <v>25</v>
       </c>
@@ -8617,7 +8661,7 @@
         <v>29</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>291</v>
@@ -8649,7 +8693,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" s="6" customFormat="1" spans="1:19">
       <c r="A107" s="19" t="s">
         <v>25</v>
       </c>
@@ -8672,7 +8716,7 @@
         <v>29</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>294</v>
@@ -8704,7 +8748,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" s="12" t="s">
         <v>25</v>
       </c>
@@ -8760,8 +8804,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S108"/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <autoFilter ref="A1:S108">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 O1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
@@ -8770,22 +8815,24 @@
       <formula1>"NI 联网核查,BN 黑名单,DS 双屏确认"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F514"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E513" sqref="E513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
@@ -8796,7 +8843,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -8816,7 +8863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -8836,7 +8883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -8856,7 +8903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -8876,7 +8923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -8896,7 +8943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -8916,7 +8963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -8936,7 +8983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -8956,7 +9003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -8976,7 +9023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -8996,7 +9043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -9016,7 +9063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -9036,7 +9083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -9056,7 +9103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -9076,7 +9123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -9096,7 +9143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
@@ -9116,7 +9163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>146</v>
       </c>
@@ -9136,7 +9183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
@@ -9156,7 +9203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>146</v>
       </c>
@@ -9176,7 +9223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -9196,7 +9243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -9216,7 +9263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -9236,7 +9283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -9256,7 +9303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -9276,7 +9323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -9296,7 +9343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -9316,7 +9363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -9336,7 +9383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -9356,7 +9403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -9376,7 +9423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -9396,7 +9443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -9416,7 +9463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -9436,7 +9483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -9456,7 +9503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -9476,7 +9523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -9496,7 +9543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -9516,7 +9563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -9536,7 +9583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -9556,7 +9603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -9576,7 +9623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -9596,7 +9643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -9616,7 +9663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -9636,7 +9683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -9656,7 +9703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -9676,7 +9723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -9696,7 +9743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -9716,7 +9763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -9736,7 +9783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -9756,7 +9803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -9776,7 +9823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -9796,7 +9843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -9816,7 +9863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -9836,7 +9883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9856,7 +9903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -9876,7 +9923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -9896,7 +9943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -9916,7 +9963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -9936,7 +9983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -9956,7 +10003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -9976,7 +10023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -9996,7 +10043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -10016,7 +10063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -10036,7 +10083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -10056,7 +10103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
@@ -10076,7 +10123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
@@ -10096,7 +10143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
@@ -10116,7 +10163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
@@ -10136,7 +10183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
@@ -10156,7 +10203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -10176,7 +10223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
         <v>63</v>
       </c>
@@ -10196,7 +10243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
@@ -10216,7 +10263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
         <v>65</v>
       </c>
@@ -10236,7 +10283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
@@ -10256,7 +10303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
         <v>65</v>
       </c>
@@ -10276,7 +10323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
         <v>65</v>
       </c>
@@ -10296,7 +10343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
@@ -10316,7 +10363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
         <v>65</v>
       </c>
@@ -10336,7 +10383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
         <v>65</v>
       </c>
@@ -10356,7 +10403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
         <v>65</v>
       </c>
@@ -10376,7 +10423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
         <v>65</v>
       </c>
@@ -10396,7 +10443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
         <v>65</v>
       </c>
@@ -10416,7 +10463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
         <v>65</v>
       </c>
@@ -10436,7 +10483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
         <v>65</v>
       </c>
@@ -10456,7 +10503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
         <v>73</v>
       </c>
@@ -10476,7 +10523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
         <v>73</v>
       </c>
@@ -10496,7 +10543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
         <v>73</v>
       </c>
@@ -10516,7 +10563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
         <v>73</v>
       </c>
@@ -10536,7 +10583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -10556,7 +10603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>73</v>
       </c>
@@ -10576,7 +10623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
         <v>81</v>
       </c>
@@ -10596,7 +10643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
@@ -10616,7 +10663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
         <v>81</v>
       </c>
@@ -10636,7 +10683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="3" t="s">
         <v>81</v>
       </c>
@@ -10656,7 +10703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
         <v>83</v>
       </c>
@@ -10676,7 +10723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
         <v>83</v>
       </c>
@@ -10696,7 +10743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
         <v>83</v>
       </c>
@@ -10716,7 +10763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
         <v>83</v>
       </c>
@@ -10736,7 +10783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
         <v>85</v>
       </c>
@@ -10756,7 +10803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="3" t="s">
         <v>85</v>
       </c>
@@ -10776,7 +10823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="3" t="s">
         <v>85</v>
       </c>
@@ -10796,7 +10843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="3" t="s">
         <v>85</v>
       </c>
@@ -10816,7 +10863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
         <v>85</v>
       </c>
@@ -10836,7 +10883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
         <v>85</v>
       </c>
@@ -10856,7 +10903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -10876,7 +10923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
         <v>85</v>
       </c>
@@ -10896,7 +10943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
         <v>88</v>
       </c>
@@ -10916,7 +10963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -10936,7 +10983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="3" t="s">
         <v>88</v>
       </c>
@@ -10956,7 +11003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="3" t="s">
         <v>88</v>
       </c>
@@ -10976,7 +11023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
         <v>88</v>
       </c>
@@ -10996,7 +11043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
         <v>90</v>
       </c>
@@ -11016,7 +11063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
         <v>90</v>
       </c>
@@ -11036,7 +11083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
         <v>90</v>
       </c>
@@ -11056,7 +11103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
         <v>90</v>
       </c>
@@ -11076,7 +11123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
         <v>90</v>
       </c>
@@ -11096,7 +11143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
         <v>90</v>
       </c>
@@ -11116,7 +11163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
         <v>92</v>
       </c>
@@ -11136,7 +11183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
         <v>92</v>
       </c>
@@ -11156,7 +11203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
         <v>92</v>
       </c>
@@ -11176,7 +11223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
         <v>92</v>
       </c>
@@ -11196,7 +11243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="3" t="s">
         <v>92</v>
       </c>
@@ -11216,7 +11263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="3" t="s">
         <v>92</v>
       </c>
@@ -11236,7 +11283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="3" t="s">
         <v>96</v>
       </c>
@@ -11256,7 +11303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="3" t="s">
         <v>96</v>
       </c>
@@ -11276,7 +11323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
         <v>96</v>
       </c>
@@ -11296,7 +11343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
         <v>96</v>
       </c>
@@ -11316,7 +11363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
         <v>96</v>
       </c>
@@ -11336,7 +11383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
         <v>96</v>
       </c>
@@ -11356,7 +11403,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
         <v>96</v>
       </c>
@@ -11376,7 +11423,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="3" t="s">
         <v>96</v>
       </c>
@@ -11396,7 +11443,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
         <v>96</v>
       </c>
@@ -11416,7 +11463,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="3" t="s">
         <v>96</v>
       </c>
@@ -11436,7 +11483,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="3" t="s">
         <v>96</v>
       </c>
@@ -11456,7 +11503,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
         <v>104</v>
       </c>
@@ -11476,7 +11523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="3" t="s">
         <v>104</v>
       </c>
@@ -11496,7 +11543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
         <v>104</v>
       </c>
@@ -11516,7 +11563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
         <v>104</v>
       </c>
@@ -11536,7 +11583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
         <v>106</v>
       </c>
@@ -11556,7 +11603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
         <v>106</v>
       </c>
@@ -11576,7 +11623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
         <v>106</v>
       </c>
@@ -11596,7 +11643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
         <v>106</v>
       </c>
@@ -11616,7 +11663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="3" t="s">
         <v>106</v>
       </c>
@@ -11636,7 +11683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="3" t="s">
         <v>106</v>
       </c>
@@ -11656,7 +11703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
         <v>106</v>
       </c>
@@ -11676,7 +11723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
         <v>106</v>
       </c>
@@ -11696,7 +11743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
         <v>108</v>
       </c>
@@ -11716,7 +11763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
         <v>108</v>
       </c>
@@ -11736,7 +11783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
         <v>108</v>
       </c>
@@ -11756,7 +11803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="3" t="s">
         <v>108</v>
       </c>
@@ -11776,7 +11823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="3" t="s">
         <v>108</v>
       </c>
@@ -11796,7 +11843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="3" t="s">
         <v>110</v>
       </c>
@@ -11816,7 +11863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="3" t="s">
         <v>110</v>
       </c>
@@ -11836,7 +11883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
         <v>110</v>
       </c>
@@ -11856,7 +11903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
         <v>110</v>
       </c>
@@ -11876,7 +11923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
         <v>110</v>
       </c>
@@ -11896,7 +11943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="3" t="s">
         <v>110</v>
       </c>
@@ -11916,7 +11963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
         <v>112</v>
       </c>
@@ -11936,7 +11983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="3" t="s">
         <v>112</v>
       </c>
@@ -11956,7 +12003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
         <v>112</v>
       </c>
@@ -11976,7 +12023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="3" t="s">
         <v>112</v>
       </c>
@@ -11996,7 +12043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
         <v>94</v>
       </c>
@@ -12016,7 +12063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
         <v>94</v>
       </c>
@@ -12036,7 +12083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
         <v>94</v>
       </c>
@@ -12056,7 +12103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
         <v>94</v>
       </c>
@@ -12076,7 +12123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
         <v>94</v>
       </c>
@@ -12096,7 +12143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
@@ -12116,7 +12163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="3" t="s">
         <v>113</v>
       </c>
@@ -12136,7 +12183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="3" t="s">
         <v>113</v>
       </c>
@@ -12156,7 +12203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="3" t="s">
         <v>113</v>
       </c>
@@ -12176,7 +12223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="3" t="s">
         <v>113</v>
       </c>
@@ -12196,7 +12243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="3" t="s">
         <v>113</v>
       </c>
@@ -12216,7 +12263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="3" t="s">
         <v>113</v>
       </c>
@@ -12236,7 +12283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="3" t="s">
         <v>113</v>
       </c>
@@ -12256,7 +12303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
@@ -12276,7 +12323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="3" t="s">
         <v>113</v>
       </c>
@@ -12296,7 +12343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="3" t="s">
         <v>113</v>
       </c>
@@ -12316,7 +12363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
         <v>113</v>
       </c>
@@ -12336,7 +12383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
         <v>113</v>
       </c>
@@ -12356,7 +12403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
         <v>114</v>
       </c>
@@ -12376,7 +12423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
         <v>114</v>
       </c>
@@ -12396,7 +12443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="3" t="s">
         <v>114</v>
       </c>
@@ -12416,7 +12463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="3" t="s">
         <v>114</v>
       </c>
@@ -12436,7 +12483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="3" t="s">
         <v>114</v>
       </c>
@@ -12456,7 +12503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="3" t="s">
         <v>114</v>
       </c>
@@ -12476,7 +12523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="3" t="s">
         <v>114</v>
       </c>
@@ -12496,7 +12543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="3" t="s">
         <v>114</v>
       </c>
@@ -12516,7 +12563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="3" t="s">
         <v>415</v>
       </c>
@@ -12536,7 +12583,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="3" t="s">
         <v>415</v>
       </c>
@@ -12556,7 +12603,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="3" t="s">
         <v>415</v>
       </c>
@@ -12576,7 +12623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="3" t="s">
         <v>415</v>
       </c>
@@ -12596,7 +12643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="3" t="s">
         <v>415</v>
       </c>
@@ -12616,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="3" t="s">
         <v>415</v>
       </c>
@@ -12636,7 +12683,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="3" t="s">
         <v>415</v>
       </c>
@@ -12656,7 +12703,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="3" t="s">
         <v>415</v>
       </c>
@@ -12676,7 +12723,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="3" t="s">
         <v>415</v>
       </c>
@@ -12696,7 +12743,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="3" t="s">
         <v>415</v>
       </c>
@@ -12716,7 +12763,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="3" t="s">
         <v>415</v>
       </c>
@@ -12736,7 +12783,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="3" t="s">
         <v>415</v>
       </c>
@@ -12756,7 +12803,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="3" t="s">
         <v>116</v>
       </c>
@@ -12776,7 +12823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="3" t="s">
         <v>116</v>
       </c>
@@ -12796,7 +12843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="3" t="s">
         <v>116</v>
       </c>
@@ -12816,7 +12863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" s="3" t="s">
         <v>116</v>
       </c>
@@ -12836,7 +12883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" s="3" t="s">
         <v>116</v>
       </c>
@@ -12856,7 +12903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="3" t="s">
         <v>116</v>
       </c>
@@ -12876,7 +12923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="3" t="s">
         <v>116</v>
       </c>
@@ -12896,7 +12943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" s="3" t="s">
         <v>116</v>
       </c>
@@ -12916,7 +12963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" s="3" t="s">
         <v>116</v>
       </c>
@@ -12936,7 +12983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" s="3" t="s">
         <v>116</v>
       </c>
@@ -12956,7 +13003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="3" t="s">
         <v>116</v>
       </c>
@@ -12976,7 +13023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" s="3" t="s">
         <v>116</v>
       </c>
@@ -12996,7 +13043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" s="3" t="s">
         <v>116</v>
       </c>
@@ -13016,7 +13063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" s="3" t="s">
         <v>116</v>
       </c>
@@ -13036,7 +13083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" s="3" t="s">
         <v>122</v>
       </c>
@@ -13056,7 +13103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" s="3" t="s">
         <v>122</v>
       </c>
@@ -13076,7 +13123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" s="3" t="s">
         <v>122</v>
       </c>
@@ -13096,7 +13143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" s="3" t="s">
         <v>122</v>
       </c>
@@ -13116,7 +13163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="3" t="s">
         <v>122</v>
       </c>
@@ -13136,7 +13183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" s="3" t="s">
         <v>122</v>
       </c>
@@ -13156,7 +13203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" s="3" t="s">
         <v>122</v>
       </c>
@@ -13176,7 +13223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" s="3" t="s">
         <v>122</v>
       </c>
@@ -13196,7 +13243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" s="3" t="s">
         <v>122</v>
       </c>
@@ -13216,7 +13263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" s="3" t="s">
         <v>122</v>
       </c>
@@ -13236,7 +13283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" s="3" t="s">
         <v>122</v>
       </c>
@@ -13256,7 +13303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" s="3" t="s">
         <v>122</v>
       </c>
@@ -13276,7 +13323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" s="3" t="s">
         <v>122</v>
       </c>
@@ -13296,7 +13343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" s="3" t="s">
         <v>122</v>
       </c>
@@ -13316,7 +13363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" s="3" t="s">
         <v>122</v>
       </c>
@@ -13336,7 +13383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" s="3" t="s">
         <v>122</v>
       </c>
@@ -13356,7 +13403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" s="3" t="s">
         <v>122</v>
       </c>
@@ -13376,7 +13423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" s="3" t="s">
         <v>122</v>
       </c>
@@ -13396,7 +13443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" s="3" t="s">
         <v>134</v>
       </c>
@@ -13416,7 +13463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" s="3" t="s">
         <v>134</v>
       </c>
@@ -13436,7 +13483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" s="3" t="s">
         <v>134</v>
       </c>
@@ -13456,7 +13503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" s="3" t="s">
         <v>134</v>
       </c>
@@ -13476,7 +13523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" s="3" t="s">
         <v>134</v>
       </c>
@@ -13496,7 +13543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" s="3" t="s">
         <v>134</v>
       </c>
@@ -13516,7 +13563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" s="3" t="s">
         <v>134</v>
       </c>
@@ -13536,7 +13583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" s="3" t="s">
         <v>134</v>
       </c>
@@ -13556,7 +13603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" s="3" t="s">
         <v>134</v>
       </c>
@@ -13576,7 +13623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" s="3" t="s">
         <v>134</v>
       </c>
@@ -13596,7 +13643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" s="3" t="s">
         <v>134</v>
       </c>
@@ -13616,7 +13663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" s="3" t="s">
         <v>134</v>
       </c>
@@ -13636,7 +13683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" s="3" t="s">
         <v>134</v>
       </c>
@@ -13656,7 +13703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" s="3" t="s">
         <v>134</v>
       </c>
@@ -13676,7 +13723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" s="3" t="s">
         <v>134</v>
       </c>
@@ -13696,7 +13743,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" s="3" t="s">
         <v>134</v>
       </c>
@@ -13716,7 +13763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" s="3" t="s">
         <v>134</v>
       </c>
@@ -13736,7 +13783,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" s="3" t="s">
         <v>134</v>
       </c>
@@ -13756,7 +13803,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" s="3" t="s">
         <v>134</v>
       </c>
@@ -13776,7 +13823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" s="3" t="s">
         <v>134</v>
       </c>
@@ -13796,7 +13843,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" s="3" t="s">
         <v>134</v>
       </c>
@@ -13816,7 +13863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" s="3" t="s">
         <v>134</v>
       </c>
@@ -13836,7 +13883,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" s="3" t="s">
         <v>148</v>
       </c>
@@ -13856,7 +13903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" s="3" t="s">
         <v>148</v>
       </c>
@@ -13876,7 +13923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" s="3" t="s">
         <v>148</v>
       </c>
@@ -13896,7 +13943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" s="3" t="s">
         <v>148</v>
       </c>
@@ -13916,7 +13963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257" s="3" t="s">
         <v>148</v>
       </c>
@@ -13936,7 +13983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258" s="3" t="s">
         <v>150</v>
       </c>
@@ -13956,7 +14003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259" s="3" t="s">
         <v>150</v>
       </c>
@@ -13976,7 +14023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260" s="3" t="s">
         <v>150</v>
       </c>
@@ -13996,7 +14043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261" s="3" t="s">
         <v>150</v>
       </c>
@@ -14016,7 +14063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262" s="3" t="s">
         <v>150</v>
       </c>
@@ -14036,7 +14083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263" s="3" t="s">
         <v>150</v>
       </c>
@@ -14056,7 +14103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264" s="3" t="s">
         <v>150</v>
       </c>
@@ -14076,7 +14123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265" s="3" t="s">
         <v>150</v>
       </c>
@@ -14096,7 +14143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266" s="3" t="s">
         <v>152</v>
       </c>
@@ -14116,7 +14163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" s="3" t="s">
         <v>152</v>
       </c>
@@ -14136,7 +14183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" s="3" t="s">
         <v>152</v>
       </c>
@@ -14156,7 +14203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" s="3" t="s">
         <v>152</v>
       </c>
@@ -14176,7 +14223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" s="3" t="s">
         <v>152</v>
       </c>
@@ -14196,7 +14243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" s="3" t="s">
         <v>152</v>
       </c>
@@ -14216,7 +14263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" s="3" t="s">
         <v>152</v>
       </c>
@@ -14236,7 +14283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" s="3" t="s">
         <v>154</v>
       </c>
@@ -14256,7 +14303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="3" t="s">
         <v>154</v>
       </c>
@@ -14276,7 +14323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="3" t="s">
         <v>154</v>
       </c>
@@ -14296,7 +14343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" s="3" t="s">
         <v>154</v>
       </c>
@@ -14316,7 +14363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" s="3" t="s">
         <v>154</v>
       </c>
@@ -14336,7 +14383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278" s="3" t="s">
         <v>156</v>
       </c>
@@ -14356,7 +14403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279" s="3" t="s">
         <v>156</v>
       </c>
@@ -14376,7 +14423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" s="3" t="s">
         <v>156</v>
       </c>
@@ -14396,7 +14443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" s="3" t="s">
         <v>156</v>
       </c>
@@ -14416,7 +14463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="3" t="s">
         <v>158</v>
       </c>
@@ -14436,7 +14483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" s="3" t="s">
         <v>158</v>
       </c>
@@ -14456,7 +14503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" s="3" t="s">
         <v>158</v>
       </c>
@@ -14476,7 +14523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" s="4" t="s">
         <v>158</v>
       </c>
@@ -14496,7 +14543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286" s="3" t="s">
         <v>158</v>
       </c>
@@ -14516,7 +14563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287" s="3" t="s">
         <v>158</v>
       </c>
@@ -14536,7 +14583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288" s="3" t="s">
         <v>161</v>
       </c>
@@ -14556,7 +14603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289" s="3" t="s">
         <v>161</v>
       </c>
@@ -14576,7 +14623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" s="3" t="s">
         <v>161</v>
       </c>
@@ -14596,7 +14643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291" s="4" t="s">
         <v>161</v>
       </c>
@@ -14616,7 +14663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292" s="3" t="s">
         <v>161</v>
       </c>
@@ -14636,7 +14683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293" s="3" t="s">
         <v>161</v>
       </c>
@@ -14656,7 +14703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
         <v>166</v>
       </c>
@@ -14676,7 +14723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295" s="3" t="s">
         <v>166</v>
       </c>
@@ -14696,7 +14743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296" s="3" t="s">
         <v>166</v>
       </c>
@@ -14716,7 +14763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" s="3" t="s">
         <v>166</v>
       </c>
@@ -14736,7 +14783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298" s="3" t="s">
         <v>166</v>
       </c>
@@ -14756,7 +14803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299" s="3" t="s">
         <v>166</v>
       </c>
@@ -14776,7 +14823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300" s="3" t="s">
         <v>166</v>
       </c>
@@ -14796,7 +14843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301" s="3" t="s">
         <v>166</v>
       </c>
@@ -14816,7 +14863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302" s="3" t="s">
         <v>166</v>
       </c>
@@ -14836,9 +14883,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>467</v>
@@ -14856,9 +14903,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>467</v>
@@ -14876,9 +14923,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>467</v>
@@ -14896,9 +14943,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>467</v>
@@ -14916,9 +14963,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>467</v>
@@ -14936,9 +14983,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>467</v>
@@ -14956,9 +15003,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>467</v>
@@ -14976,9 +15023,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>467</v>
@@ -14996,9 +15043,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>467</v>
@@ -15016,9 +15063,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>467</v>
@@ -15036,9 +15083,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>467</v>
@@ -15056,9 +15103,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>467</v>
@@ -15076,9 +15123,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>467</v>
@@ -15096,9 +15143,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>467</v>
@@ -15116,9 +15163,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>467</v>
@@ -15136,9 +15183,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>467</v>
@@ -15156,9 +15203,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>467</v>
@@ -15176,9 +15223,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>467</v>
@@ -15196,9 +15243,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>467</v>
@@ -15216,9 +15263,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>467</v>
@@ -15236,9 +15283,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>467</v>
@@ -15256,9 +15303,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>467</v>
@@ -15276,9 +15323,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>480</v>
@@ -15296,9 +15343,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>480</v>
@@ -15316,9 +15363,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>480</v>
@@ -15336,9 +15383,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>480</v>
@@ -15356,9 +15403,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>480</v>
@@ -15376,9 +15423,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>480</v>
@@ -15396,9 +15443,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>481</v>
@@ -15416,9 +15463,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>481</v>
@@ -15436,9 +15483,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>481</v>
@@ -15456,9 +15503,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>481</v>
@@ -15476,9 +15523,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>481</v>
@@ -15496,9 +15543,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>487</v>
@@ -15516,9 +15563,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>487</v>
@@ -15536,9 +15583,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>487</v>
@@ -15556,9 +15603,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>487</v>
@@ -15576,9 +15623,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>487</v>
@@ -15596,9 +15643,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>487</v>
@@ -15616,9 +15663,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>487</v>
@@ -15636,9 +15683,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>487</v>
@@ -15656,9 +15703,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>487</v>
@@ -15676,9 +15723,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>487</v>
@@ -15696,9 +15743,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>487</v>
@@ -15716,9 +15763,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>505</v>
@@ -15736,9 +15783,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>505</v>
@@ -15756,9 +15803,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>505</v>
@@ -15776,9 +15823,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>505</v>
@@ -15796,9 +15843,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>507</v>
@@ -15816,9 +15863,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>509</v>
@@ -15836,9 +15883,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6">
       <c r="A353" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>510</v>
@@ -15856,9 +15903,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6">
       <c r="A354" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>510</v>
@@ -15876,9 +15923,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6">
       <c r="A355" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>510</v>
@@ -15896,9 +15943,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6">
       <c r="A356" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>510</v>
@@ -15916,9 +15963,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6">
       <c r="A357" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>513</v>
@@ -15936,9 +15983,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6">
       <c r="A358" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>515</v>
@@ -15956,9 +16003,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6">
       <c r="A359" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>516</v>
@@ -15976,9 +16023,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6">
       <c r="A360" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>516</v>
@@ -15996,9 +16043,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6">
       <c r="A361" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>516</v>
@@ -16016,9 +16063,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6">
       <c r="A362" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>516</v>
@@ -16036,9 +16083,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6">
       <c r="A363" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>516</v>
@@ -16056,9 +16103,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6">
       <c r="A364" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>516</v>
@@ -16076,9 +16123,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6">
       <c r="A365" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>516</v>
@@ -16096,9 +16143,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6">
       <c r="A366" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>516</v>
@@ -16116,9 +16163,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6">
       <c r="A367" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>516</v>
@@ -16136,9 +16183,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6">
       <c r="A368" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>526</v>
@@ -16156,9 +16203,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>529</v>
@@ -16176,9 +16223,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>529</v>
@@ -16196,12 +16243,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>142</v>
@@ -16216,12 +16263,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>289</v>
@@ -16236,12 +16283,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>292</v>
@@ -16256,12 +16303,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>295</v>
@@ -16276,12 +16323,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B375" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>142</v>
@@ -16296,12 +16343,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>289</v>
@@ -16316,12 +16363,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>292</v>
@@ -16336,12 +16383,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B378" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>295</v>
@@ -16356,12 +16403,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>321</v>
@@ -16376,12 +16423,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>142</v>
@@ -16396,12 +16443,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>289</v>
@@ -16416,12 +16463,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B382" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>292</v>
@@ -16436,12 +16483,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B383" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>295</v>
@@ -16456,12 +16503,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>321</v>
@@ -16476,12 +16523,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6">
       <c r="A385" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B385" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>318</v>
@@ -16496,12 +16543,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6">
       <c r="A386" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>142</v>
@@ -16516,12 +16563,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6">
       <c r="A387" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>289</v>
@@ -16536,12 +16583,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6">
       <c r="A388" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B388" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>292</v>
@@ -16556,12 +16603,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6">
       <c r="A389" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>295</v>
@@ -16576,12 +16623,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6">
       <c r="A390" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B390" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>321</v>
@@ -16596,12 +16643,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6">
       <c r="A391" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B391" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>318</v>
@@ -16616,12 +16663,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6">
       <c r="A392" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>346</v>
@@ -16636,9 +16683,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6">
       <c r="A393" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>538</v>
@@ -16656,9 +16703,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6">
       <c r="A394" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>538</v>
@@ -16676,9 +16723,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6">
       <c r="A395" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>538</v>
@@ -16696,9 +16743,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6">
       <c r="A396" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>538</v>
@@ -16716,9 +16763,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6">
       <c r="A397" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>538</v>
@@ -16736,9 +16783,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6">
       <c r="A398" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>538</v>
@@ -16756,9 +16803,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6">
       <c r="A399" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>538</v>
@@ -16776,9 +16823,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6">
       <c r="A400" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>539</v>
@@ -16796,9 +16843,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6">
       <c r="A401" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>539</v>
@@ -16816,9 +16863,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6">
       <c r="A402" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>539</v>
@@ -16836,9 +16883,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6">
       <c r="A403" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>539</v>
@@ -16856,9 +16903,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6">
       <c r="A404" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>539</v>
@@ -16876,9 +16923,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6">
       <c r="A405" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>543</v>
@@ -16896,9 +16943,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6">
       <c r="A406" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>543</v>
@@ -16916,9 +16963,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6">
       <c r="A407" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>543</v>
@@ -16936,9 +16983,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6">
       <c r="A408" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>543</v>
@@ -16956,9 +17003,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6">
       <c r="A409" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>543</v>
@@ -16976,9 +17023,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6">
       <c r="A410" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>544</v>
@@ -16996,9 +17043,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6">
       <c r="A411" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>544</v>
@@ -17016,9 +17063,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6">
       <c r="A412" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>544</v>
@@ -17036,9 +17083,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6">
       <c r="A413" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>544</v>
@@ -17056,9 +17103,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6">
       <c r="A414" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>544</v>
@@ -17076,9 +17123,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6">
       <c r="A415" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>544</v>
@@ -17096,9 +17143,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6">
       <c r="A416" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>548</v>
@@ -17116,9 +17163,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6">
       <c r="A417" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>548</v>
@@ -17136,9 +17183,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6">
       <c r="A418" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>548</v>
@@ -17156,9 +17203,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6">
       <c r="A419" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>548</v>
@@ -17176,9 +17223,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6">
       <c r="A420" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>548</v>
@@ -17196,9 +17243,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6">
       <c r="A421" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>548</v>
@@ -17216,9 +17263,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6">
       <c r="A422" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>548</v>
@@ -17236,9 +17283,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6">
       <c r="A423" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>558</v>
@@ -17256,9 +17303,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>558</v>
@@ -17276,9 +17323,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6">
       <c r="A425" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>558</v>
@@ -17296,9 +17343,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6">
       <c r="A426" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>558</v>
@@ -17316,9 +17363,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6">
       <c r="A427" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>558</v>
@@ -17336,9 +17383,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6">
       <c r="A428" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>561</v>
@@ -17356,9 +17403,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6">
       <c r="A429" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>561</v>
@@ -17376,9 +17423,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6">
       <c r="A430" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>561</v>
@@ -17396,9 +17443,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6">
       <c r="A431" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>561</v>
@@ -17416,9 +17463,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6">
       <c r="A432" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>561</v>
@@ -17436,9 +17483,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6">
       <c r="A433" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>561</v>
@@ -17456,9 +17503,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6">
       <c r="A434" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>567</v>
@@ -17476,9 +17523,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6">
       <c r="A435" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>567</v>
@@ -17496,9 +17543,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6">
       <c r="A436" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>567</v>
@@ -17516,9 +17563,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6">
       <c r="A437" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>567</v>
@@ -17536,9 +17583,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6">
       <c r="A438" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>567</v>
@@ -17556,9 +17603,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6">
       <c r="A439" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>567</v>
@@ -17576,9 +17623,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6">
       <c r="A440" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>568</v>
@@ -17596,9 +17643,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6">
       <c r="A441" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>568</v>
@@ -17616,9 +17663,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6">
       <c r="A442" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>568</v>
@@ -17636,9 +17683,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6">
       <c r="A443" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>568</v>
@@ -17656,9 +17703,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6">
       <c r="A444" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>568</v>
@@ -17676,9 +17723,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6">
       <c r="A445" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>568</v>
@@ -17696,9 +17743,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6">
       <c r="A446" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>568</v>
@@ -17716,7 +17763,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6">
       <c r="A447" s="3" t="s">
         <v>576</v>
       </c>
@@ -17736,7 +17783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6">
       <c r="A448" s="3" t="s">
         <v>576</v>
       </c>
@@ -17756,7 +17803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6">
       <c r="A449" s="3" t="s">
         <v>576</v>
       </c>
@@ -17776,7 +17823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6">
       <c r="A450" s="3" t="s">
         <v>576</v>
       </c>
@@ -17796,7 +17843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6">
       <c r="A451" s="3" t="s">
         <v>576</v>
       </c>
@@ -17816,7 +17863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6">
       <c r="A452" s="3" t="s">
         <v>576</v>
       </c>
@@ -17836,9 +17883,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6">
       <c r="A453" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>580</v>
@@ -17856,9 +17903,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6">
       <c r="A454" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>580</v>
@@ -17876,9 +17923,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6">
       <c r="A455" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>580</v>
@@ -17896,9 +17943,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6">
       <c r="A456" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>580</v>
@@ -17916,9 +17963,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6">
       <c r="A457" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>580</v>
@@ -17936,9 +17983,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6">
       <c r="A458" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>580</v>
@@ -17956,9 +18003,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6">
       <c r="A459" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>581</v>
@@ -17976,9 +18023,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6">
       <c r="A460" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>581</v>
@@ -17996,9 +18043,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6">
       <c r="A461" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>581</v>
@@ -18016,9 +18063,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6">
       <c r="A462" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>581</v>
@@ -18036,9 +18083,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6">
       <c r="A463" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>581</v>
@@ -18056,9 +18103,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6">
       <c r="A464" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>581</v>
@@ -18076,9 +18123,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6">
       <c r="A465" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>586</v>
@@ -18096,9 +18143,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6">
       <c r="A466" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>586</v>
@@ -18116,9 +18163,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6">
       <c r="A467" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>586</v>
@@ -18136,9 +18183,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6">
       <c r="A468" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>586</v>
@@ -18156,9 +18203,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6">
       <c r="A469" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>586</v>
@@ -18176,9 +18223,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6">
       <c r="A470" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>586</v>
@@ -18196,9 +18243,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6">
       <c r="A471" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>586</v>
@@ -18216,9 +18263,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6">
       <c r="A472" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>586</v>
@@ -18236,9 +18283,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6">
       <c r="A473" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>586</v>
@@ -18256,9 +18303,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6">
       <c r="A474" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>586</v>
@@ -18276,9 +18323,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6">
       <c r="A475" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>586</v>
@@ -18296,9 +18343,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6">
       <c r="A476" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>586</v>
@@ -18316,9 +18363,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6">
       <c r="A477" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>586</v>
@@ -18336,9 +18383,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6">
       <c r="A478" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>586</v>
@@ -18356,9 +18403,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6">
       <c r="A479" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>586</v>
@@ -18376,9 +18423,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6">
       <c r="A480" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>586</v>
@@ -18396,9 +18443,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6">
       <c r="A481" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>586</v>
@@ -18416,7 +18463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6">
       <c r="A482" s="3" t="s">
         <v>600</v>
       </c>
@@ -18436,7 +18483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6">
       <c r="A483" s="3" t="s">
         <v>600</v>
       </c>
@@ -18456,7 +18503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6">
       <c r="A484" s="3" t="s">
         <v>600</v>
       </c>
@@ -18476,7 +18523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6">
       <c r="A485" s="3" t="s">
         <v>600</v>
       </c>
@@ -18496,7 +18543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6">
       <c r="A486" s="3" t="s">
         <v>600</v>
       </c>
@@ -18516,7 +18563,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6">
       <c r="A487" s="3" t="s">
         <v>600</v>
       </c>
@@ -18536,7 +18583,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6">
       <c r="A488" s="3" t="s">
         <v>600</v>
       </c>
@@ -18556,7 +18603,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6">
       <c r="A489" s="3" t="s">
         <v>600</v>
       </c>
@@ -18576,7 +18623,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
         <v>600</v>
       </c>
@@ -18596,9 +18643,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6">
       <c r="A491" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>613</v>
@@ -18616,9 +18663,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6">
       <c r="A492" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>613</v>
@@ -18636,9 +18683,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6">
       <c r="A493" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>613</v>
@@ -18656,9 +18703,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6">
       <c r="A494" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>613</v>
@@ -18676,9 +18723,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6">
       <c r="A495" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>613</v>
@@ -18696,9 +18743,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6">
       <c r="A496" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>613</v>
@@ -18716,9 +18763,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6">
       <c r="A497" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>613</v>
@@ -18736,9 +18783,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6">
       <c r="A498" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>613</v>
@@ -18756,9 +18803,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6">
       <c r="A499" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>613</v>
@@ -18776,9 +18823,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6">
       <c r="A500" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>613</v>
@@ -18796,9 +18843,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6">
       <c r="A501" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>613</v>
@@ -18816,9 +18863,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6">
       <c r="A502" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>613</v>
@@ -18836,9 +18883,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6">
       <c r="A503" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>613</v>
@@ -18856,9 +18903,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6">
       <c r="A504" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>613</v>
@@ -18876,9 +18923,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6">
       <c r="A505" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>510</v>
@@ -18896,9 +18943,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6">
       <c r="A506" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>510</v>
@@ -18916,9 +18963,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6">
       <c r="A507" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>510</v>
@@ -18936,9 +18983,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6">
       <c r="A508" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>510</v>
@@ -18956,9 +19003,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6">
       <c r="A509" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>510</v>
@@ -18976,7 +19023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6">
       <c r="A510" s="3" t="s">
         <v>297</v>
       </c>
@@ -18996,7 +19043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6">
       <c r="A511" s="3" t="s">
         <v>297</v>
       </c>
@@ -19016,7 +19063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6">
       <c r="A512" s="3" t="s">
         <v>297</v>
       </c>
@@ -19036,7 +19083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6">
       <c r="A513" s="3" t="s">
         <v>297</v>
       </c>
@@ -19056,7 +19103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6">
       <c r="A514" s="3" t="s">
         <v>297</v>
       </c>
@@ -19077,104 +19124,106 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F514"/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <autoFilter ref="A1:F514">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="B400">
-    <cfRule type="duplicateValues" dxfId="56" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A401">
-    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B401">
-    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A402">
-    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B402">
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A403">
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B403">
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B404">
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B405">
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B406">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B407">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B408">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B409">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A400 A405">
-    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="0" priority="54"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632">
   <si>
     <t>序号</t>
   </si>
@@ -2143,10 +2143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2191,67 +2191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2266,6 +2205,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2274,7 +2237,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2288,7 +2273,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2303,25 +2304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2332,6 +2324,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2352,7 +2352,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2379,31 +2379,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,7 +2439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,13 +2499,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,31 +2535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,73 +2553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,26 +2578,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2641,6 +2615,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2662,15 +2645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2685,16 +2659,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2703,16 +2697,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2721,116 +2715,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3241,10 +3235,10 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="13.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3388,26 +3382,26 @@
       <selection pane="bottomLeft" activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="7" customWidth="1"/>
     <col min="3" max="4" width="9" style="7"/>
-    <col min="5" max="6" width="6.875" style="7" customWidth="1"/>
+    <col min="5" max="6" width="6.87962962962963" style="7" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.3796296296296" style="8" customWidth="1"/>
     <col min="9" max="9" width="32.25" style="7" customWidth="1"/>
     <col min="10" max="10" width="22.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.6296296296296" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.25" style="7" customWidth="1"/>
     <col min="13" max="13" width="9" style="9"/>
     <col min="14" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="33.875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="33.8796296296296" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.37962962962963" style="10" customWidth="1"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="36" spans="1:19">
+    <row r="1" s="5" customFormat="1" ht="34.8" spans="1:19">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -8827,23 +8821,23 @@
   <dimension ref="A1:F514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E513" sqref="E513"/>
+      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="34.8" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -14383,7 +14377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" s="1" customFormat="1" spans="1:6">
       <c r="A278" s="3" t="s">
         <v>156</v>
       </c>
@@ -14394,10 +14388,10 @@
         <v>142</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>32</v>
@@ -14414,10 +14408,10 @@
         <v>289</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>32</v>
@@ -14434,10 +14428,10 @@
         <v>292</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>32</v>
@@ -14454,10 +14448,10 @@
         <v>295</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>32</v>

--- a/src/doubleScreen/双屏确认.xlsx
+++ b/src/doubleScreen/双屏确认.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\02工程活动\04设计与实现\交易数据统计\交易规则统计\二阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616EBD2E-8D47-41BC-A127-2F49E083F0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E383EED5-F819-43BC-9229-F42387DDAD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="231">
   <si>
     <t>序号</t>
   </si>
@@ -750,77 +750,6 @@
   </si>
   <si>
     <t>beneficiaryNumber1</t>
-  </si>
-  <si>
-    <t>00508004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲伟伟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC用户名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>00508004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC记账卡欠费查询及处理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_USER_NM</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC卡号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣费方式</t>
-  </si>
-  <si>
-    <t>绑定账号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费金额</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_CARD_NO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>OWE_FE_AMT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSTRN_FE_MANR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIND_ACCT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>00508004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2039,9 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2938,27 +2867,13 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="14">
-        <v>33</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="16"/>
       <c r="L19" s="14"/>
@@ -2966,15 +2881,9 @@
       <c r="N19" s="18"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>233</v>
-      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
@@ -4865,9 +4774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F538"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -9242,104 +9151,44 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B219" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C219" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="D219" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="E219" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="F219" s="31" t="s">
-        <v>239</v>
-      </c>
+      <c r="A219" s="31"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B220" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C220" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D220" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E220" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="F220" s="31" t="s">
-        <v>239</v>
-      </c>
+      <c r="A220" s="31"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="31"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B221" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C221" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D221" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="E221" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F221" s="31" t="s">
-        <v>239</v>
-      </c>
+      <c r="A221" s="31"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B222" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C222" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E222" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F222" s="32" t="s">
-        <v>239</v>
-      </c>
+      <c r="A222" s="31"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B223" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C223" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D223" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E223" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F223" s="32" t="s">
-        <v>239</v>
-      </c>
+      <c r="A223" s="31"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="5"/>
